--- a/Requirments/CRS/CRS.xlsx
+++ b/Requirments/CRS/CRS.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28803"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32824182-4E86-4C4A-8A02-4087E3071EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arsan\OneDrive\Desktop\upload to git\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="259">
   <si>
     <t>Feature ID</t>
   </si>
@@ -138,9 +142,6 @@
     <t>Registration_006</t>
   </si>
   <si>
-    <t>Phone number shall start with +20.</t>
-  </si>
-  <si>
     <t>SIQ_13</t>
   </si>
   <si>
@@ -228,15 +229,9 @@
     <t>Admin_002</t>
   </si>
   <si>
-    <t>Admin shall be able to Creat  new User</t>
-  </si>
-  <si>
     <t>Admin_003</t>
   </si>
   <si>
-    <t>Admin shall be able to Delete Advertisment</t>
-  </si>
-  <si>
     <t>Feature_005</t>
   </si>
   <si>
@@ -307,13 +302,523 @@
   </si>
   <si>
     <t>SIQ_04</t>
+  </si>
+  <si>
+    <t>Registration_009</t>
+  </si>
+  <si>
+    <t>Registration_010</t>
+  </si>
+  <si>
+    <t>Registration_011</t>
+  </si>
+  <si>
+    <t>Registration_012</t>
+  </si>
+  <si>
+    <t>Registration_013</t>
+  </si>
+  <si>
+    <t>Registration_014</t>
+  </si>
+  <si>
+    <t>Registration_015</t>
+  </si>
+  <si>
+    <t>Password shall not contains spaces</t>
+  </si>
+  <si>
+    <t>SIQ_20</t>
+  </si>
+  <si>
+    <t>SIQ_21</t>
+  </si>
+  <si>
+    <t>SIQ_22</t>
+  </si>
+  <si>
+    <t>Address contain at maximum 30 characters</t>
+  </si>
+  <si>
+    <t>SIQ_23</t>
+  </si>
+  <si>
+    <t>No field in registeration can be left blank</t>
+  </si>
+  <si>
+    <t>Password shall contain at maximum 20 characters</t>
+  </si>
+  <si>
+    <t>SIQ_07</t>
+  </si>
+  <si>
+    <t>Phone number field accepts numbers only</t>
+  </si>
+  <si>
+    <t>Registration_016</t>
+  </si>
+  <si>
+    <t>Phone number field is maximum of 12 digits</t>
+  </si>
+  <si>
+    <t>Phone number shall start with 20.</t>
+  </si>
+  <si>
+    <t>Email address must be unique , can't be registered before</t>
+  </si>
+  <si>
+    <t>Advertisement_008</t>
+  </si>
+  <si>
+    <t>Advertisement_009</t>
+  </si>
+  <si>
+    <t>Advertisement_010</t>
+  </si>
+  <si>
+    <t>Advertisement_011</t>
+  </si>
+  <si>
+    <t>Advertisement_012</t>
+  </si>
+  <si>
+    <t>Advertisement_013</t>
+  </si>
+  <si>
+    <t>Advertisement_014</t>
+  </si>
+  <si>
+    <t>There shall be a button on the advertisment that is used to reserve a car</t>
+  </si>
+  <si>
+    <t>SIQ_24</t>
+  </si>
+  <si>
+    <t>Reserve_002</t>
+  </si>
+  <si>
+    <t>Reserve_003</t>
+  </si>
+  <si>
+    <t>Reserve_004</t>
+  </si>
+  <si>
+    <t>Reserve_005</t>
+  </si>
+  <si>
+    <t>Reserve_006</t>
+  </si>
+  <si>
+    <t>Car reservation duration is 72 hours</t>
+  </si>
+  <si>
+    <t>SIQ_25</t>
+  </si>
+  <si>
+    <t>On reserving a car a confirmation message appear "Reserved for 72 hours"</t>
+  </si>
+  <si>
+    <t>SIQ_26</t>
+  </si>
+  <si>
+    <t>User can cancel a reservation that he made</t>
+  </si>
+  <si>
+    <t>SIQ_27</t>
+  </si>
+  <si>
+    <t>Reserve_007</t>
+  </si>
+  <si>
+    <t>When a reservation is canceled , a confirmation message appear "Reservation Cancelled"</t>
+  </si>
+  <si>
+    <t>SIQ_28</t>
+  </si>
+  <si>
+    <t>Admin_004</t>
+  </si>
+  <si>
+    <t>Admin_005</t>
+  </si>
+  <si>
+    <t>Admin_006</t>
+  </si>
+  <si>
+    <t>Admin_007</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Admin shall be able to search for a User by its Email Address </t>
+  </si>
+  <si>
+    <t>If email not found , error message appear "invalid input"</t>
+  </si>
+  <si>
+    <t>Admin shall be able to Creat new User with Email Address and password only</t>
+  </si>
+  <si>
+    <t>SIQ_29</t>
+  </si>
+  <si>
+    <t>SIQ_30</t>
+  </si>
+  <si>
+    <t>SIQ_31</t>
+  </si>
+  <si>
+    <t>Admin should follow the registration restriction for Email and password fields</t>
+  </si>
+  <si>
+    <t>The user will be forced to enter the rest of the required data when he log in .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin shall be able to delete the advertisement using the delete button In the advertisement page </t>
+  </si>
+  <si>
+    <t>SIQ_32</t>
+  </si>
+  <si>
+    <t>SIQ_33</t>
+  </si>
+  <si>
+    <t>SIQ_34</t>
+  </si>
+  <si>
+    <t>Search_005</t>
+  </si>
+  <si>
+    <t>Search_006</t>
+  </si>
+  <si>
+    <t>Search_007</t>
+  </si>
+  <si>
+    <t>Search_008</t>
+  </si>
+  <si>
+    <t>Search_009</t>
+  </si>
+  <si>
+    <t>Search_010</t>
+  </si>
+  <si>
+    <t>Search_011</t>
+  </si>
+  <si>
+    <t>Search_012</t>
+  </si>
+  <si>
+    <t>Search_013</t>
+  </si>
+  <si>
+    <t>SIQ_35</t>
+  </si>
+  <si>
+    <t>SIQ_36</t>
+  </si>
+  <si>
+    <t>SIQ_37</t>
+  </si>
+  <si>
+    <t>SIQ_38</t>
+  </si>
+  <si>
+    <t>SIQ_39</t>
+  </si>
+  <si>
+    <t>SIQ_40</t>
+  </si>
+  <si>
+    <t>SIQ_41</t>
+  </si>
+  <si>
+    <t>SIQ_42</t>
+  </si>
+  <si>
+    <t>SIQ_43</t>
+  </si>
+  <si>
+    <t>Car Name must accept only alphabetic characters, numeric characters, and spaces.</t>
+  </si>
+  <si>
+    <t>Manufacturing Year must be numeric only.</t>
+  </si>
+  <si>
+    <t>Manufacturing Year must be between 1900 and the current year.</t>
+  </si>
+  <si>
+    <t>Price must be numeric only.</t>
+  </si>
+  <si>
+    <t>Price must be greater than or equal to 0.</t>
+  </si>
+  <si>
+    <t>Price must not contain special characters or letters.</t>
+  </si>
+  <si>
+    <t>Address must allow alphanumeric characters, spaces, commas, and hyphens.</t>
+  </si>
+  <si>
+    <t>Users must be able to combine multiple filters in a single search query.</t>
+  </si>
+  <si>
+    <t>If no results match the search, the message "No cars found matching your filters." must appear.</t>
+  </si>
+  <si>
+    <t>Manufacturing Year must be a 4-digit number.</t>
+  </si>
+  <si>
+    <t>Manufacturing Year must not contain any spaces.</t>
+  </si>
+  <si>
+    <t>Car Price must not be zero.</t>
+  </si>
+  <si>
+    <t>Car Price must contain only digits.</t>
+  </si>
+  <si>
+    <t>Car Price must be between 100,000 and 9,223,372,036,854,775,807 EGP.</t>
+  </si>
+  <si>
+    <t>Address must follow the format: [Building Number],[Street Name],[District/Area],[City],[Governorate]</t>
+  </si>
+  <si>
+    <t>Building Number must contain digits only.</t>
+  </si>
+  <si>
+    <t>Building Number must be 1–4 digits long.</t>
+  </si>
+  <si>
+    <t>Building Number must not start with 0.</t>
+  </si>
+  <si>
+    <t>Street Name, District/Area, City, and Governorate must contain alphabetic characters only.</t>
+  </si>
+  <si>
+    <t>Street Name, District/Area, City, and Governorate must be 3–20 characters long.</t>
+  </si>
+  <si>
+    <t>Street Name, District/Area, City, and Governorate must not start with a space.</t>
+  </si>
+  <si>
+    <t>License Expiration must follow the format Day/Month/Year.</t>
+  </si>
+  <si>
+    <t>License Expiration must not contain leading spaces.</t>
+  </si>
+  <si>
+    <t>License Expiration must not be older than 3 years from the current date.</t>
+  </si>
+  <si>
+    <t>Car Name must not start with a space.</t>
+  </si>
+  <si>
+    <t>Car Name must not start with a number.</t>
+  </si>
+  <si>
+    <t>Car Name must be between 3 and 30 characters.</t>
+  </si>
+  <si>
+    <t>Car Name must contain only alphabetic characters and spaces.</t>
+  </si>
+  <si>
+    <t>If  Car Name is invalid,  display the error message: "input is not valid" in red font.</t>
+  </si>
+  <si>
+    <t>If Manufacturing Year is invalid, display the error message: "input is not valid" in red font.</t>
+  </si>
+  <si>
+    <t>If Car Price is invalid, display the error message: "input is not valid" in red font.</t>
+  </si>
+  <si>
+    <t>If Contact Number is invalid, display the error message: "input is not valid" in red font.</t>
+  </si>
+  <si>
+    <t>If Address is invalid, display the error message: "input is not valid" in red font.</t>
+  </si>
+  <si>
+    <t>If License Expiration is invalid,  display the error message: "input is not valid" in red font.</t>
+  </si>
+  <si>
+    <t>Advertisement_015</t>
+  </si>
+  <si>
+    <t>Advertisement_016</t>
+  </si>
+  <si>
+    <t>Advertisement_017</t>
+  </si>
+  <si>
+    <t>Advertisement_018</t>
+  </si>
+  <si>
+    <t>Advertisement_019</t>
+  </si>
+  <si>
+    <t>Advertisement_020</t>
+  </si>
+  <si>
+    <t>Advertisement_021</t>
+  </si>
+  <si>
+    <t>Advertisement_022</t>
+  </si>
+  <si>
+    <t>Advertisement_023</t>
+  </si>
+  <si>
+    <t>Advertisement_024</t>
+  </si>
+  <si>
+    <t>Advertisement_025</t>
+  </si>
+  <si>
+    <t>Advertisement_026</t>
+  </si>
+  <si>
+    <t>Advertisement_027</t>
+  </si>
+  <si>
+    <t>Advertisement_028</t>
+  </si>
+  <si>
+    <t>Advertisement_029</t>
+  </si>
+  <si>
+    <t>Advertisement_030</t>
+  </si>
+  <si>
+    <t>Advertisement_031</t>
+  </si>
+  <si>
+    <t>Advertisement_032</t>
+  </si>
+  <si>
+    <t>Advertisement_033</t>
+  </si>
+  <si>
+    <t>Advertisement_034</t>
+  </si>
+  <si>
+    <t>Advertisement_035</t>
+  </si>
+  <si>
+    <t>Advertisement_036</t>
+  </si>
+  <si>
+    <t>SIQ_44</t>
+  </si>
+  <si>
+    <t>SIQ_45</t>
+  </si>
+  <si>
+    <t>SIQ_46</t>
+  </si>
+  <si>
+    <t>SIQ_47</t>
+  </si>
+  <si>
+    <t>SIQ_48</t>
+  </si>
+  <si>
+    <t>SIQ_49</t>
+  </si>
+  <si>
+    <t>SIQ_50</t>
+  </si>
+  <si>
+    <t>SIQ_51</t>
+  </si>
+  <si>
+    <t>SIQ_52</t>
+  </si>
+  <si>
+    <t>SIQ_53</t>
+  </si>
+  <si>
+    <t>SIQ_54</t>
+  </si>
+  <si>
+    <t>SIQ_55</t>
+  </si>
+  <si>
+    <t>SIQ_56</t>
+  </si>
+  <si>
+    <t>SIQ_57</t>
+  </si>
+  <si>
+    <t>SIQ_58</t>
+  </si>
+  <si>
+    <t>SIQ_59</t>
+  </si>
+  <si>
+    <t>SIQ_60</t>
+  </si>
+  <si>
+    <t>SIQ_61</t>
+  </si>
+  <si>
+    <t>SIQ_62</t>
+  </si>
+  <si>
+    <t>SIQ_63</t>
+  </si>
+  <si>
+    <t>SIQ_64</t>
+  </si>
+  <si>
+    <t>SIQ_65</t>
+  </si>
+  <si>
+    <t>SIQ_66</t>
+  </si>
+  <si>
+    <t>SIQ_67</t>
+  </si>
+  <si>
+    <t>SIQ_68</t>
+  </si>
+  <si>
+    <t>SIQ_69</t>
+  </si>
+  <si>
+    <t>SIQ_70</t>
+  </si>
+  <si>
+    <t>SIQ_71</t>
+  </si>
+  <si>
+    <t>SIQ_72</t>
+  </si>
+  <si>
+    <t>SIQ_73</t>
+  </si>
+  <si>
+    <t>The only allowed special characters in address field is , and .</t>
+  </si>
+  <si>
+    <t>Contact Number must start with 20.</t>
+  </si>
+  <si>
+    <t>Contact Number must not start with 0 after 20.</t>
+  </si>
+  <si>
+    <t>Contact Number must contain exactly 10 digits after 20.</t>
+  </si>
+  <si>
+    <t>Only registered and logged-in users should have access to the reservation feature.</t>
+  </si>
+  <si>
+    <t>License Expiration must contain digits only, and special character "/" only</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -343,6 +848,25 @@
       <color rgb="FF242424"/>
       <name val="Aptos Narrow"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -370,7 +894,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="71">
     <border>
       <left/>
       <right/>
@@ -390,49 +914,25 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -561,14 +1061,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -577,143 +1077,730 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -726,243 +1813,420 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1297,105 +2561,105 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="B66" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="64.5703125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="26.28515625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="16.3984375" customWidth="1"/>
+    <col min="2" max="2" width="23.09765625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="21.59765625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="93.296875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="26.296875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="20.09765625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="21" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="23" t="s">
+      <c r="E2" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="18" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A3" s="81"/>
-      <c r="B3" s="78"/>
-      <c r="C3" s="9" t="s">
+      <c r="A3" s="112"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="24" t="s">
+      <c r="E3" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="19" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A4" s="81"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="10" t="s">
+      <c r="A4" s="112"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="25" t="s">
+      <c r="E4" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30.75">
-      <c r="A5" s="81"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="27" t="s">
+    <row r="5" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A5" s="112"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="61" t="s">
+      <c r="E5" s="32" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="33" t="s">
@@ -1403,593 +2667,1463 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="132" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="133" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="134" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="30" t="s">
+      <c r="E6" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="135" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A7" s="81"/>
-      <c r="B7" s="83"/>
-      <c r="C7" s="10" t="s">
+      <c r="A7" s="131"/>
+      <c r="B7" s="136"/>
+      <c r="C7" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="31" t="s">
+      <c r="E7" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="137" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A8" s="81"/>
-      <c r="B8" s="83"/>
-      <c r="C8" s="9" t="s">
+      <c r="A8" s="131"/>
+      <c r="B8" s="136"/>
+      <c r="C8" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="32" t="s">
+      <c r="E8" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="138" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="81"/>
-      <c r="B9" s="83"/>
-      <c r="C9" s="9" t="s">
+      <c r="A9" s="131"/>
+      <c r="B9" s="136"/>
+      <c r="C9" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="32" t="s">
+      <c r="E9" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="138" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A10" s="81"/>
-      <c r="B10" s="83"/>
-      <c r="C10" s="9" t="s">
+      <c r="A10" s="131"/>
+      <c r="B10" s="136"/>
+      <c r="C10" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="32" t="s">
+      <c r="E10" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="138" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A11" s="81"/>
-      <c r="B11" s="83"/>
-      <c r="C11" s="9" t="s">
+      <c r="A11" s="131"/>
+      <c r="B11" s="136"/>
+      <c r="C11" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="138" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="32" t="s">
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A12" s="131"/>
+      <c r="B12" s="136"/>
+      <c r="C12" s="84" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A12" s="81"/>
-      <c r="B12" s="83"/>
-      <c r="C12" s="9" t="s">
+      <c r="D12" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="E12" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="138" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="32" t="s">
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A13" s="131"/>
+      <c r="B13" s="136"/>
+      <c r="C13" s="85" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A13" s="81"/>
-      <c r="B13" s="83"/>
-      <c r="C13" s="27" t="s">
+      <c r="D13" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="E13" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="139" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="39" t="s">
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A14" s="131"/>
+      <c r="B14" s="136"/>
+      <c r="C14" s="85" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="139" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A15" s="131"/>
+      <c r="B15" s="136"/>
+      <c r="C15" s="85" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="139" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A16" s="131"/>
+      <c r="B16" s="136"/>
+      <c r="C16" s="85" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="139" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A17" s="131"/>
+      <c r="B17" s="136"/>
+      <c r="C17" s="85" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="139" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A18" s="131"/>
+      <c r="B18" s="136"/>
+      <c r="C18" s="85" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="139" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A19" s="131"/>
+      <c r="B19" s="136"/>
+      <c r="C19" s="85" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="140" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A20" s="131"/>
+      <c r="B20" s="136"/>
+      <c r="C20" s="85" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="140" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A21" s="131"/>
+      <c r="B21" s="141"/>
+      <c r="C21" s="142" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" s="143" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21" s="144" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="83" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A22" s="113" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A14" s="75" t="s">
+      <c r="B22" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="84" t="s">
+      <c r="C22" s="117" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="D22" s="119" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="E22" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="36" t="s">
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="114"/>
+      <c r="B23" s="127"/>
+      <c r="C23" s="118" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="76"/>
-      <c r="B15" s="85"/>
-      <c r="C15" s="37" t="s">
+      <c r="D23" s="120" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="E23" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="70" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A24" s="114"/>
+      <c r="B24" s="127"/>
+      <c r="C24" s="118" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="38" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A16" s="76"/>
-      <c r="B16" s="85"/>
-      <c r="C16" s="37" t="s">
+      <c r="D24" s="120" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="E24" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="70" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A25" s="114"/>
+      <c r="B25" s="127"/>
+      <c r="C25" s="118" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="38" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A17" s="76"/>
-      <c r="B17" s="85"/>
-      <c r="C17" s="37" t="s">
+      <c r="D25" s="120" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="E25" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="70" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A26" s="114"/>
+      <c r="B26" s="127"/>
+      <c r="C26" s="118" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="38" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A18" s="76"/>
-      <c r="B18" s="85"/>
-      <c r="C18" s="37" t="s">
+      <c r="D26" s="121" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="70" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A27" s="114"/>
+      <c r="B27" s="127"/>
+      <c r="C27" s="118" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="38" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A19" s="76"/>
-      <c r="B19" s="85"/>
-      <c r="C19" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="16" t="s">
+      <c r="D27" s="122" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="53" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A28" s="114"/>
+      <c r="B28" s="127"/>
+      <c r="C28" s="118" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="38" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A20" s="76"/>
-      <c r="B20" s="85"/>
-      <c r="C20" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="42" t="s">
+      <c r="D28" s="50" t="s">
+        <v>191</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="54" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A29" s="114"/>
+      <c r="B29" s="127"/>
+      <c r="C29" s="118" t="s">
+        <v>110</v>
+      </c>
+      <c r="D29" s="50" t="s">
+        <v>192</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="54" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A30" s="114"/>
+      <c r="B30" s="127"/>
+      <c r="C30" s="118" t="s">
+        <v>111</v>
+      </c>
+      <c r="D30" s="50" t="s">
+        <v>193</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="54" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A31" s="114"/>
+      <c r="B31" s="127"/>
+      <c r="C31" s="118" t="s">
+        <v>112</v>
+      </c>
+      <c r="D31" s="52" t="s">
+        <v>194</v>
+      </c>
+      <c r="E31" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="54" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A32" s="114"/>
+      <c r="B32" s="127"/>
+      <c r="C32" s="118" t="s">
+        <v>113</v>
+      </c>
+      <c r="D32" s="52" t="s">
+        <v>195</v>
+      </c>
+      <c r="E32" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="54" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A33" s="114"/>
+      <c r="B33" s="127"/>
+      <c r="C33" s="118" t="s">
+        <v>114</v>
+      </c>
+      <c r="D33" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="E33" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="54" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A34" s="114"/>
+      <c r="B34" s="127"/>
+      <c r="C34" s="118" t="s">
+        <v>115</v>
+      </c>
+      <c r="D34" s="52" t="s">
+        <v>169</v>
+      </c>
+      <c r="E34" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A35" s="114"/>
+      <c r="B35" s="127"/>
+      <c r="C35" s="118" t="s">
+        <v>116</v>
+      </c>
+      <c r="D35" s="52" t="s">
+        <v>177</v>
+      </c>
+      <c r="E35" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="54" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A36" s="114"/>
+      <c r="B36" s="127"/>
+      <c r="C36" s="118" t="s">
+        <v>201</v>
+      </c>
+      <c r="D36" s="52" t="s">
+        <v>196</v>
+      </c>
+      <c r="E36" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="54" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A37" s="114"/>
+      <c r="B37" s="127"/>
+      <c r="C37" s="118" t="s">
+        <v>202</v>
+      </c>
+      <c r="D37" s="52" t="s">
+        <v>178</v>
+      </c>
+      <c r="E37" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="54" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A38" s="114"/>
+      <c r="B38" s="127"/>
+      <c r="C38" s="118" t="s">
+        <v>203</v>
+      </c>
+      <c r="D38" s="52" t="s">
+        <v>179</v>
+      </c>
+      <c r="E38" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="54" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A39" s="114"/>
+      <c r="B39" s="127"/>
+      <c r="C39" s="118" t="s">
+        <v>204</v>
+      </c>
+      <c r="D39" s="52" t="s">
+        <v>180</v>
+      </c>
+      <c r="E39" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="54" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A40" s="114"/>
+      <c r="B40" s="127"/>
+      <c r="C40" s="118" t="s">
+        <v>205</v>
+      </c>
+      <c r="D40" s="52" t="s">
+        <v>197</v>
+      </c>
+      <c r="E40" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="54" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A41" s="114"/>
+      <c r="B41" s="127"/>
+      <c r="C41" s="118" t="s">
+        <v>206</v>
+      </c>
+      <c r="D41" s="52" t="s">
+        <v>254</v>
+      </c>
+      <c r="E41" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="54" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A42" s="114"/>
+      <c r="B42" s="127"/>
+      <c r="C42" s="118" t="s">
+        <v>207</v>
+      </c>
+      <c r="D42" s="52" t="s">
+        <v>256</v>
+      </c>
+      <c r="E42" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="54" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A43" s="114"/>
+      <c r="B43" s="127"/>
+      <c r="C43" s="118" t="s">
+        <v>208</v>
+      </c>
+      <c r="D43" s="52" t="s">
+        <v>255</v>
+      </c>
+      <c r="E43" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="54" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A44" s="114"/>
+      <c r="B44" s="127"/>
+      <c r="C44" s="118" t="s">
+        <v>209</v>
+      </c>
+      <c r="D44" s="52" t="s">
+        <v>198</v>
+      </c>
+      <c r="E44" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="54" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A45" s="114"/>
+      <c r="B45" s="127"/>
+      <c r="C45" s="118" t="s">
+        <v>210</v>
+      </c>
+      <c r="D45" s="52" t="s">
+        <v>181</v>
+      </c>
+      <c r="E45" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" s="54" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A46" s="114"/>
+      <c r="B46" s="127"/>
+      <c r="C46" s="118" t="s">
+        <v>211</v>
+      </c>
+      <c r="D46" s="52" t="s">
+        <v>182</v>
+      </c>
+      <c r="E46" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" s="54" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A47" s="114"/>
+      <c r="B47" s="127"/>
+      <c r="C47" s="118" t="s">
+        <v>212</v>
+      </c>
+      <c r="D47" s="52" t="s">
+        <v>183</v>
+      </c>
+      <c r="E47" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="54" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A48" s="114"/>
+      <c r="B48" s="127"/>
+      <c r="C48" s="118" t="s">
+        <v>213</v>
+      </c>
+      <c r="D48" s="52" t="s">
+        <v>184</v>
+      </c>
+      <c r="E48" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" s="54" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A49" s="114"/>
+      <c r="B49" s="127"/>
+      <c r="C49" s="118" t="s">
+        <v>214</v>
+      </c>
+      <c r="D49" s="52" t="s">
+        <v>185</v>
+      </c>
+      <c r="E49" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="54" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A50" s="114"/>
+      <c r="B50" s="127"/>
+      <c r="C50" s="118" t="s">
+        <v>215</v>
+      </c>
+      <c r="D50" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="E50" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="54" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A51" s="114"/>
+      <c r="B51" s="127"/>
+      <c r="C51" s="118" t="s">
+        <v>216</v>
+      </c>
+      <c r="D51" s="52" t="s">
+        <v>187</v>
+      </c>
+      <c r="E51" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" s="54" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A52" s="114"/>
+      <c r="B52" s="127"/>
+      <c r="C52" s="118" t="s">
+        <v>217</v>
+      </c>
+      <c r="D52" s="52" t="s">
+        <v>199</v>
+      </c>
+      <c r="E52" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" s="54" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A53" s="114"/>
+      <c r="B53" s="127"/>
+      <c r="C53" s="118" t="s">
+        <v>218</v>
+      </c>
+      <c r="D53" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="E53" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" s="54" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A54" s="114"/>
+      <c r="B54" s="127"/>
+      <c r="C54" s="118" t="s">
+        <v>219</v>
+      </c>
+      <c r="D54" s="52" t="s">
+        <v>258</v>
+      </c>
+      <c r="E54" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" s="54" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A55" s="114"/>
+      <c r="B55" s="127"/>
+      <c r="C55" s="118" t="s">
+        <v>220</v>
+      </c>
+      <c r="D55" s="52" t="s">
+        <v>189</v>
+      </c>
+      <c r="E55" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" s="54" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A56" s="114"/>
+      <c r="B56" s="127"/>
+      <c r="C56" s="118" t="s">
+        <v>221</v>
+      </c>
+      <c r="D56" s="52" t="s">
+        <v>190</v>
+      </c>
+      <c r="E56" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" s="54" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A57" s="115"/>
+      <c r="B57" s="128"/>
+      <c r="C57" s="129" t="s">
+        <v>222</v>
+      </c>
+      <c r="D57" s="55" t="s">
+        <v>200</v>
+      </c>
+      <c r="E57" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" s="57" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A58" s="103" t="s">
         <v>58</v>
       </c>
-      <c r="E20" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="43" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A21" s="70" t="s">
+      <c r="B58" s="116" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="67" t="s">
+      <c r="C58" s="123" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="D58" s="124" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="41" t="s">
+      <c r="E58" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" s="125" t="s">
         <v>62</v>
       </c>
-      <c r="E21" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="36" t="s">
+    </row>
+    <row r="59" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A59" s="104"/>
+      <c r="B59" s="101"/>
+      <c r="C59" s="62" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A22" s="71"/>
-      <c r="B22" s="68"/>
-      <c r="C22" s="11" t="s">
+      <c r="D59" s="71" t="s">
+        <v>137</v>
+      </c>
+      <c r="E59" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" s="54" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A60" s="104"/>
+      <c r="B60" s="101"/>
+      <c r="C60" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D60" s="78" t="s">
+        <v>138</v>
+      </c>
+      <c r="E60" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" s="54" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A61" s="104"/>
+      <c r="B61" s="101"/>
+      <c r="C61" s="62" t="s">
+        <v>133</v>
+      </c>
+      <c r="D61" s="79" t="s">
+        <v>139</v>
+      </c>
+      <c r="E61" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" s="54" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A62" s="104"/>
+      <c r="B62" s="101"/>
+      <c r="C62" s="62" t="s">
+        <v>134</v>
+      </c>
+      <c r="D62" s="80" t="s">
+        <v>143</v>
+      </c>
+      <c r="E62" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" s="54" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A63" s="104"/>
+      <c r="B63" s="101"/>
+      <c r="C63" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="D63" s="71" t="s">
+        <v>144</v>
+      </c>
+      <c r="E63" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" s="54" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A64" s="105"/>
+      <c r="B64" s="102"/>
+      <c r="C64" s="64" t="s">
+        <v>136</v>
+      </c>
+      <c r="D64" s="81" t="s">
+        <v>145</v>
+      </c>
+      <c r="E64" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64" s="57" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A65" s="107" t="s">
         <v>65</v>
       </c>
-      <c r="E22" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="38" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A23" s="72"/>
-      <c r="B23" s="69"/>
-      <c r="C23" s="46" t="s">
+      <c r="B65" s="106" t="s">
         <v>66</v>
       </c>
-      <c r="D23" s="47" t="s">
+      <c r="C65" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="E23" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="43" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A24" s="65" t="s">
+      <c r="D65" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="73" t="s">
+      <c r="E65" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="40" t="s">
+    </row>
+    <row r="66" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A66" s="107"/>
+      <c r="B66" s="106"/>
+      <c r="C66" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="44" t="s">
+      <c r="D66" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="E24" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="45" t="s">
+      <c r="E66" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" s="25" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A25" s="66"/>
-      <c r="B25" s="74"/>
-      <c r="C25" s="46" t="s">
+    <row r="67" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A67" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="D25" s="51" t="s">
+      <c r="B67" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="E25" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="52" t="s">
+      <c r="C67" s="35" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A26" s="65" t="s">
+      <c r="D67" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="63" t="s">
+      <c r="E67" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="C26" s="48" t="s">
+    </row>
+    <row r="68" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A68" s="99"/>
+      <c r="B68" s="95"/>
+      <c r="C68" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="49" t="s">
+      <c r="D68" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="E26" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="45" t="s">
+      <c r="E68" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="F68" s="39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A69" s="99"/>
+      <c r="B69" s="95"/>
+      <c r="C69" s="30" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A27" s="66"/>
-      <c r="B27" s="64"/>
-      <c r="C27" s="7" t="s">
+      <c r="D69" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="E69" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="F69" s="39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A70" s="99"/>
+      <c r="B70" s="95"/>
+      <c r="C70" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="E27" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="50" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A28" s="66"/>
-      <c r="B28" s="64"/>
-      <c r="C28" s="7" t="s">
+      <c r="D70" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="E70" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" s="40" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A71" s="99"/>
+      <c r="B71" s="96"/>
+      <c r="C71" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="D71" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="E71" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="F71" s="54" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A72" s="99"/>
+      <c r="B72" s="96"/>
+      <c r="C72" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="D72" s="52" t="s">
+        <v>168</v>
+      </c>
+      <c r="E72" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="F72" s="54" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A73" s="99"/>
+      <c r="B73" s="96"/>
+      <c r="C73" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="D73" s="52" t="s">
+        <v>169</v>
+      </c>
+      <c r="E73" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="F73" s="54" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A74" s="99"/>
+      <c r="B74" s="96"/>
+      <c r="C74" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="D74" s="52" t="s">
+        <v>170</v>
+      </c>
+      <c r="E74" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="F74" s="54" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A75" s="99"/>
+      <c r="B75" s="96"/>
+      <c r="C75" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="D75" s="52" t="s">
+        <v>171</v>
+      </c>
+      <c r="E75" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="F75" s="54" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A76" s="99"/>
+      <c r="B76" s="96"/>
+      <c r="C76" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="D76" s="52" t="s">
+        <v>172</v>
+      </c>
+      <c r="E76" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="F76" s="54" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A77" s="99"/>
+      <c r="B77" s="96"/>
+      <c r="C77" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="D77" s="52" t="s">
+        <v>173</v>
+      </c>
+      <c r="E77" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="F77" s="54" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A78" s="99"/>
+      <c r="B78" s="96"/>
+      <c r="C78" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="D78" s="52" t="s">
+        <v>174</v>
+      </c>
+      <c r="E78" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="F78" s="54" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A79" s="100"/>
+      <c r="B79" s="97"/>
+      <c r="C79" s="66" t="s">
+        <v>157</v>
+      </c>
+      <c r="D79" s="55" t="s">
+        <v>175</v>
+      </c>
+      <c r="E79" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="F79" s="57" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A80" s="86" t="s">
         <v>84</v>
       </c>
-      <c r="E28" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="50" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A29" s="66"/>
-      <c r="B29" s="64"/>
-      <c r="C29" s="57" t="s">
+      <c r="B80" s="90" t="s">
         <v>85</v>
       </c>
-      <c r="D29" s="58" t="s">
+      <c r="C80" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="E29" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="52" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="53" t="s">
+      <c r="D80" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="54" t="s">
+      <c r="E80" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="F80" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="55" t="s">
-        <v>89</v>
-      </c>
-      <c r="D30" s="54" t="s">
-        <v>90</v>
-      </c>
-      <c r="E30" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="56" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="2"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="20"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="2"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="20"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="2"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="20"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="2"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="20"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="20"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="2"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="20"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="20"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="20"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="4"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="20"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="1"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="5"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="1"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="5"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="1"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="5"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="1"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="5"/>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="1"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="5"/>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="1"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="5"/>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="1"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="5"/>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="1"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="5"/>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="1"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="5"/>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="1"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="5"/>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="1"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="5"/>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="1"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="5"/>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="1"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="5"/>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="1"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="5"/>
+    </row>
+    <row r="81" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A81" s="87"/>
+      <c r="B81" s="91"/>
+      <c r="C81" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="D81" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="E81" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="F81" s="53" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A82" s="87"/>
+      <c r="B82" s="91"/>
+      <c r="C82" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="D82" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="E82" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="F82" s="54" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A83" s="87"/>
+      <c r="B83" s="91"/>
+      <c r="C83" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="D83" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="E83" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="F83" s="54" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A84" s="87"/>
+      <c r="B84" s="91"/>
+      <c r="C84" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="D84" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="E84" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="F84" s="54" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A85" s="88"/>
+      <c r="B85" s="92"/>
+      <c r="C85" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="D85" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="E85" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="F85" s="54" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="16.2" thickBot="1">
+      <c r="A86" s="89"/>
+      <c r="B86" s="93"/>
+      <c r="C86" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="D86" s="82" t="s">
+        <v>257</v>
+      </c>
+      <c r="E86" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="F86" s="83" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="2"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="15"/>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="2"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="15"/>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="15"/>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="3"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="15"/>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="4"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="15"/>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="1"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="5"/>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="1"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="5"/>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="1"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="5"/>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="1"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="9"/>
+      <c r="D95" s="5"/>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="1"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="5"/>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="1"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="9"/>
+      <c r="D97" s="5"/>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="1"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="5"/>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="1"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="9"/>
+      <c r="D99" s="5"/>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="1"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="5"/>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="1"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="9"/>
+      <c r="D101" s="5"/>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="1"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="9"/>
+      <c r="D102" s="5"/>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="1"/>
+      <c r="B103" s="5"/>
+      <c r="C103" s="9"/>
+      <c r="D103" s="5"/>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="1"/>
+      <c r="B104" s="5"/>
+      <c r="C104" s="9"/>
+      <c r="D104" s="5"/>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="1"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="9"/>
+      <c r="D105" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A14:A20"/>
+  <mergeCells count="14">
+    <mergeCell ref="A22:A57"/>
     <mergeCell ref="B2:B5"/>
-    <mergeCell ref="A6:A13"/>
-    <mergeCell ref="B6:B13"/>
+    <mergeCell ref="A6:A21"/>
+    <mergeCell ref="B6:B21"/>
     <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B14:B20"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B22:B57"/>
+    <mergeCell ref="A80:A86"/>
+    <mergeCell ref="B80:B86"/>
+    <mergeCell ref="B67:B79"/>
+    <mergeCell ref="A67:A79"/>
+    <mergeCell ref="B58:B64"/>
+    <mergeCell ref="A58:A64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="A65:A66"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E30" xr:uid="{F2C0E5DD-486C-4C06-9732-70DEB99E1284}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E86">
       <formula1>"Pending Confiramtion, Confirmed"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Requirments/CRS/CRS.xlsx
+++ b/Requirments/CRS/CRS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ebrahem\ITI45\Car-Purchasing\Requirments\CRS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD79B22C-62F2-4DEB-BE88-2F269812A48C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F78CC1-2522-485D-94B2-9A290114976E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -348,9 +348,6 @@
     <t>Phone number field is maximum of 12 digits</t>
   </si>
   <si>
-    <t>Phone number shall start with 20.</t>
-  </si>
-  <si>
     <t>Email address must be unique , can't be registered before</t>
   </si>
   <si>
@@ -841,6 +838,9 @@
   </si>
   <si>
     <t>The password in all the website show as ****** (hidden)</t>
+  </si>
+  <si>
+    <t>Phone number shall start with 201.</t>
   </si>
 </sst>
 </file>
@@ -1956,6 +1956,144 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1986,151 +2124,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2470,7 +2470,7 @@
   <dimension ref="A1:F95"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2504,28 +2504,28 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="123" t="s">
+      <c r="B2" s="133" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="124" t="s">
+      <c r="C2" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="125" t="s">
+      <c r="D2" s="98" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="126" t="s">
+      <c r="F2" s="99" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="81"/>
-      <c r="B3" s="127"/>
+      <c r="A3" s="127"/>
+      <c r="B3" s="134"/>
       <c r="C3" s="5" t="s">
         <v>12</v>
       </c>
@@ -2535,81 +2535,81 @@
       <c r="E3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="128" t="s">
+      <c r="F3" s="100" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="81"/>
-      <c r="B4" s="127"/>
+      <c r="A4" s="127"/>
+      <c r="B4" s="134"/>
       <c r="C4" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="118" t="s">
+      <c r="D4" s="92" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="129" t="s">
+      <c r="F4" s="101" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="81"/>
-      <c r="B5" s="127"/>
-      <c r="C5" s="116" t="s">
+      <c r="A5" s="127"/>
+      <c r="B5" s="134"/>
+      <c r="C5" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="119" t="s">
+      <c r="D5" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="120" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="130" t="s">
+      <c r="E5" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="102" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="71"/>
-      <c r="B6" s="131"/>
-      <c r="C6" s="132" t="s">
+      <c r="B6" s="135"/>
+      <c r="C6" s="103" t="s">
+        <v>268</v>
+      </c>
+      <c r="D6" s="104" t="s">
+        <v>270</v>
+      </c>
+      <c r="E6" s="105" t="s">
+        <v>261</v>
+      </c>
+      <c r="F6" s="106" t="s">
         <v>269</v>
       </c>
-      <c r="D6" s="133" t="s">
-        <v>271</v>
-      </c>
-      <c r="E6" s="134" t="s">
-        <v>262</v>
-      </c>
-      <c r="F6" s="135" t="s">
-        <v>270</v>
-      </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="80" t="s">
+      <c r="A7" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="122" t="s">
+      <c r="C7" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="117" t="s">
+      <c r="D7" s="91" t="s">
         <v>24</v>
       </c>
       <c r="E7" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="121" t="s">
+      <c r="F7" s="95" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="81"/>
-      <c r="B8" s="82"/>
+      <c r="A8" s="127"/>
+      <c r="B8" s="128"/>
       <c r="C8" s="54" t="s">
         <v>26</v>
       </c>
@@ -2624,8 +2624,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="81"/>
-      <c r="B9" s="82"/>
+      <c r="A9" s="127"/>
+      <c r="B9" s="128"/>
       <c r="C9" s="5" t="s">
         <v>28</v>
       </c>
@@ -2640,8 +2640,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="81"/>
-      <c r="B10" s="82"/>
+      <c r="A10" s="127"/>
+      <c r="B10" s="128"/>
       <c r="C10" s="5" t="s">
         <v>29</v>
       </c>
@@ -2656,8 +2656,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="81"/>
-      <c r="B11" s="82"/>
+      <c r="A11" s="127"/>
+      <c r="B11" s="128"/>
       <c r="C11" s="5" t="s">
         <v>31</v>
       </c>
@@ -2672,13 +2672,13 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="81"/>
-      <c r="B12" s="82"/>
+      <c r="A12" s="127"/>
+      <c r="B12" s="128"/>
       <c r="C12" s="5" t="s">
         <v>34</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>107</v>
+        <v>271</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>10</v>
@@ -2688,13 +2688,13 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="81"/>
-      <c r="B13" s="82"/>
+      <c r="A13" s="127"/>
+      <c r="B13" s="128"/>
       <c r="C13" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>10</v>
@@ -2704,8 +2704,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="81"/>
-      <c r="B14" s="82"/>
+      <c r="A14" s="127"/>
+      <c r="B14" s="128"/>
       <c r="C14" s="12" t="s">
         <v>38</v>
       </c>
@@ -2720,8 +2720,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="81"/>
-      <c r="B15" s="82"/>
+      <c r="A15" s="127"/>
+      <c r="B15" s="128"/>
       <c r="C15" s="12" t="s">
         <v>88</v>
       </c>
@@ -2736,8 +2736,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="81"/>
-      <c r="B16" s="82"/>
+      <c r="A16" s="127"/>
+      <c r="B16" s="128"/>
       <c r="C16" s="12" t="s">
         <v>89</v>
       </c>
@@ -2752,13 +2752,13 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="81"/>
-      <c r="B17" s="82"/>
+      <c r="A17" s="127"/>
+      <c r="B17" s="128"/>
       <c r="C17" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>10</v>
@@ -2768,8 +2768,8 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="81"/>
-      <c r="B18" s="82"/>
+      <c r="A18" s="127"/>
+      <c r="B18" s="128"/>
       <c r="C18" s="12" t="s">
         <v>91</v>
       </c>
@@ -2784,8 +2784,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="81"/>
-      <c r="B19" s="82"/>
+      <c r="A19" s="127"/>
+      <c r="B19" s="128"/>
       <c r="C19" s="12" t="s">
         <v>92</v>
       </c>
@@ -2800,8 +2800,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="81"/>
-      <c r="B20" s="82"/>
+      <c r="A20" s="127"/>
+      <c r="B20" s="128"/>
       <c r="C20" s="12" t="s">
         <v>93</v>
       </c>
@@ -2816,8 +2816,8 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="81"/>
-      <c r="B21" s="82"/>
+      <c r="A21" s="127"/>
+      <c r="B21" s="128"/>
       <c r="C21" s="12" t="s">
         <v>94</v>
       </c>
@@ -2832,13 +2832,13 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="81"/>
-      <c r="B22" s="83"/>
+      <c r="A22" s="127"/>
+      <c r="B22" s="129"/>
       <c r="C22" s="74" t="s">
         <v>105</v>
       </c>
       <c r="D22" s="75" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E22" s="76" t="s">
         <v>10</v>
@@ -2848,10 +2848,10 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="77" t="s">
+      <c r="A23" s="123" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="84" t="s">
+      <c r="B23" s="130" t="s">
         <v>42</v>
       </c>
       <c r="C23" s="64" t="s">
@@ -2868,8 +2868,8 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="78"/>
-      <c r="B24" s="85"/>
+      <c r="A24" s="124"/>
+      <c r="B24" s="131"/>
       <c r="C24" s="65" t="s">
         <v>46</v>
       </c>
@@ -2884,8 +2884,8 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="78"/>
-      <c r="B25" s="85"/>
+      <c r="A25" s="124"/>
+      <c r="B25" s="131"/>
       <c r="C25" s="65" t="s">
         <v>48</v>
       </c>
@@ -2900,8 +2900,8 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="78"/>
-      <c r="B26" s="85"/>
+      <c r="A26" s="124"/>
+      <c r="B26" s="131"/>
       <c r="C26" s="65" t="s">
         <v>50</v>
       </c>
@@ -2916,8 +2916,8 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="78"/>
-      <c r="B27" s="85"/>
+      <c r="A27" s="124"/>
+      <c r="B27" s="131"/>
       <c r="C27" s="65" t="s">
         <v>52</v>
       </c>
@@ -2932,8 +2932,8 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="78"/>
-      <c r="B28" s="85"/>
+      <c r="A28" s="124"/>
+      <c r="B28" s="131"/>
       <c r="C28" s="65" t="s">
         <v>53</v>
       </c>
@@ -2948,496 +2948,496 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="78"/>
-      <c r="B29" s="85"/>
+      <c r="A29" s="124"/>
+      <c r="B29" s="131"/>
       <c r="C29" s="65" t="s">
         <v>55</v>
       </c>
       <c r="D29" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="37" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="124"/>
+      <c r="B30" s="131"/>
+      <c r="C30" s="65" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="E29" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="37" t="s">
+      <c r="E30" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="37" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="78"/>
-      <c r="B30" s="85"/>
-      <c r="C30" s="65" t="s">
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="124"/>
+      <c r="B31" s="131"/>
+      <c r="C31" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="D30" s="33" t="s">
+      <c r="D31" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="E30" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="37" t="s">
+      <c r="E31" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="37" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="78"/>
-      <c r="B31" s="85"/>
-      <c r="C31" s="65" t="s">
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="124"/>
+      <c r="B32" s="131"/>
+      <c r="C32" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="D31" s="33" t="s">
+      <c r="D32" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="E31" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="37" t="s">
+      <c r="E32" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="37" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="78"/>
-      <c r="B32" s="85"/>
-      <c r="C32" s="65" t="s">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="124"/>
+      <c r="B33" s="131"/>
+      <c r="C33" s="65" t="s">
         <v>111</v>
       </c>
-      <c r="D32" s="35" t="s">
+      <c r="D33" s="35" t="s">
         <v>192</v>
       </c>
-      <c r="E32" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="37" t="s">
+      <c r="E33" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="37" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="78"/>
-      <c r="B33" s="85"/>
-      <c r="C33" s="65" t="s">
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="124"/>
+      <c r="B34" s="131"/>
+      <c r="C34" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="D33" s="35" t="s">
+      <c r="D34" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="37" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="124"/>
+      <c r="B35" s="131"/>
+      <c r="C35" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="D35" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="37" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="124"/>
+      <c r="B36" s="131"/>
+      <c r="C36" s="65" t="s">
+        <v>114</v>
+      </c>
+      <c r="D36" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="37" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="124"/>
+      <c r="B37" s="131"/>
+      <c r="C37" s="65" t="s">
+        <v>198</v>
+      </c>
+      <c r="D37" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="E33" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" s="37" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="78"/>
-      <c r="B34" s="85"/>
-      <c r="C34" s="65" t="s">
-        <v>113</v>
-      </c>
-      <c r="D34" s="35" t="s">
-        <v>175</v>
-      </c>
-      <c r="E34" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" s="37" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="78"/>
-      <c r="B35" s="85"/>
-      <c r="C35" s="65" t="s">
-        <v>114</v>
-      </c>
-      <c r="D35" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="E35" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" s="37" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="78"/>
-      <c r="B36" s="85"/>
-      <c r="C36" s="65" t="s">
-        <v>115</v>
-      </c>
-      <c r="D36" s="35" t="s">
+      <c r="E37" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="37" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="124"/>
+      <c r="B38" s="131"/>
+      <c r="C38" s="65" t="s">
+        <v>199</v>
+      </c>
+      <c r="D38" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="E36" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" s="37" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="78"/>
-      <c r="B37" s="85"/>
-      <c r="C37" s="65" t="s">
-        <v>199</v>
-      </c>
-      <c r="D37" s="35" t="s">
+      <c r="E38" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="37" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="124"/>
+      <c r="B39" s="131"/>
+      <c r="C39" s="65" t="s">
+        <v>200</v>
+      </c>
+      <c r="D39" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="37" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="124"/>
+      <c r="B40" s="131"/>
+      <c r="C40" s="65" t="s">
+        <v>201</v>
+      </c>
+      <c r="D40" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="37" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="124"/>
+      <c r="B41" s="131"/>
+      <c r="C41" s="65" t="s">
+        <v>202</v>
+      </c>
+      <c r="D41" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="E37" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37" s="37" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="78"/>
-      <c r="B38" s="85"/>
-      <c r="C38" s="65" t="s">
-        <v>200</v>
-      </c>
-      <c r="D38" s="35" t="s">
-        <v>177</v>
-      </c>
-      <c r="E38" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" s="37" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="78"/>
-      <c r="B39" s="85"/>
-      <c r="C39" s="65" t="s">
-        <v>201</v>
-      </c>
-      <c r="D39" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="E39" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" s="37" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="78"/>
-      <c r="B40" s="85"/>
-      <c r="C40" s="65" t="s">
-        <v>202</v>
-      </c>
-      <c r="D40" s="35" t="s">
+      <c r="E41" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="37" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="124"/>
+      <c r="B42" s="131"/>
+      <c r="C42" s="65" t="s">
+        <v>203</v>
+      </c>
+      <c r="D42" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="E42" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="37" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="124"/>
+      <c r="B43" s="131"/>
+      <c r="C43" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="D43" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="E43" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="37" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="124"/>
+      <c r="B44" s="131"/>
+      <c r="C44" s="65" t="s">
+        <v>205</v>
+      </c>
+      <c r="D44" s="35" t="s">
+        <v>251</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="37" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="124"/>
+      <c r="B45" s="131"/>
+      <c r="C45" s="65" t="s">
+        <v>206</v>
+      </c>
+      <c r="D45" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="E45" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" s="37" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="124"/>
+      <c r="B46" s="131"/>
+      <c r="C46" s="65" t="s">
+        <v>207</v>
+      </c>
+      <c r="D46" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="E40" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F40" s="37" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="78"/>
-      <c r="B41" s="85"/>
-      <c r="C41" s="65" t="s">
-        <v>203</v>
-      </c>
-      <c r="D41" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="E41" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F41" s="37" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="78"/>
-      <c r="B42" s="85"/>
-      <c r="C42" s="65" t="s">
-        <v>204</v>
-      </c>
-      <c r="D42" s="35" t="s">
-        <v>257</v>
-      </c>
-      <c r="E42" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42" s="37" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="78"/>
-      <c r="B43" s="85"/>
-      <c r="C43" s="65" t="s">
-        <v>205</v>
-      </c>
-      <c r="D43" s="35" t="s">
-        <v>258</v>
-      </c>
-      <c r="E43" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F43" s="37" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="78"/>
-      <c r="B44" s="85"/>
-      <c r="C44" s="65" t="s">
-        <v>206</v>
-      </c>
-      <c r="D44" s="35" t="s">
-        <v>252</v>
-      </c>
-      <c r="E44" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F44" s="37" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="78"/>
-      <c r="B45" s="85"/>
-      <c r="C45" s="65" t="s">
-        <v>207</v>
-      </c>
-      <c r="D45" s="35" t="s">
+      <c r="E46" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" s="37" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="124"/>
+      <c r="B47" s="131"/>
+      <c r="C47" s="65" t="s">
+        <v>208</v>
+      </c>
+      <c r="D47" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="E47" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="37" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="124"/>
+      <c r="B48" s="131"/>
+      <c r="C48" s="65" t="s">
+        <v>209</v>
+      </c>
+      <c r="D48" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="E48" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" s="37" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="124"/>
+      <c r="B49" s="131"/>
+      <c r="C49" s="65" t="s">
+        <v>210</v>
+      </c>
+      <c r="D49" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="E49" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="37" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="124"/>
+      <c r="B50" s="131"/>
+      <c r="C50" s="65" t="s">
+        <v>211</v>
+      </c>
+      <c r="D50" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="E50" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="37" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="124"/>
+      <c r="B51" s="131"/>
+      <c r="C51" s="65" t="s">
+        <v>212</v>
+      </c>
+      <c r="D51" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="E51" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" s="37" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="124"/>
+      <c r="B52" s="131"/>
+      <c r="C52" s="65" t="s">
+        <v>213</v>
+      </c>
+      <c r="D52" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="E52" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" s="37" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="124"/>
+      <c r="B53" s="131"/>
+      <c r="C53" s="65" t="s">
+        <v>214</v>
+      </c>
+      <c r="D53" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="E45" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F45" s="37" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="78"/>
-      <c r="B46" s="85"/>
-      <c r="C46" s="65" t="s">
-        <v>208</v>
-      </c>
-      <c r="D46" s="35" t="s">
-        <v>180</v>
-      </c>
-      <c r="E46" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F46" s="37" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="78"/>
-      <c r="B47" s="85"/>
-      <c r="C47" s="65" t="s">
-        <v>209</v>
-      </c>
-      <c r="D47" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="E47" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F47" s="37" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="78"/>
-      <c r="B48" s="85"/>
-      <c r="C48" s="65" t="s">
-        <v>210</v>
-      </c>
-      <c r="D48" s="35" t="s">
-        <v>182</v>
-      </c>
-      <c r="E48" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F48" s="37" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="78"/>
-      <c r="B49" s="85"/>
-      <c r="C49" s="65" t="s">
-        <v>211</v>
-      </c>
-      <c r="D49" s="35" t="s">
-        <v>183</v>
-      </c>
-      <c r="E49" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F49" s="37" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="78"/>
-      <c r="B50" s="85"/>
-      <c r="C50" s="65" t="s">
-        <v>212</v>
-      </c>
-      <c r="D50" s="35" t="s">
-        <v>184</v>
-      </c>
-      <c r="E50" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F50" s="37" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="78"/>
-      <c r="B51" s="85"/>
-      <c r="C51" s="65" t="s">
-        <v>213</v>
-      </c>
-      <c r="D51" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="E51" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F51" s="37" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="78"/>
-      <c r="B52" s="85"/>
-      <c r="C52" s="65" t="s">
-        <v>214</v>
-      </c>
-      <c r="D52" s="35" t="s">
+      <c r="E53" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" s="37" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="124"/>
+      <c r="B54" s="131"/>
+      <c r="C54" s="65" t="s">
+        <v>215</v>
+      </c>
+      <c r="D54" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="E52" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F52" s="37" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="78"/>
-      <c r="B53" s="85"/>
-      <c r="C53" s="65" t="s">
-        <v>215</v>
-      </c>
-      <c r="D53" s="35" t="s">
+      <c r="E54" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" s="37" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="124"/>
+      <c r="B55" s="131"/>
+      <c r="C55" s="65" t="s">
+        <v>216</v>
+      </c>
+      <c r="D55" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="E55" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" s="37" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="124"/>
+      <c r="B56" s="131"/>
+      <c r="C56" s="65" t="s">
+        <v>217</v>
+      </c>
+      <c r="D56" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="E56" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" s="37" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="124"/>
+      <c r="B57" s="131"/>
+      <c r="C57" s="65" t="s">
+        <v>218</v>
+      </c>
+      <c r="D57" s="35" t="s">
+        <v>255</v>
+      </c>
+      <c r="E57" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" s="37" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="125"/>
+      <c r="B58" s="132"/>
+      <c r="C58" s="70" t="s">
+        <v>219</v>
+      </c>
+      <c r="D58" s="38" t="s">
         <v>197</v>
       </c>
-      <c r="E53" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F53" s="37" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="78"/>
-      <c r="B54" s="85"/>
-      <c r="C54" s="65" t="s">
-        <v>216</v>
-      </c>
-      <c r="D54" s="35" t="s">
-        <v>187</v>
-      </c>
-      <c r="E54" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F54" s="37" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="78"/>
-      <c r="B55" s="85"/>
-      <c r="C55" s="65" t="s">
-        <v>217</v>
-      </c>
-      <c r="D55" s="35" t="s">
-        <v>254</v>
-      </c>
-      <c r="E55" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F55" s="37" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="78"/>
-      <c r="B56" s="85"/>
-      <c r="C56" s="65" t="s">
-        <v>218</v>
-      </c>
-      <c r="D56" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="E56" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F56" s="37" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="78"/>
-      <c r="B57" s="85"/>
-      <c r="C57" s="65" t="s">
-        <v>219</v>
-      </c>
-      <c r="D57" s="35" t="s">
-        <v>256</v>
-      </c>
-      <c r="E57" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F57" s="37" t="s">
+      <c r="E58" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" s="40" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="79"/>
-      <c r="B58" s="86"/>
-      <c r="C58" s="70" t="s">
-        <v>220</v>
-      </c>
-      <c r="D58" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="E58" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="F58" s="40" t="s">
-        <v>250</v>
-      </c>
-    </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="94" t="s">
+      <c r="A59" s="118" t="s">
         <v>57</v>
       </c>
-      <c r="B59" s="100" t="s">
+      <c r="B59" s="115" t="s">
         <v>58</v>
       </c>
-      <c r="C59" s="101" t="s">
+      <c r="C59" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="D59" s="102" t="s">
+      <c r="D59" s="79" t="s">
         <v>60</v>
       </c>
       <c r="E59" s="24" t="s">
@@ -3448,122 +3448,122 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="95"/>
-      <c r="B60" s="103"/>
+      <c r="A60" s="119"/>
+      <c r="B60" s="116"/>
       <c r="C60" s="45" t="s">
         <v>62</v>
       </c>
       <c r="D60" s="53" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E60" s="30" t="s">
         <v>10</v>
       </c>
       <c r="F60" s="37" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="95"/>
-      <c r="B61" s="103"/>
+      <c r="A61" s="119"/>
+      <c r="B61" s="116"/>
       <c r="C61" s="45" t="s">
         <v>63</v>
       </c>
       <c r="D61" s="58" t="s">
+        <v>136</v>
+      </c>
+      <c r="E61" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" s="37" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="119"/>
+      <c r="B62" s="116"/>
+      <c r="C62" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="D62" s="59" t="s">
         <v>137</v>
       </c>
-      <c r="E61" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F61" s="37" t="s">
+      <c r="E62" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" s="37" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="95"/>
-      <c r="B62" s="103"/>
-      <c r="C62" s="45" t="s">
+    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="119"/>
+      <c r="B63" s="116"/>
+      <c r="C63" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="D62" s="59" t="s">
-        <v>138</v>
-      </c>
-      <c r="E62" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F62" s="37" t="s">
+      <c r="D63" s="60" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="95"/>
-      <c r="B63" s="103"/>
-      <c r="C63" s="45" t="s">
+      <c r="E63" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" s="37" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="119"/>
+      <c r="B64" s="116"/>
+      <c r="C64" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="D63" s="60" t="s">
+      <c r="D64" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="E63" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F63" s="37" t="s">
+      <c r="E64" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64" s="37" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="95"/>
-      <c r="B64" s="103"/>
-      <c r="C64" s="45" t="s">
+    <row r="65" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="120"/>
+      <c r="B65" s="116"/>
+      <c r="C65" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="D64" s="53" t="s">
+      <c r="D65" s="81" t="s">
         <v>143</v>
       </c>
-      <c r="E64" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F64" s="37" t="s">
+      <c r="E65" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" s="37" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="96"/>
-      <c r="B65" s="103"/>
-      <c r="C65" s="45" t="s">
-        <v>135</v>
-      </c>
-      <c r="D65" s="105" t="s">
-        <v>144</v>
-      </c>
-      <c r="E65" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F65" s="37" t="s">
-        <v>147</v>
-      </c>
-    </row>
     <row r="66" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="99"/>
-      <c r="B66" s="104"/>
+      <c r="A66" s="77"/>
+      <c r="B66" s="117"/>
       <c r="C66" s="47" t="s">
+        <v>258</v>
+      </c>
+      <c r="D66" s="82" t="s">
         <v>259</v>
       </c>
-      <c r="D66" s="106" t="s">
+      <c r="E66" s="39" t="s">
+        <v>261</v>
+      </c>
+      <c r="F66" s="40" t="s">
         <v>260</v>
       </c>
-      <c r="E66" s="39" t="s">
-        <v>262</v>
-      </c>
-      <c r="F66" s="40" t="s">
-        <v>261</v>
-      </c>
     </row>
     <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="98" t="s">
+      <c r="A67" s="122" t="s">
         <v>64</v>
       </c>
-      <c r="B67" s="97" t="s">
+      <c r="B67" s="121" t="s">
         <v>65</v>
       </c>
       <c r="C67" s="41" t="s">
@@ -3580,8 +3580,8 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="98"/>
-      <c r="B68" s="97"/>
+      <c r="A68" s="122"/>
+      <c r="B68" s="121"/>
       <c r="C68" s="13" t="s">
         <v>69</v>
       </c>
@@ -3596,10 +3596,10 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="100" t="s">
+      <c r="A69" s="115" t="s">
         <v>72</v>
       </c>
-      <c r="B69" s="100" t="s">
+      <c r="B69" s="115" t="s">
         <v>73</v>
       </c>
       <c r="C69" s="22" t="s">
@@ -3616,8 +3616,8 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="103"/>
-      <c r="B70" s="103"/>
+      <c r="A70" s="116"/>
+      <c r="B70" s="116"/>
       <c r="C70" s="19" t="s">
         <v>77</v>
       </c>
@@ -3632,8 +3632,8 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="103"/>
-      <c r="B71" s="103"/>
+      <c r="A71" s="116"/>
+      <c r="B71" s="116"/>
       <c r="C71" s="19" t="s">
         <v>79</v>
       </c>
@@ -3648,8 +3648,8 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="103"/>
-      <c r="B72" s="103"/>
+      <c r="A72" s="116"/>
+      <c r="B72" s="116"/>
       <c r="C72" s="20" t="s">
         <v>81</v>
       </c>
@@ -3664,289 +3664,289 @@
       </c>
     </row>
     <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="103"/>
-      <c r="B73" s="103"/>
+      <c r="A73" s="116"/>
+      <c r="B73" s="116"/>
       <c r="C73" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="D73" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="E73" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="F73" s="37" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="116"/>
+      <c r="B74" s="116"/>
+      <c r="C74" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D73" s="35" t="s">
+      <c r="D74" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="E73" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="F73" s="37" t="s">
+      <c r="E74" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="F74" s="37" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="103"/>
-      <c r="B74" s="103"/>
-      <c r="C74" s="20" t="s">
+    <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="116"/>
+      <c r="B75" s="116"/>
+      <c r="C75" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="D74" s="35" t="s">
+      <c r="D75" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="E74" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="F74" s="37" t="s">
+      <c r="E75" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="F75" s="37" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="103"/>
-      <c r="B75" s="103"/>
-      <c r="C75" s="20" t="s">
+    <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="116"/>
+      <c r="B76" s="116"/>
+      <c r="C76" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="D75" s="35" t="s">
+      <c r="D76" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="E75" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="F75" s="37" t="s">
+      <c r="E76" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="F76" s="37" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="103"/>
-      <c r="B76" s="103"/>
-      <c r="C76" s="20" t="s">
+    <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="116"/>
+      <c r="B77" s="116"/>
+      <c r="C77" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="D76" s="35" t="s">
+      <c r="D77" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="E76" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="F76" s="37" t="s">
+      <c r="E77" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="F77" s="37" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="103"/>
-      <c r="B77" s="103"/>
-      <c r="C77" s="20" t="s">
+    <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="116"/>
+      <c r="B78" s="116"/>
+      <c r="C78" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="D77" s="35" t="s">
+      <c r="D78" s="35" t="s">
         <v>170</v>
       </c>
-      <c r="E77" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="F77" s="37" t="s">
+      <c r="E78" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="F78" s="37" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="103"/>
-      <c r="B78" s="103"/>
-      <c r="C78" s="20" t="s">
+    <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="116"/>
+      <c r="B79" s="116"/>
+      <c r="C79" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="D78" s="35" t="s">
+      <c r="D79" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="E78" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="F78" s="37" t="s">
+      <c r="E79" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="F79" s="37" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="103"/>
-      <c r="B79" s="103"/>
-      <c r="C79" s="20" t="s">
+    <row r="80" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="116"/>
+      <c r="B80" s="116"/>
+      <c r="C80" s="83" t="s">
         <v>154</v>
       </c>
-      <c r="D79" s="35" t="s">
+      <c r="D80" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="E79" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="F79" s="37" t="s">
+      <c r="E80" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="F80" s="37" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="103"/>
-      <c r="B80" s="103"/>
-      <c r="C80" s="108" t="s">
+    <row r="81" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="117"/>
+      <c r="B81" s="116"/>
+      <c r="C81" s="83" t="s">
         <v>155</v>
       </c>
-      <c r="D80" s="35" t="s">
+      <c r="D81" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="E80" s="109" t="s">
-        <v>10</v>
-      </c>
-      <c r="F80" s="37" t="s">
+      <c r="E81" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="F81" s="37" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="104"/>
-      <c r="B81" s="103"/>
-      <c r="C81" s="108" t="s">
-        <v>156</v>
-      </c>
-      <c r="D81" s="35" t="s">
-        <v>174</v>
-      </c>
-      <c r="E81" s="111" t="s">
-        <v>10</v>
-      </c>
-      <c r="F81" s="37" t="s">
-        <v>165</v>
-      </c>
-    </row>
     <row r="82" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="107"/>
-      <c r="B82" s="103"/>
-      <c r="C82" s="108" t="s">
+      <c r="A82" s="80"/>
+      <c r="B82" s="116"/>
+      <c r="C82" s="83" t="s">
+        <v>264</v>
+      </c>
+      <c r="D82" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="E82" s="86" t="s">
+        <v>261</v>
+      </c>
+      <c r="F82" s="37" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="80"/>
+      <c r="B83" s="117"/>
+      <c r="C83" s="63" t="s">
         <v>265</v>
       </c>
-      <c r="D82" s="35" t="s">
-        <v>263</v>
-      </c>
-      <c r="E82" s="111" t="s">
-        <v>262</v>
-      </c>
-      <c r="F82" s="37" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="107"/>
-      <c r="B83" s="104"/>
-      <c r="C83" s="63" t="s">
+      <c r="D83" s="38" t="s">
         <v>266</v>
       </c>
-      <c r="D83" s="38" t="s">
+      <c r="E83" s="89" t="s">
+        <v>261</v>
+      </c>
+      <c r="F83" s="40" t="s">
         <v>267</v>
       </c>
-      <c r="E83" s="115" t="s">
-        <v>262</v>
-      </c>
-      <c r="F83" s="40" t="s">
-        <v>268</v>
-      </c>
     </row>
     <row r="84" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="87" t="s">
+      <c r="A84" s="107" t="s">
         <v>83</v>
       </c>
-      <c r="B84" s="113" t="s">
+      <c r="B84" s="111" t="s">
         <v>84</v>
       </c>
-      <c r="C84" s="114" t="s">
+      <c r="C84" s="88" t="s">
         <v>85</v>
       </c>
-      <c r="D84" s="110" t="s">
+      <c r="D84" s="85" t="s">
         <v>86</v>
       </c>
       <c r="E84" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="F84" s="112" t="s">
+      <c r="F84" s="87" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="88"/>
-      <c r="B85" s="91"/>
+      <c r="A85" s="108"/>
+      <c r="B85" s="112"/>
       <c r="C85" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="D85" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="E85" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="F85" s="36" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="108"/>
+      <c r="B86" s="112"/>
+      <c r="C86" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="D85" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="E85" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="F85" s="36" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="88"/>
-      <c r="B86" s="91"/>
-      <c r="C86" s="28" t="s">
+      <c r="D86" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="E86" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="F86" s="37" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="108"/>
+      <c r="B87" s="112"/>
+      <c r="C87" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="D86" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="E86" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="F86" s="37" t="s">
+      <c r="D87" s="29" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="88"/>
-      <c r="B87" s="91"/>
-      <c r="C87" s="28" t="s">
+      <c r="E87" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="F87" s="37" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="108"/>
+      <c r="B88" s="112"/>
+      <c r="C88" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="D87" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="E87" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="F87" s="37" t="s">
+      <c r="D88" s="29" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="88"/>
-      <c r="B88" s="91"/>
-      <c r="C88" s="34" t="s">
+      <c r="E88" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="F88" s="37" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="109"/>
+      <c r="B89" s="113"/>
+      <c r="C89" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="D88" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="E88" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="F88" s="37" t="s">
+      <c r="D89" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="E89" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F89" s="37" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="110"/>
+      <c r="B90" s="114"/>
+      <c r="C90" s="31" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="89"/>
-      <c r="B89" s="92"/>
-      <c r="C89" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="D89" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="E89" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F89" s="37" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="90"/>
-      <c r="B90" s="93"/>
-      <c r="C90" s="31" t="s">
-        <v>129</v>
-      </c>
       <c r="D90" s="61" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E90" s="39" t="s">
         <v>10</v>
@@ -3987,6 +3987,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A23:A58"/>
+    <mergeCell ref="A7:A22"/>
+    <mergeCell ref="B7:B22"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B23:B58"/>
+    <mergeCell ref="B2:B6"/>
     <mergeCell ref="A84:A90"/>
     <mergeCell ref="B84:B90"/>
     <mergeCell ref="A69:A81"/>
@@ -3995,12 +4001,6 @@
     <mergeCell ref="A67:A68"/>
     <mergeCell ref="B59:B66"/>
     <mergeCell ref="B69:B83"/>
-    <mergeCell ref="A23:A58"/>
-    <mergeCell ref="A7:A22"/>
-    <mergeCell ref="B7:B22"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B23:B58"/>
-    <mergeCell ref="B2:B6"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="1">

--- a/Requirments/CRS/CRS.xlsx
+++ b/Requirments/CRS/CRS.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ebrahem\ITI45\Car-Purchasing\Requirments\CRS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arsan\OneDrive\Desktop\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F78CC1-2522-485D-94B2-9A290114976E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10176" windowHeight="7632"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="272">
   <si>
     <t>Feature ID</t>
   </si>
@@ -435,12 +434,6 @@
     <t xml:space="preserve"> Admin shall be able to search for a User by its Email Address </t>
   </si>
   <si>
-    <t>If email not found , error message appear "invalid input"</t>
-  </si>
-  <si>
-    <t>Admin shall be able to Creat new User with Email Address and password only</t>
-  </si>
-  <si>
     <t>SIQ_29</t>
   </si>
   <si>
@@ -450,12 +443,6 @@
     <t>SIQ_31</t>
   </si>
   <si>
-    <t>Admin should follow the registration restriction for Email and password fields</t>
-  </si>
-  <si>
-    <t>The user will be forced to enter the rest of the required data when he log in .</t>
-  </si>
-  <si>
     <t xml:space="preserve">Admin shall be able to delete the advertisement using the delete button In the advertisement page </t>
   </si>
   <si>
@@ -561,9 +548,6 @@
     <t>Car Price must contain only digits.</t>
   </si>
   <si>
-    <t>Car Price must be between 100,000 and 9,223,372,036,854,775,807 EGP.</t>
-  </si>
-  <si>
     <t>Address must follow the format: [Building Number],[Street Name],[District/Area],[City],[Governorate]</t>
   </si>
   <si>
@@ -810,15 +794,9 @@
     <t>SIQ_77</t>
   </si>
   <si>
-    <t>Pending Confiramtion</t>
-  </si>
-  <si>
     <t>Car name in search lenghth from 3 - 30 chars</t>
   </si>
   <si>
-    <t>SIQ_78</t>
-  </si>
-  <si>
     <t>Search_014</t>
   </si>
   <si>
@@ -828,26 +806,47 @@
     <t>the Address follow the same criteria of the advertisement</t>
   </si>
   <si>
-    <t>SIQ_79</t>
-  </si>
-  <si>
     <t>Login_005</t>
   </si>
   <si>
-    <t>SIQ_80</t>
-  </si>
-  <si>
     <t>The password in all the website show as ****** (hidden)</t>
   </si>
   <si>
     <t>Phone number shall start with 201.</t>
+  </si>
+  <si>
+    <t>SIQ_74</t>
+  </si>
+  <si>
+    <t>SIQ_75</t>
+  </si>
+  <si>
+    <t>SIQ_76</t>
+  </si>
+  <si>
+    <t>Car Price must be between 100,000 and 2147483647 EGP.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin shall be able to Creat new User </t>
+  </si>
+  <si>
+    <t>Admin should follow the registration restriction for each field</t>
+  </si>
+  <si>
+    <t>When deleting user , admin stays on the same page with list of users</t>
+  </si>
+  <si>
+    <t>If email not found , error message appear "No User found matching your filters"</t>
+  </si>
+  <si>
+    <t>Search_016</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -929,7 +928,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="64">
+  <borders count="63">
     <border>
       <left/>
       <right/>
@@ -1337,17 +1336,6 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -1728,7 +1716,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1884,13 +1872,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1899,29 +1887,32 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1929,16 +1920,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1947,7 +1932,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1962,22 +1947,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1986,7 +1971,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2010,7 +1995,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2046,6 +2031,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2055,37 +2046,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2094,34 +2082,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2132,6 +2120,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2466,24 +2457,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F95"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="B64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="21.5546875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="93.33203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="26.33203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="20.109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="16.3984375" customWidth="1"/>
+    <col min="2" max="2" width="23.09765625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="21.59765625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="93.296875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="26.296875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="20.09765625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="27.75" customHeight="1" thickBot="1">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2503,27 +2494,27 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="126" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="133" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="97" t="s">
+      <c r="C2" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="98" t="s">
+      <c r="D2" s="97" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="99" t="s">
+      <c r="F2" s="98" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="127"/>
       <c r="B3" s="134"/>
       <c r="C3" s="5" t="s">
@@ -2535,79 +2526,79 @@
       <c r="E3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="100" t="s">
+      <c r="F3" s="99" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="127"/>
       <c r="B4" s="134"/>
       <c r="C4" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="92" t="s">
+      <c r="D4" s="91" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="101" t="s">
+      <c r="F4" s="100" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="127"/>
       <c r="B5" s="134"/>
-      <c r="C5" s="90" t="s">
+      <c r="C5" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="93" t="s">
+      <c r="D5" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="94" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="102" t="s">
+      <c r="E5" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="101" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="71"/>
+    <row r="6" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A6" s="70"/>
       <c r="B6" s="135"/>
-      <c r="C6" s="103" t="s">
-        <v>268</v>
-      </c>
-      <c r="D6" s="104" t="s">
-        <v>270</v>
-      </c>
-      <c r="E6" s="105" t="s">
+      <c r="C6" s="102" t="s">
+        <v>260</v>
+      </c>
+      <c r="D6" s="103" t="s">
         <v>261</v>
       </c>
-      <c r="F6" s="106" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E6" s="104" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="105" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="126" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="96" t="s">
+      <c r="C7" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="91" t="s">
+      <c r="D7" s="90" t="s">
         <v>24</v>
       </c>
       <c r="E7" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="95" t="s">
+      <c r="F7" s="94" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" s="127"/>
       <c r="B8" s="128"/>
       <c r="C8" s="54" t="s">
@@ -2619,11 +2610,11 @@
       <c r="E8" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="72" t="s">
+      <c r="F8" s="71" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" s="127"/>
       <c r="B9" s="128"/>
       <c r="C9" s="5" t="s">
@@ -2639,7 +2630,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="127"/>
       <c r="B10" s="128"/>
       <c r="C10" s="5" t="s">
@@ -2655,7 +2646,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" s="127"/>
       <c r="B11" s="128"/>
       <c r="C11" s="5" t="s">
@@ -2671,14 +2662,14 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" s="127"/>
       <c r="B12" s="128"/>
       <c r="C12" s="5" t="s">
         <v>34</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>10</v>
@@ -2687,14 +2678,14 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" s="127"/>
       <c r="B13" s="128"/>
       <c r="C13" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>10</v>
@@ -2703,7 +2694,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1">
       <c r="A14" s="127"/>
       <c r="B14" s="128"/>
       <c r="C14" s="12" t="s">
@@ -2719,7 +2710,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1">
       <c r="A15" s="127"/>
       <c r="B15" s="128"/>
       <c r="C15" s="12" t="s">
@@ -2735,7 +2726,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1">
       <c r="A16" s="127"/>
       <c r="B16" s="128"/>
       <c r="C16" s="12" t="s">
@@ -2751,14 +2742,14 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1">
       <c r="A17" s="127"/>
       <c r="B17" s="128"/>
       <c r="C17" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>10</v>
@@ -2767,7 +2758,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1">
       <c r="A18" s="127"/>
       <c r="B18" s="128"/>
       <c r="C18" s="12" t="s">
@@ -2783,7 +2774,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15.75" customHeight="1">
       <c r="A19" s="127"/>
       <c r="B19" s="128"/>
       <c r="C19" s="12" t="s">
@@ -2799,7 +2790,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15.75" customHeight="1">
       <c r="A20" s="127"/>
       <c r="B20" s="128"/>
       <c r="C20" s="12" t="s">
@@ -2811,11 +2802,11 @@
       <c r="E20" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="73" t="s">
+      <c r="F20" s="72" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15.75" customHeight="1">
       <c r="A21" s="127"/>
       <c r="B21" s="128"/>
       <c r="C21" s="12" t="s">
@@ -2827,37 +2818,37 @@
       <c r="E21" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="73" t="s">
+      <c r="F21" s="72" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
       <c r="A22" s="127"/>
       <c r="B22" s="129"/>
-      <c r="C22" s="74" t="s">
+      <c r="C22" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="D22" s="75" t="s">
+      <c r="D22" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="E22" s="76" t="s">
+      <c r="E22" s="75" t="s">
         <v>10</v>
       </c>
       <c r="F22" s="62" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="15.75" customHeight="1">
       <c r="A23" s="123" t="s">
         <v>41</v>
       </c>
       <c r="B23" s="130" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="64" t="s">
+      <c r="C23" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="66" t="s">
+      <c r="D23" s="65" t="s">
         <v>44</v>
       </c>
       <c r="E23" s="24" t="s">
@@ -2867,13 +2858,13 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6">
       <c r="A24" s="124"/>
       <c r="B24" s="131"/>
-      <c r="C24" s="65" t="s">
+      <c r="C24" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="67" t="s">
+      <c r="D24" s="66" t="s">
         <v>47</v>
       </c>
       <c r="E24" s="17" t="s">
@@ -2883,13 +2874,13 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="15.75" customHeight="1">
       <c r="A25" s="124"/>
       <c r="B25" s="131"/>
-      <c r="C25" s="65" t="s">
+      <c r="C25" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="67" t="s">
+      <c r="D25" s="66" t="s">
         <v>49</v>
       </c>
       <c r="E25" s="17" t="s">
@@ -2899,13 +2890,13 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15.75" customHeight="1">
       <c r="A26" s="124"/>
       <c r="B26" s="131"/>
-      <c r="C26" s="65" t="s">
+      <c r="C26" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="67" t="s">
+      <c r="D26" s="66" t="s">
         <v>51</v>
       </c>
       <c r="E26" s="17" t="s">
@@ -2915,13 +2906,13 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15.75" customHeight="1">
       <c r="A27" s="124"/>
       <c r="B27" s="131"/>
-      <c r="C27" s="65" t="s">
+      <c r="C27" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="68" t="s">
+      <c r="D27" s="67" t="s">
         <v>54</v>
       </c>
       <c r="E27" s="17" t="s">
@@ -2931,13 +2922,13 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="15.75" customHeight="1">
       <c r="A28" s="124"/>
       <c r="B28" s="131"/>
-      <c r="C28" s="65" t="s">
+      <c r="C28" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="69" t="s">
+      <c r="D28" s="68" t="s">
         <v>56</v>
       </c>
       <c r="E28" s="18" t="s">
@@ -2947,497 +2938,497 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15.75" customHeight="1">
       <c r="A29" s="124"/>
       <c r="B29" s="131"/>
-      <c r="C29" s="65" t="s">
+      <c r="C29" s="64" t="s">
         <v>55</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E29" s="18" t="s">
         <v>10</v>
       </c>
       <c r="F29" s="37" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1">
       <c r="A30" s="124"/>
       <c r="B30" s="131"/>
-      <c r="C30" s="65" t="s">
+      <c r="C30" s="64" t="s">
         <v>108</v>
       </c>
       <c r="D30" s="33" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E30" s="18" t="s">
         <v>10</v>
       </c>
       <c r="F30" s="37" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1">
       <c r="A31" s="124"/>
       <c r="B31" s="131"/>
-      <c r="C31" s="65" t="s">
+      <c r="C31" s="64" t="s">
         <v>109</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E31" s="18" t="s">
         <v>10</v>
       </c>
       <c r="F31" s="37" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1">
       <c r="A32" s="124"/>
       <c r="B32" s="131"/>
-      <c r="C32" s="65" t="s">
+      <c r="C32" s="64" t="s">
         <v>110</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E32" s="18" t="s">
         <v>10</v>
       </c>
       <c r="F32" s="37" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" customHeight="1">
       <c r="A33" s="124"/>
       <c r="B33" s="131"/>
-      <c r="C33" s="65" t="s">
+      <c r="C33" s="64" t="s">
         <v>111</v>
       </c>
       <c r="D33" s="35" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E33" s="18" t="s">
         <v>10</v>
       </c>
       <c r="F33" s="37" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" customHeight="1">
       <c r="A34" s="124"/>
       <c r="B34" s="131"/>
-      <c r="C34" s="65" t="s">
+      <c r="C34" s="64" t="s">
         <v>112</v>
       </c>
       <c r="D34" s="35" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E34" s="18" t="s">
         <v>10</v>
       </c>
       <c r="F34" s="37" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" customHeight="1">
       <c r="A35" s="124"/>
       <c r="B35" s="131"/>
-      <c r="C35" s="65" t="s">
+      <c r="C35" s="64" t="s">
         <v>113</v>
       </c>
       <c r="D35" s="35" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E35" s="18" t="s">
         <v>10</v>
       </c>
       <c r="F35" s="37" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" customHeight="1">
       <c r="A36" s="124"/>
       <c r="B36" s="131"/>
-      <c r="C36" s="65" t="s">
+      <c r="C36" s="64" t="s">
         <v>114</v>
       </c>
       <c r="D36" s="35" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E36" s="18" t="s">
         <v>10</v>
       </c>
       <c r="F36" s="37" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" customHeight="1">
       <c r="A37" s="124"/>
       <c r="B37" s="131"/>
-      <c r="C37" s="65" t="s">
-        <v>198</v>
+      <c r="C37" s="64" t="s">
+        <v>193</v>
       </c>
       <c r="D37" s="35" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E37" s="18" t="s">
         <v>10</v>
       </c>
       <c r="F37" s="37" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" customHeight="1">
       <c r="A38" s="124"/>
       <c r="B38" s="131"/>
-      <c r="C38" s="65" t="s">
-        <v>199</v>
+      <c r="C38" s="64" t="s">
+        <v>194</v>
       </c>
       <c r="D38" s="35" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E38" s="18" t="s">
         <v>10</v>
       </c>
       <c r="F38" s="37" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" customHeight="1">
       <c r="A39" s="124"/>
       <c r="B39" s="131"/>
-      <c r="C39" s="65" t="s">
-        <v>200</v>
+      <c r="C39" s="64" t="s">
+        <v>195</v>
       </c>
       <c r="D39" s="35" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E39" s="18" t="s">
         <v>10</v>
       </c>
       <c r="F39" s="37" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" customHeight="1">
       <c r="A40" s="124"/>
       <c r="B40" s="131"/>
-      <c r="C40" s="65" t="s">
-        <v>201</v>
+      <c r="C40" s="64" t="s">
+        <v>196</v>
       </c>
       <c r="D40" s="35" t="s">
-        <v>178</v>
+        <v>266</v>
       </c>
       <c r="E40" s="18" t="s">
         <v>10</v>
       </c>
       <c r="F40" s="37" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" customHeight="1">
       <c r="A41" s="124"/>
       <c r="B41" s="131"/>
-      <c r="C41" s="65" t="s">
-        <v>202</v>
+      <c r="C41" s="64" t="s">
+        <v>197</v>
       </c>
       <c r="D41" s="35" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E41" s="18" t="s">
         <v>10</v>
       </c>
       <c r="F41" s="37" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" customHeight="1">
       <c r="A42" s="124"/>
       <c r="B42" s="131"/>
-      <c r="C42" s="65" t="s">
-        <v>203</v>
+      <c r="C42" s="64" t="s">
+        <v>198</v>
       </c>
       <c r="D42" s="35" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="E42" s="18" t="s">
         <v>10</v>
       </c>
       <c r="F42" s="37" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" customHeight="1">
       <c r="A43" s="124"/>
       <c r="B43" s="131"/>
-      <c r="C43" s="65" t="s">
-        <v>204</v>
+      <c r="C43" s="64" t="s">
+        <v>199</v>
       </c>
       <c r="D43" s="35" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E43" s="18" t="s">
         <v>10</v>
       </c>
       <c r="F43" s="37" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" customHeight="1">
       <c r="A44" s="124"/>
       <c r="B44" s="131"/>
-      <c r="C44" s="65" t="s">
-        <v>205</v>
+      <c r="C44" s="64" t="s">
+        <v>200</v>
       </c>
       <c r="D44" s="35" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="E44" s="18" t="s">
         <v>10</v>
       </c>
       <c r="F44" s="37" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" customHeight="1">
       <c r="A45" s="124"/>
       <c r="B45" s="131"/>
-      <c r="C45" s="65" t="s">
-        <v>206</v>
+      <c r="C45" s="64" t="s">
+        <v>201</v>
       </c>
       <c r="D45" s="35" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E45" s="18" t="s">
         <v>10</v>
       </c>
       <c r="F45" s="37" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" customHeight="1">
       <c r="A46" s="124"/>
       <c r="B46" s="131"/>
-      <c r="C46" s="65" t="s">
-        <v>207</v>
+      <c r="C46" s="64" t="s">
+        <v>202</v>
       </c>
       <c r="D46" s="35" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E46" s="18" t="s">
         <v>10</v>
       </c>
       <c r="F46" s="37" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" customHeight="1">
       <c r="A47" s="124"/>
       <c r="B47" s="131"/>
-      <c r="C47" s="65" t="s">
-        <v>208</v>
+      <c r="C47" s="64" t="s">
+        <v>203</v>
       </c>
       <c r="D47" s="35" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E47" s="18" t="s">
         <v>10</v>
       </c>
       <c r="F47" s="37" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" customHeight="1">
       <c r="A48" s="124"/>
       <c r="B48" s="131"/>
-      <c r="C48" s="65" t="s">
-        <v>209</v>
+      <c r="C48" s="64" t="s">
+        <v>204</v>
       </c>
       <c r="D48" s="35" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E48" s="18" t="s">
         <v>10</v>
       </c>
       <c r="F48" s="37" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" customHeight="1">
       <c r="A49" s="124"/>
       <c r="B49" s="131"/>
-      <c r="C49" s="65" t="s">
-        <v>210</v>
+      <c r="C49" s="64" t="s">
+        <v>205</v>
       </c>
       <c r="D49" s="35" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E49" s="18" t="s">
         <v>10</v>
       </c>
       <c r="F49" s="37" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" customHeight="1">
       <c r="A50" s="124"/>
       <c r="B50" s="131"/>
-      <c r="C50" s="65" t="s">
-        <v>211</v>
+      <c r="C50" s="64" t="s">
+        <v>206</v>
       </c>
       <c r="D50" s="35" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E50" s="18" t="s">
         <v>10</v>
       </c>
       <c r="F50" s="37" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" customHeight="1">
       <c r="A51" s="124"/>
       <c r="B51" s="131"/>
-      <c r="C51" s="65" t="s">
-        <v>212</v>
+      <c r="C51" s="64" t="s">
+        <v>207</v>
       </c>
       <c r="D51" s="35" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E51" s="18" t="s">
         <v>10</v>
       </c>
       <c r="F51" s="37" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15.75" customHeight="1">
       <c r="A52" s="124"/>
       <c r="B52" s="131"/>
-      <c r="C52" s="65" t="s">
-        <v>213</v>
+      <c r="C52" s="64" t="s">
+        <v>208</v>
       </c>
       <c r="D52" s="35" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E52" s="18" t="s">
         <v>10</v>
       </c>
       <c r="F52" s="37" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15.75" customHeight="1">
       <c r="A53" s="124"/>
       <c r="B53" s="131"/>
-      <c r="C53" s="65" t="s">
-        <v>214</v>
+      <c r="C53" s="64" t="s">
+        <v>209</v>
       </c>
       <c r="D53" s="35" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E53" s="18" t="s">
         <v>10</v>
       </c>
       <c r="F53" s="37" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" customHeight="1">
       <c r="A54" s="124"/>
       <c r="B54" s="131"/>
-      <c r="C54" s="65" t="s">
-        <v>215</v>
+      <c r="C54" s="64" t="s">
+        <v>210</v>
       </c>
       <c r="D54" s="35" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E54" s="18" t="s">
         <v>10</v>
       </c>
       <c r="F54" s="37" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" customHeight="1">
       <c r="A55" s="124"/>
       <c r="B55" s="131"/>
-      <c r="C55" s="65" t="s">
-        <v>216</v>
+      <c r="C55" s="64" t="s">
+        <v>211</v>
       </c>
       <c r="D55" s="35" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E55" s="18" t="s">
         <v>10</v>
       </c>
       <c r="F55" s="37" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15.75" customHeight="1">
       <c r="A56" s="124"/>
       <c r="B56" s="131"/>
-      <c r="C56" s="65" t="s">
-        <v>217</v>
+      <c r="C56" s="64" t="s">
+        <v>212</v>
       </c>
       <c r="D56" s="35" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E56" s="18" t="s">
         <v>10</v>
       </c>
       <c r="F56" s="37" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15.75" customHeight="1">
       <c r="A57" s="124"/>
       <c r="B57" s="131"/>
-      <c r="C57" s="65" t="s">
-        <v>218</v>
+      <c r="C57" s="64" t="s">
+        <v>213</v>
       </c>
       <c r="D57" s="35" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E57" s="18" t="s">
         <v>10</v>
       </c>
       <c r="F57" s="37" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
       <c r="A58" s="125"/>
       <c r="B58" s="132"/>
-      <c r="C58" s="70" t="s">
-        <v>219</v>
+      <c r="C58" s="69" t="s">
+        <v>214</v>
       </c>
       <c r="D58" s="38" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E58" s="39" t="s">
         <v>10</v>
       </c>
       <c r="F58" s="40" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15.75" customHeight="1">
       <c r="A59" s="118" t="s">
         <v>57</v>
       </c>
       <c r="B59" s="115" t="s">
         <v>58</v>
       </c>
-      <c r="C59" s="78" t="s">
+      <c r="C59" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="D59" s="79" t="s">
+      <c r="D59" s="78" t="s">
         <v>60</v>
       </c>
       <c r="E59" s="24" t="s">
@@ -3447,7 +3438,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="15.75" customHeight="1">
       <c r="A60" s="119"/>
       <c r="B60" s="116"/>
       <c r="C60" s="45" t="s">
@@ -3460,106 +3451,106 @@
         <v>10</v>
       </c>
       <c r="F60" s="37" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15.75" customHeight="1">
       <c r="A61" s="119"/>
       <c r="B61" s="116"/>
       <c r="C61" s="45" t="s">
         <v>63</v>
       </c>
       <c r="D61" s="58" t="s">
-        <v>136</v>
+        <v>270</v>
       </c>
       <c r="E61" s="30" t="s">
         <v>10</v>
       </c>
       <c r="F61" s="37" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15.75" customHeight="1">
       <c r="A62" s="119"/>
       <c r="B62" s="116"/>
       <c r="C62" s="45" t="s">
         <v>131</v>
       </c>
       <c r="D62" s="59" t="s">
-        <v>137</v>
+        <v>267</v>
       </c>
       <c r="E62" s="30" t="s">
         <v>10</v>
       </c>
       <c r="F62" s="37" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15.75" customHeight="1">
       <c r="A63" s="119"/>
       <c r="B63" s="116"/>
       <c r="C63" s="45" t="s">
         <v>132</v>
       </c>
       <c r="D63" s="60" t="s">
-        <v>141</v>
+        <v>268</v>
       </c>
       <c r="E63" s="30" t="s">
         <v>10</v>
       </c>
       <c r="F63" s="37" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="15.75" customHeight="1">
       <c r="A64" s="119"/>
       <c r="B64" s="116"/>
       <c r="C64" s="45" t="s">
         <v>133</v>
       </c>
       <c r="D64" s="53" t="s">
-        <v>142</v>
+        <v>269</v>
       </c>
       <c r="E64" s="30" t="s">
         <v>10</v>
       </c>
       <c r="F64" s="37" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
       <c r="A65" s="120"/>
       <c r="B65" s="116"/>
       <c r="C65" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="D65" s="81" t="s">
-        <v>143</v>
+      <c r="D65" s="80" t="s">
+        <v>139</v>
       </c>
       <c r="E65" s="30" t="s">
         <v>10</v>
       </c>
       <c r="F65" s="37" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="77"/>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A66" s="76"/>
       <c r="B66" s="117"/>
       <c r="C66" s="47" t="s">
-        <v>258</v>
-      </c>
-      <c r="D66" s="82" t="s">
-        <v>259</v>
+        <v>253</v>
+      </c>
+      <c r="D66" s="81" t="s">
+        <v>254</v>
       </c>
       <c r="E66" s="39" t="s">
-        <v>261</v>
+        <v>10</v>
       </c>
       <c r="F66" s="40" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="15.75" customHeight="1">
       <c r="A67" s="122" t="s">
         <v>64</v>
       </c>
@@ -3579,7 +3570,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
       <c r="A68" s="122"/>
       <c r="B68" s="121"/>
       <c r="C68" s="13" t="s">
@@ -3595,7 +3586,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" ht="15.75" customHeight="1">
       <c r="A69" s="115" t="s">
         <v>72</v>
       </c>
@@ -3615,7 +3606,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="15.75" customHeight="1">
       <c r="A70" s="116"/>
       <c r="B70" s="116"/>
       <c r="C70" s="19" t="s">
@@ -3631,7 +3622,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="15.75" customHeight="1">
       <c r="A71" s="116"/>
       <c r="B71" s="116"/>
       <c r="C71" s="19" t="s">
@@ -3647,7 +3638,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="15.75" customHeight="1">
       <c r="A72" s="116"/>
       <c r="B72" s="116"/>
       <c r="C72" s="20" t="s">
@@ -3663,327 +3654,343 @@
         <v>76</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" ht="15.75" customHeight="1">
       <c r="A73" s="116"/>
       <c r="B73" s="116"/>
       <c r="C73" s="20" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D73" s="35" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E73" s="51" t="s">
         <v>10</v>
       </c>
       <c r="F73" s="37" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="15.75" customHeight="1">
       <c r="A74" s="116"/>
       <c r="B74" s="116"/>
       <c r="C74" s="20" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D74" s="35" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E74" s="51" t="s">
         <v>10</v>
       </c>
       <c r="F74" s="37" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="15.75" customHeight="1">
       <c r="A75" s="116"/>
       <c r="B75" s="116"/>
       <c r="C75" s="20" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D75" s="35" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E75" s="51" t="s">
         <v>10</v>
       </c>
       <c r="F75" s="37" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="15.75" customHeight="1">
       <c r="A76" s="116"/>
       <c r="B76" s="116"/>
       <c r="C76" s="20" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D76" s="35" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E76" s="51" t="s">
         <v>10</v>
       </c>
       <c r="F76" s="37" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="15.75" customHeight="1">
       <c r="A77" s="116"/>
       <c r="B77" s="116"/>
       <c r="C77" s="20" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D77" s="35" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E77" s="51" t="s">
         <v>10</v>
       </c>
       <c r="F77" s="37" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="15.75" customHeight="1">
       <c r="A78" s="116"/>
       <c r="B78" s="116"/>
       <c r="C78" s="20" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D78" s="35" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E78" s="51" t="s">
         <v>10</v>
       </c>
       <c r="F78" s="37" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="15.75" customHeight="1">
       <c r="A79" s="116"/>
       <c r="B79" s="116"/>
       <c r="C79" s="20" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D79" s="35" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E79" s="51" t="s">
         <v>10</v>
       </c>
       <c r="F79" s="37" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="15.75" customHeight="1">
       <c r="A80" s="116"/>
       <c r="B80" s="116"/>
-      <c r="C80" s="83" t="s">
-        <v>154</v>
+      <c r="C80" s="82" t="s">
+        <v>150</v>
       </c>
       <c r="D80" s="35" t="s">
-        <v>172</v>
-      </c>
-      <c r="E80" s="84" t="s">
+        <v>168</v>
+      </c>
+      <c r="E80" s="83" t="s">
         <v>10</v>
       </c>
       <c r="F80" s="37" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
       <c r="A81" s="117"/>
       <c r="B81" s="116"/>
-      <c r="C81" s="83" t="s">
-        <v>155</v>
+      <c r="C81" s="82" t="s">
+        <v>151</v>
       </c>
       <c r="D81" s="35" t="s">
-        <v>173</v>
-      </c>
-      <c r="E81" s="86" t="s">
+        <v>169</v>
+      </c>
+      <c r="E81" s="85" t="s">
         <v>10</v>
       </c>
       <c r="F81" s="37" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="80"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A82" s="79"/>
       <c r="B82" s="116"/>
-      <c r="C82" s="83" t="s">
+      <c r="C82" s="82" t="s">
+        <v>257</v>
+      </c>
+      <c r="D82" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="E82" s="85" t="s">
+        <v>10</v>
+      </c>
+      <c r="F82" s="37" t="s">
         <v>264</v>
       </c>
-      <c r="D82" s="35" t="s">
-        <v>262</v>
-      </c>
-      <c r="E82" s="86" t="s">
-        <v>261</v>
-      </c>
-      <c r="F82" s="37" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="80"/>
-      <c r="B83" s="117"/>
-      <c r="C83" s="63" t="s">
+    </row>
+    <row r="83" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A83" s="106"/>
+      <c r="B83" s="116"/>
+      <c r="C83" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="D83" s="35" t="s">
+        <v>259</v>
+      </c>
+      <c r="E83" s="85" t="s">
+        <v>10</v>
+      </c>
+      <c r="F83" s="37" t="s">
         <v>265</v>
       </c>
-      <c r="D83" s="38" t="s">
+    </row>
+    <row r="84" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A84" s="79"/>
+      <c r="B84" s="117"/>
+      <c r="C84" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="D84" s="38" t="s">
         <v>266</v>
       </c>
-      <c r="E83" s="89" t="s">
-        <v>261</v>
-      </c>
-      <c r="F83" s="40" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="107" t="s">
+      <c r="E84" s="88" t="s">
+        <v>10</v>
+      </c>
+      <c r="F84" s="136" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A85" s="107" t="s">
         <v>83</v>
       </c>
-      <c r="B84" s="111" t="s">
+      <c r="B85" s="111" t="s">
         <v>84</v>
       </c>
-      <c r="C84" s="88" t="s">
+      <c r="C85" s="87" t="s">
         <v>85</v>
       </c>
-      <c r="D84" s="85" t="s">
+      <c r="D85" s="84" t="s">
         <v>86</v>
       </c>
-      <c r="E84" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="F84" s="87" t="s">
+      <c r="E85" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="F85" s="86" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="108"/>
-      <c r="B85" s="112"/>
-      <c r="C85" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="D85" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="E85" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="F85" s="36" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" ht="15.75" customHeight="1">
       <c r="A86" s="108"/>
       <c r="B86" s="112"/>
       <c r="C86" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="D86" s="29" t="s">
-        <v>122</v>
+        <v>117</v>
+      </c>
+      <c r="D86" s="21" t="s">
+        <v>115</v>
       </c>
       <c r="E86" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="F86" s="37" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F86" s="36" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="15.75" customHeight="1">
       <c r="A87" s="108"/>
       <c r="B87" s="112"/>
       <c r="C87" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D87" s="29" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E87" s="48" t="s">
         <v>10</v>
       </c>
       <c r="F87" s="37" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="15.75" customHeight="1">
       <c r="A88" s="108"/>
       <c r="B88" s="112"/>
-      <c r="C88" s="34" t="s">
+      <c r="C88" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="D88" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="E88" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="F88" s="37" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A89" s="108"/>
+      <c r="B89" s="112"/>
+      <c r="C89" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="D88" s="29" t="s">
+      <c r="D89" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="E88" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="F88" s="37" t="s">
+      <c r="E89" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="F89" s="37" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="109"/>
-      <c r="B89" s="113"/>
-      <c r="C89" s="28" t="s">
+    <row r="90" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A90" s="109"/>
+      <c r="B90" s="113"/>
+      <c r="C90" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="D89" s="35" t="s">
+      <c r="D90" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="E89" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F89" s="37" t="s">
+      <c r="E90" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F90" s="37" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="110"/>
-      <c r="B90" s="114"/>
-      <c r="C90" s="31" t="s">
+    <row r="91" spans="1:6" ht="16.2" thickBot="1">
+      <c r="A91" s="110"/>
+      <c r="B91" s="114"/>
+      <c r="C91" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="D90" s="61" t="s">
-        <v>252</v>
-      </c>
-      <c r="E90" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="F90" s="62" t="s">
+      <c r="D91" s="61" t="s">
+        <v>247</v>
+      </c>
+      <c r="E91" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="F91" s="62" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="1"/>
-      <c r="B91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6">
       <c r="A92" s="1"/>
       <c r="B92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="2"/>
+    <row r="93" spans="1:6">
+      <c r="A93" s="1"/>
       <c r="B93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="3"/>
+    <row r="95" spans="1:6">
+      <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="3"/>
+      <c r="B96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -3993,18 +4000,18 @@
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B23:B58"/>
     <mergeCell ref="B2:B6"/>
-    <mergeCell ref="A84:A90"/>
-    <mergeCell ref="B84:B90"/>
+    <mergeCell ref="A85:A91"/>
+    <mergeCell ref="B85:B91"/>
     <mergeCell ref="A69:A81"/>
     <mergeCell ref="A59:A65"/>
     <mergeCell ref="B67:B68"/>
     <mergeCell ref="A67:A68"/>
     <mergeCell ref="B59:B66"/>
-    <mergeCell ref="B69:B83"/>
+    <mergeCell ref="B69:B84"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E90" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E91">
       <formula1>"Pending Confiramtion, Confirmed"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Requirments/CRS/CRS.xlsx
+++ b/Requirments/CRS/CRS.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arsan\OneDrive\Desktop\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ebrahem\ITI45\Car-Purchasing\Requirments\CRS\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062F565E-399D-4388-8DE6-8390A2593975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10176" windowHeight="7632"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -272,9 +273,6 @@
     <t>Search_004</t>
   </si>
   <si>
-    <t>User shal find the option to Search by Address ( Optional)</t>
-  </si>
-  <si>
     <t>Feature_007</t>
   </si>
   <si>
@@ -521,15 +519,9 @@
     <t>Price must be numeric only.</t>
   </si>
   <si>
-    <t>Price must be greater than or equal to 0.</t>
-  </si>
-  <si>
     <t>Price must not contain special characters or letters.</t>
   </si>
   <si>
-    <t>Address must allow alphanumeric characters, spaces, commas, and hyphens.</t>
-  </si>
-  <si>
     <t>Users must be able to combine multiple filters in a single search query.</t>
   </si>
   <si>
@@ -803,9 +795,6 @@
     <t>Search_015</t>
   </si>
   <si>
-    <t>the Address follow the same criteria of the advertisement</t>
-  </si>
-  <si>
     <t>Login_005</t>
   </si>
   <si>
@@ -840,13 +829,25 @@
   </si>
   <si>
     <t>Search_016</t>
+  </si>
+  <si>
+    <t>City must allow alphanumeric characters, spaces, commas, and hyphens.</t>
+  </si>
+  <si>
+    <t>User shal find the option to Search by City ( Optional)</t>
+  </si>
+  <si>
+    <t>the City follow the same criteria of the advertisement</t>
+  </si>
+  <si>
+    <t>Price must be not equal to 0.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1716,7 +1717,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2031,8 +2032,47 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2081,48 +2121,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2457,24 +2455,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D79" sqref="D79"/>
+    <sheetView tabSelected="1" topLeftCell="B62" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.3984375" customWidth="1"/>
-    <col min="2" max="2" width="23.09765625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="21.59765625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="93.296875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="26.296875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="20.09765625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="93.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27.75" customHeight="1" thickBot="1">
+    <row r="1" spans="1:6" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2494,11 +2492,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A2" s="126" t="s">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="117" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="96" t="s">
@@ -2514,9 +2512,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A3" s="127"/>
-      <c r="B3" s="134"/>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="111"/>
+      <c r="B3" s="118"/>
       <c r="C3" s="5" t="s">
         <v>12</v>
       </c>
@@ -2530,9 +2528,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A4" s="127"/>
-      <c r="B4" s="134"/>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="111"/>
+      <c r="B4" s="118"/>
       <c r="C4" s="54" t="s">
         <v>15</v>
       </c>
@@ -2546,9 +2544,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="127"/>
-      <c r="B5" s="134"/>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="111"/>
+      <c r="B5" s="118"/>
       <c r="C5" s="89" t="s">
         <v>18</v>
       </c>
@@ -2562,27 +2560,27 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.6" thickBot="1">
+    <row r="6" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="70"/>
-      <c r="B6" s="135"/>
+      <c r="B6" s="119"/>
       <c r="C6" s="102" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D6" s="103" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E6" s="104" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="105" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A7" s="126" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="128" t="s">
+      <c r="B7" s="112" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="95" t="s">
@@ -2598,9 +2596,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A8" s="127"/>
-      <c r="B8" s="128"/>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="111"/>
+      <c r="B8" s="112"/>
       <c r="C8" s="54" t="s">
         <v>26</v>
       </c>
@@ -2614,9 +2612,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A9" s="127"/>
-      <c r="B9" s="128"/>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="111"/>
+      <c r="B9" s="112"/>
       <c r="C9" s="5" t="s">
         <v>28</v>
       </c>
@@ -2630,9 +2628,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="127"/>
-      <c r="B10" s="128"/>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="111"/>
+      <c r="B10" s="112"/>
       <c r="C10" s="5" t="s">
         <v>29</v>
       </c>
@@ -2646,9 +2644,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A11" s="127"/>
-      <c r="B11" s="128"/>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="111"/>
+      <c r="B11" s="112"/>
       <c r="C11" s="5" t="s">
         <v>31</v>
       </c>
@@ -2662,14 +2660,14 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A12" s="127"/>
-      <c r="B12" s="128"/>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="111"/>
+      <c r="B12" s="112"/>
       <c r="C12" s="5" t="s">
         <v>34</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>10</v>
@@ -2678,14 +2676,14 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A13" s="127"/>
-      <c r="B13" s="128"/>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="111"/>
+      <c r="B13" s="112"/>
       <c r="C13" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>10</v>
@@ -2694,9 +2692,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A14" s="127"/>
-      <c r="B14" s="128"/>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="111"/>
+      <c r="B14" s="112"/>
       <c r="C14" s="12" t="s">
         <v>38</v>
       </c>
@@ -2710,94 +2708,94 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A15" s="127"/>
-      <c r="B15" s="128"/>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="111"/>
+      <c r="B15" s="112"/>
       <c r="C15" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="111"/>
+      <c r="B16" s="112"/>
+      <c r="C16" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D16" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="111"/>
+      <c r="B17" s="112"/>
+      <c r="C17" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="111"/>
+      <c r="B18" s="112"/>
+      <c r="C18" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="111"/>
+      <c r="B19" s="112"/>
+      <c r="C19" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="27" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A16" s="127"/>
-      <c r="B16" s="128"/>
-      <c r="C16" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="27" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A17" s="127"/>
-      <c r="B17" s="128"/>
-      <c r="C17" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="27" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A18" s="127"/>
-      <c r="B18" s="128"/>
-      <c r="C18" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="27" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A19" s="127"/>
-      <c r="B19" s="128"/>
-      <c r="C19" s="12" t="s">
+    </row>
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="111"/>
+      <c r="B20" s="112"/>
+      <c r="C20" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="27" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A20" s="127"/>
-      <c r="B20" s="128"/>
-      <c r="C20" s="12" t="s">
-        <v>93</v>
-      </c>
       <c r="D20" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>10</v>
@@ -2806,14 +2804,14 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A21" s="127"/>
-      <c r="B21" s="128"/>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="111"/>
+      <c r="B21" s="112"/>
       <c r="C21" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>10</v>
@@ -2822,14 +2820,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A22" s="127"/>
-      <c r="B22" s="129"/>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="111"/>
+      <c r="B22" s="113"/>
       <c r="C22" s="73" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D22" s="74" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E22" s="75" t="s">
         <v>10</v>
@@ -2838,11 +2836,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A23" s="123" t="s">
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="107" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="130" t="s">
+      <c r="B23" s="114" t="s">
         <v>42</v>
       </c>
       <c r="C23" s="63" t="s">
@@ -2858,9 +2856,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="124"/>
-      <c r="B24" s="131"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="108"/>
+      <c r="B24" s="115"/>
       <c r="C24" s="64" t="s">
         <v>46</v>
       </c>
@@ -2874,9 +2872,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A25" s="124"/>
-      <c r="B25" s="131"/>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="108"/>
+      <c r="B25" s="115"/>
       <c r="C25" s="64" t="s">
         <v>48</v>
       </c>
@@ -2890,9 +2888,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A26" s="124"/>
-      <c r="B26" s="131"/>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="108"/>
+      <c r="B26" s="115"/>
       <c r="C26" s="64" t="s">
         <v>50</v>
       </c>
@@ -2906,9 +2904,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A27" s="124"/>
-      <c r="B27" s="131"/>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="108"/>
+      <c r="B27" s="115"/>
       <c r="C27" s="64" t="s">
         <v>52</v>
       </c>
@@ -2922,9 +2920,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A28" s="124"/>
-      <c r="B28" s="131"/>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="108"/>
+      <c r="B28" s="115"/>
       <c r="C28" s="64" t="s">
         <v>53</v>
       </c>
@@ -2938,491 +2936,491 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A29" s="124"/>
-      <c r="B29" s="131"/>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="108"/>
+      <c r="B29" s="115"/>
       <c r="C29" s="64" t="s">
         <v>55</v>
       </c>
       <c r="D29" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="37" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="108"/>
+      <c r="B30" s="115"/>
+      <c r="C30" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="D30" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="37" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="108"/>
+      <c r="B31" s="115"/>
+      <c r="C31" s="64" t="s">
+        <v>108</v>
+      </c>
+      <c r="D31" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="37" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="108"/>
+      <c r="B32" s="115"/>
+      <c r="C32" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="D32" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="E29" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="37" t="s">
+      <c r="E32" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="37" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A30" s="124"/>
-      <c r="B30" s="131"/>
-      <c r="C30" s="64" t="s">
-        <v>108</v>
-      </c>
-      <c r="D30" s="33" t="s">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="108"/>
+      <c r="B33" s="115"/>
+      <c r="C33" s="64" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="E30" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="37" t="s">
+      <c r="E33" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="37" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A31" s="124"/>
-      <c r="B31" s="131"/>
-      <c r="C31" s="64" t="s">
-        <v>109</v>
-      </c>
-      <c r="D31" s="33" t="s">
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="108"/>
+      <c r="B34" s="115"/>
+      <c r="C34" s="64" t="s">
+        <v>111</v>
+      </c>
+      <c r="D34" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="37" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="108"/>
+      <c r="B35" s="115"/>
+      <c r="C35" s="64" t="s">
+        <v>112</v>
+      </c>
+      <c r="D35" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="37" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="108"/>
+      <c r="B36" s="115"/>
+      <c r="C36" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="D36" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="37" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="108"/>
+      <c r="B37" s="115"/>
+      <c r="C37" s="64" t="s">
+        <v>190</v>
+      </c>
+      <c r="D37" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="E31" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="37" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A32" s="124"/>
-      <c r="B32" s="131"/>
-      <c r="C32" s="64" t="s">
-        <v>110</v>
-      </c>
-      <c r="D32" s="35" t="s">
+      <c r="E37" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="37" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="108"/>
+      <c r="B38" s="115"/>
+      <c r="C38" s="64" t="s">
+        <v>191</v>
+      </c>
+      <c r="D38" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="37" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="108"/>
+      <c r="B39" s="115"/>
+      <c r="C39" s="64" t="s">
+        <v>192</v>
+      </c>
+      <c r="D39" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="37" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="108"/>
+      <c r="B40" s="115"/>
+      <c r="C40" s="64" t="s">
+        <v>193</v>
+      </c>
+      <c r="D40" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="37" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="108"/>
+      <c r="B41" s="115"/>
+      <c r="C41" s="64" t="s">
+        <v>194</v>
+      </c>
+      <c r="D41" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="E32" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="37" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A33" s="124"/>
-      <c r="B33" s="131"/>
-      <c r="C33" s="64" t="s">
-        <v>111</v>
-      </c>
-      <c r="D33" s="35" t="s">
+      <c r="E41" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="37" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="108"/>
+      <c r="B42" s="115"/>
+      <c r="C42" s="64" t="s">
+        <v>195</v>
+      </c>
+      <c r="D42" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="E42" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="37" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="108"/>
+      <c r="B43" s="115"/>
+      <c r="C43" s="64" t="s">
+        <v>196</v>
+      </c>
+      <c r="D43" s="35" t="s">
+        <v>249</v>
+      </c>
+      <c r="E43" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="37" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="108"/>
+      <c r="B44" s="115"/>
+      <c r="C44" s="64" t="s">
+        <v>197</v>
+      </c>
+      <c r="D44" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="37" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="108"/>
+      <c r="B45" s="115"/>
+      <c r="C45" s="64" t="s">
+        <v>198</v>
+      </c>
+      <c r="D45" s="35" t="s">
         <v>187</v>
       </c>
-      <c r="E33" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" s="37" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A34" s="124"/>
-      <c r="B34" s="131"/>
-      <c r="C34" s="64" t="s">
-        <v>112</v>
-      </c>
-      <c r="D34" s="35" t="s">
-        <v>170</v>
-      </c>
-      <c r="E34" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" s="37" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A35" s="124"/>
-      <c r="B35" s="131"/>
-      <c r="C35" s="64" t="s">
-        <v>113</v>
-      </c>
-      <c r="D35" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="E35" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" s="37" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A36" s="124"/>
-      <c r="B36" s="131"/>
-      <c r="C36" s="64" t="s">
-        <v>114</v>
-      </c>
-      <c r="D36" s="35" t="s">
+      <c r="E45" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" s="37" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="108"/>
+      <c r="B46" s="115"/>
+      <c r="C46" s="64" t="s">
+        <v>199</v>
+      </c>
+      <c r="D46" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="E36" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" s="37" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A37" s="124"/>
-      <c r="B37" s="131"/>
-      <c r="C37" s="64" t="s">
-        <v>193</v>
-      </c>
-      <c r="D37" s="35" t="s">
+      <c r="E46" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" s="37" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="108"/>
+      <c r="B47" s="115"/>
+      <c r="C47" s="64" t="s">
+        <v>200</v>
+      </c>
+      <c r="D47" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="E47" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="37" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="108"/>
+      <c r="B48" s="115"/>
+      <c r="C48" s="64" t="s">
+        <v>201</v>
+      </c>
+      <c r="D48" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="E48" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" s="37" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="108"/>
+      <c r="B49" s="115"/>
+      <c r="C49" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="D49" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="E49" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="37" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="108"/>
+      <c r="B50" s="115"/>
+      <c r="C50" s="64" t="s">
+        <v>203</v>
+      </c>
+      <c r="D50" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="E50" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="37" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="108"/>
+      <c r="B51" s="115"/>
+      <c r="C51" s="64" t="s">
+        <v>204</v>
+      </c>
+      <c r="D51" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="E51" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" s="37" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="108"/>
+      <c r="B52" s="115"/>
+      <c r="C52" s="64" t="s">
+        <v>205</v>
+      </c>
+      <c r="D52" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="E52" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" s="37" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="108"/>
+      <c r="B53" s="115"/>
+      <c r="C53" s="64" t="s">
+        <v>206</v>
+      </c>
+      <c r="D53" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="E37" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37" s="37" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A38" s="124"/>
-      <c r="B38" s="131"/>
-      <c r="C38" s="64" t="s">
-        <v>194</v>
-      </c>
-      <c r="D38" s="35" t="s">
-        <v>172</v>
-      </c>
-      <c r="E38" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" s="37" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A39" s="124"/>
-      <c r="B39" s="131"/>
-      <c r="C39" s="64" t="s">
-        <v>195</v>
-      </c>
-      <c r="D39" s="35" t="s">
-        <v>173</v>
-      </c>
-      <c r="E39" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" s="37" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A40" s="124"/>
-      <c r="B40" s="131"/>
-      <c r="C40" s="64" t="s">
-        <v>196</v>
-      </c>
-      <c r="D40" s="35" t="s">
-        <v>266</v>
-      </c>
-      <c r="E40" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F40" s="37" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A41" s="124"/>
-      <c r="B41" s="131"/>
-      <c r="C41" s="64" t="s">
-        <v>197</v>
-      </c>
-      <c r="D41" s="35" t="s">
+      <c r="E53" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" s="37" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="108"/>
+      <c r="B54" s="115"/>
+      <c r="C54" s="64" t="s">
+        <v>207</v>
+      </c>
+      <c r="D54" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="E54" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" s="37" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="108"/>
+      <c r="B55" s="115"/>
+      <c r="C55" s="64" t="s">
+        <v>208</v>
+      </c>
+      <c r="D55" s="35" t="s">
+        <v>245</v>
+      </c>
+      <c r="E55" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" s="37" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="108"/>
+      <c r="B56" s="115"/>
+      <c r="C56" s="64" t="s">
+        <v>209</v>
+      </c>
+      <c r="D56" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="E56" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" s="37" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="108"/>
+      <c r="B57" s="115"/>
+      <c r="C57" s="64" t="s">
+        <v>210</v>
+      </c>
+      <c r="D57" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="E57" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" s="37" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="109"/>
+      <c r="B58" s="116"/>
+      <c r="C58" s="69" t="s">
+        <v>211</v>
+      </c>
+      <c r="D58" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="E41" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F41" s="37" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A42" s="124"/>
-      <c r="B42" s="131"/>
-      <c r="C42" s="64" t="s">
-        <v>198</v>
-      </c>
-      <c r="D42" s="35" t="s">
-        <v>251</v>
-      </c>
-      <c r="E42" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42" s="37" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A43" s="124"/>
-      <c r="B43" s="131"/>
-      <c r="C43" s="64" t="s">
-        <v>199</v>
-      </c>
-      <c r="D43" s="35" t="s">
-        <v>252</v>
-      </c>
-      <c r="E43" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F43" s="37" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A44" s="124"/>
-      <c r="B44" s="131"/>
-      <c r="C44" s="64" t="s">
-        <v>200</v>
-      </c>
-      <c r="D44" s="35" t="s">
-        <v>246</v>
-      </c>
-      <c r="E44" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F44" s="37" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A45" s="124"/>
-      <c r="B45" s="131"/>
-      <c r="C45" s="64" t="s">
-        <v>201</v>
-      </c>
-      <c r="D45" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="E45" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F45" s="37" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A46" s="124"/>
-      <c r="B46" s="131"/>
-      <c r="C46" s="64" t="s">
-        <v>202</v>
-      </c>
-      <c r="D46" s="35" t="s">
-        <v>174</v>
-      </c>
-      <c r="E46" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F46" s="37" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A47" s="124"/>
-      <c r="B47" s="131"/>
-      <c r="C47" s="64" t="s">
-        <v>203</v>
-      </c>
-      <c r="D47" s="35" t="s">
-        <v>175</v>
-      </c>
-      <c r="E47" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F47" s="37" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A48" s="124"/>
-      <c r="B48" s="131"/>
-      <c r="C48" s="64" t="s">
-        <v>204</v>
-      </c>
-      <c r="D48" s="35" t="s">
-        <v>176</v>
-      </c>
-      <c r="E48" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F48" s="37" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A49" s="124"/>
-      <c r="B49" s="131"/>
-      <c r="C49" s="64" t="s">
-        <v>205</v>
-      </c>
-      <c r="D49" s="35" t="s">
-        <v>177</v>
-      </c>
-      <c r="E49" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F49" s="37" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A50" s="124"/>
-      <c r="B50" s="131"/>
-      <c r="C50" s="64" t="s">
-        <v>206</v>
-      </c>
-      <c r="D50" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="E50" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F50" s="37" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A51" s="124"/>
-      <c r="B51" s="131"/>
-      <c r="C51" s="64" t="s">
-        <v>207</v>
-      </c>
-      <c r="D51" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="E51" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F51" s="37" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A52" s="124"/>
-      <c r="B52" s="131"/>
-      <c r="C52" s="64" t="s">
-        <v>208</v>
-      </c>
-      <c r="D52" s="35" t="s">
-        <v>180</v>
-      </c>
-      <c r="E52" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F52" s="37" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A53" s="124"/>
-      <c r="B53" s="131"/>
-      <c r="C53" s="64" t="s">
-        <v>209</v>
-      </c>
-      <c r="D53" s="35" t="s">
-        <v>191</v>
-      </c>
-      <c r="E53" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F53" s="37" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A54" s="124"/>
-      <c r="B54" s="131"/>
-      <c r="C54" s="64" t="s">
-        <v>210</v>
-      </c>
-      <c r="D54" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="E54" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F54" s="37" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A55" s="124"/>
-      <c r="B55" s="131"/>
-      <c r="C55" s="64" t="s">
-        <v>211</v>
-      </c>
-      <c r="D55" s="35" t="s">
-        <v>248</v>
-      </c>
-      <c r="E55" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F55" s="37" t="s">
+      <c r="E58" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" s="40" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A56" s="124"/>
-      <c r="B56" s="131"/>
-      <c r="C56" s="64" t="s">
-        <v>212</v>
-      </c>
-      <c r="D56" s="35" t="s">
-        <v>182</v>
-      </c>
-      <c r="E56" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F56" s="37" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A57" s="124"/>
-      <c r="B57" s="131"/>
-      <c r="C57" s="64" t="s">
-        <v>213</v>
-      </c>
-      <c r="D57" s="35" t="s">
-        <v>250</v>
-      </c>
-      <c r="E57" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F57" s="37" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A58" s="125"/>
-      <c r="B58" s="132"/>
-      <c r="C58" s="69" t="s">
-        <v>214</v>
-      </c>
-      <c r="D58" s="38" t="s">
-        <v>192</v>
-      </c>
-      <c r="E58" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="F58" s="40" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A59" s="118" t="s">
+    <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="131" t="s">
         <v>57</v>
       </c>
-      <c r="B59" s="115" t="s">
+      <c r="B59" s="128" t="s">
         <v>58</v>
       </c>
       <c r="C59" s="77" t="s">
@@ -3438,123 +3436,123 @@
         <v>61</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A60" s="119"/>
-      <c r="B60" s="116"/>
+    <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="132"/>
+      <c r="B60" s="129"/>
       <c r="C60" s="45" t="s">
         <v>62</v>
       </c>
       <c r="D60" s="53" t="s">
+        <v>134</v>
+      </c>
+      <c r="E60" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="E60" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F60" s="37" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A61" s="119"/>
-      <c r="B61" s="116"/>
+    </row>
+    <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="132"/>
+      <c r="B61" s="129"/>
       <c r="C61" s="45" t="s">
         <v>63</v>
       </c>
       <c r="D61" s="58" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E61" s="30" t="s">
         <v>10</v>
       </c>
       <c r="F61" s="37" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="132"/>
+      <c r="B62" s="129"/>
+      <c r="C62" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="D62" s="59" t="s">
+        <v>263</v>
+      </c>
+      <c r="E62" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" s="37" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A62" s="119"/>
-      <c r="B62" s="116"/>
-      <c r="C62" s="45" t="s">
+    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="132"/>
+      <c r="B63" s="129"/>
+      <c r="C63" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="D62" s="59" t="s">
-        <v>267</v>
-      </c>
-      <c r="E62" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F62" s="37" t="s">
+      <c r="D63" s="60" t="s">
+        <v>264</v>
+      </c>
+      <c r="E63" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" s="37" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="132"/>
+      <c r="B64" s="129"/>
+      <c r="C64" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="D64" s="53" t="s">
+        <v>265</v>
+      </c>
+      <c r="E64" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64" s="37" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="133"/>
+      <c r="B65" s="129"/>
+      <c r="C65" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="D65" s="80" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A63" s="119"/>
-      <c r="B63" s="116"/>
-      <c r="C63" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="D63" s="60" t="s">
-        <v>268</v>
-      </c>
-      <c r="E63" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F63" s="37" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A64" s="119"/>
-      <c r="B64" s="116"/>
-      <c r="C64" s="45" t="s">
-        <v>133</v>
-      </c>
-      <c r="D64" s="53" t="s">
-        <v>269</v>
-      </c>
-      <c r="E64" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F64" s="37" t="s">
+      <c r="E65" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" s="37" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A65" s="120"/>
-      <c r="B65" s="116"/>
-      <c r="C65" s="45" t="s">
-        <v>134</v>
-      </c>
-      <c r="D65" s="80" t="s">
-        <v>139</v>
-      </c>
-      <c r="E65" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F65" s="37" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+    <row r="66" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="76"/>
-      <c r="B66" s="117"/>
+      <c r="B66" s="130"/>
       <c r="C66" s="47" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D66" s="81" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E66" s="39" t="s">
         <v>10</v>
       </c>
       <c r="F66" s="40" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A67" s="122" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="135" t="s">
         <v>64</v>
       </c>
-      <c r="B67" s="121" t="s">
+      <c r="B67" s="134" t="s">
         <v>65</v>
       </c>
       <c r="C67" s="41" t="s">
@@ -3570,9 +3568,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A68" s="122"/>
-      <c r="B68" s="121"/>
+    <row r="68" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="135"/>
+      <c r="B68" s="134"/>
       <c r="C68" s="13" t="s">
         <v>69</v>
       </c>
@@ -3586,11 +3584,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A69" s="115" t="s">
+    <row r="69" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="128" t="s">
         <v>72</v>
       </c>
-      <c r="B69" s="115" t="s">
+      <c r="B69" s="128" t="s">
         <v>73</v>
       </c>
       <c r="C69" s="22" t="s">
@@ -3606,9 +3604,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A70" s="116"/>
-      <c r="B70" s="116"/>
+    <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="129"/>
+      <c r="B70" s="129"/>
       <c r="C70" s="19" t="s">
         <v>77</v>
       </c>
@@ -3622,9 +3620,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A71" s="116"/>
-      <c r="B71" s="116"/>
+    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="129"/>
+      <c r="B71" s="129"/>
       <c r="C71" s="19" t="s">
         <v>79</v>
       </c>
@@ -3638,14 +3636,14 @@
         <v>76</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A72" s="116"/>
-      <c r="B72" s="116"/>
+    <row r="72" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="129"/>
+      <c r="B72" s="129"/>
       <c r="C72" s="20" t="s">
         <v>81</v>
       </c>
       <c r="D72" s="16" t="s">
-        <v>82</v>
+        <v>269</v>
       </c>
       <c r="E72" s="51" t="s">
         <v>10</v>
@@ -3654,306 +3652,306 @@
         <v>76</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A73" s="116"/>
-      <c r="B73" s="116"/>
+    <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="129"/>
+      <c r="B73" s="129"/>
       <c r="C73" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="D73" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="E73" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="F73" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="129"/>
+      <c r="B74" s="129"/>
+      <c r="C74" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="D73" s="35" t="s">
+      <c r="D74" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="E73" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="F73" s="37" t="s">
+      <c r="E74" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="F74" s="37" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A74" s="116"/>
-      <c r="B74" s="116"/>
-      <c r="C74" s="20" t="s">
+    <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="129"/>
+      <c r="B75" s="129"/>
+      <c r="C75" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="D74" s="35" t="s">
+      <c r="D75" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="E74" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="F74" s="37" t="s">
+      <c r="E75" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="F75" s="37" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A75" s="116"/>
-      <c r="B75" s="116"/>
-      <c r="C75" s="20" t="s">
+    <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="129"/>
+      <c r="B76" s="129"/>
+      <c r="C76" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="D75" s="35" t="s">
+      <c r="D76" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="E75" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="F75" s="37" t="s">
+      <c r="E76" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="F76" s="37" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A76" s="116"/>
-      <c r="B76" s="116"/>
-      <c r="C76" s="20" t="s">
+    <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="129"/>
+      <c r="B77" s="129"/>
+      <c r="C77" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="D76" s="35" t="s">
+      <c r="D77" s="35" t="s">
+        <v>271</v>
+      </c>
+      <c r="E77" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="F77" s="37" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="129"/>
+      <c r="B78" s="129"/>
+      <c r="C78" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="D78" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="E76" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="F76" s="37" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A77" s="116"/>
-      <c r="B77" s="116"/>
-      <c r="C77" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="D77" s="35" t="s">
+      <c r="E78" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="F78" s="37" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="129"/>
+      <c r="B79" s="129"/>
+      <c r="C79" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="D79" s="35" t="s">
+        <v>268</v>
+      </c>
+      <c r="E79" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="F79" s="37" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="129"/>
+      <c r="B80" s="129"/>
+      <c r="C80" s="82" t="s">
+        <v>149</v>
+      </c>
+      <c r="D80" s="35" t="s">
         <v>165</v>
       </c>
-      <c r="E77" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="F77" s="37" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A78" s="116"/>
-      <c r="B78" s="116"/>
-      <c r="C78" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="D78" s="35" t="s">
+      <c r="E80" s="83" t="s">
+        <v>10</v>
+      </c>
+      <c r="F80" s="37" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="130"/>
+      <c r="B81" s="129"/>
+      <c r="C81" s="82" t="s">
+        <v>150</v>
+      </c>
+      <c r="D81" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="E78" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="F78" s="37" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A79" s="116"/>
-      <c r="B79" s="116"/>
-      <c r="C79" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="D79" s="35" t="s">
-        <v>167</v>
-      </c>
-      <c r="E79" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="F79" s="37" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A80" s="116"/>
-      <c r="B80" s="116"/>
-      <c r="C80" s="82" t="s">
-        <v>150</v>
-      </c>
-      <c r="D80" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="E80" s="83" t="s">
-        <v>10</v>
-      </c>
-      <c r="F80" s="37" t="s">
+      <c r="E81" s="85" t="s">
+        <v>10</v>
+      </c>
+      <c r="F81" s="37" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A81" s="117"/>
-      <c r="B81" s="116"/>
-      <c r="C81" s="82" t="s">
-        <v>151</v>
-      </c>
-      <c r="D81" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="E81" s="85" t="s">
-        <v>10</v>
-      </c>
-      <c r="F81" s="37" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="15.75" customHeight="1">
+    <row r="82" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="79"/>
-      <c r="B82" s="116"/>
+      <c r="B82" s="129"/>
       <c r="C82" s="82" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D82" s="35" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E82" s="85" t="s">
         <v>10</v>
       </c>
       <c r="F82" s="37" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A83" s="106"/>
-      <c r="B83" s="116"/>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="79"/>
+      <c r="B83" s="129"/>
       <c r="C83" s="28" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D83" s="35" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="E83" s="85" t="s">
         <v>10</v>
       </c>
       <c r="F83" s="37" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="79"/>
-      <c r="B84" s="117"/>
+      <c r="B84" s="130"/>
       <c r="C84" s="31" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D84" s="38" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E84" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="F84" s="136" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A85" s="107" t="s">
+      <c r="F84" s="106" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="120" t="s">
+        <v>82</v>
+      </c>
+      <c r="B85" s="124" t="s">
         <v>83</v>
       </c>
-      <c r="B85" s="111" t="s">
+      <c r="C85" s="87" t="s">
         <v>84</v>
       </c>
-      <c r="C85" s="87" t="s">
+      <c r="D85" s="84" t="s">
         <v>85</v>
       </c>
-      <c r="D85" s="84" t="s">
+      <c r="E85" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="F85" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="E85" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="F85" s="86" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A86" s="108"/>
-      <c r="B86" s="112"/>
+    </row>
+    <row r="86" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="121"/>
+      <c r="B86" s="125"/>
       <c r="C86" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="D86" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="E86" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="F86" s="36" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="121"/>
+      <c r="B87" s="125"/>
+      <c r="C87" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="D86" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="E86" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="F86" s="36" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A87" s="108"/>
-      <c r="B87" s="112"/>
-      <c r="C87" s="28" t="s">
+      <c r="D87" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="E87" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="F87" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="121"/>
+      <c r="B88" s="125"/>
+      <c r="C88" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="D87" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="E87" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="F87" s="37" t="s">
+      <c r="D88" s="29" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A88" s="108"/>
-      <c r="B88" s="112"/>
-      <c r="C88" s="28" t="s">
+      <c r="E88" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="F88" s="37" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="121"/>
+      <c r="B89" s="125"/>
+      <c r="C89" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="D88" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="E88" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="F88" s="37" t="s">
+      <c r="D89" s="29" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A89" s="108"/>
-      <c r="B89" s="112"/>
-      <c r="C89" s="34" t="s">
+      <c r="E89" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="F89" s="37" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="122"/>
+      <c r="B90" s="126"/>
+      <c r="C90" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="D89" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="E89" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="F89" s="37" t="s">
+      <c r="D90" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="E90" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F90" s="37" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="123"/>
+      <c r="B91" s="127"/>
+      <c r="C91" s="31" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A90" s="109"/>
-      <c r="B90" s="113"/>
-      <c r="C90" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="D90" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="E90" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F90" s="37" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A91" s="110"/>
-      <c r="B91" s="114"/>
-      <c r="C91" s="31" t="s">
-        <v>128</v>
-      </c>
       <c r="D91" s="61" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E91" s="39" t="s">
         <v>10</v>
@@ -3962,31 +3960,31 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="3"/>
       <c r="B96" s="2"/>
       <c r="D96" s="2"/>
@@ -3994,12 +3992,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A23:A58"/>
-    <mergeCell ref="A7:A22"/>
-    <mergeCell ref="B7:B22"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B23:B58"/>
-    <mergeCell ref="B2:B6"/>
     <mergeCell ref="A85:A91"/>
     <mergeCell ref="B85:B91"/>
     <mergeCell ref="A69:A81"/>
@@ -4008,10 +4000,16 @@
     <mergeCell ref="A67:A68"/>
     <mergeCell ref="B59:B66"/>
     <mergeCell ref="B69:B84"/>
+    <mergeCell ref="A23:A58"/>
+    <mergeCell ref="A7:A22"/>
+    <mergeCell ref="B7:B22"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B23:B58"/>
+    <mergeCell ref="B2:B6"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E91">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E91" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Pending Confiramtion, Confirmed"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Requirments/CRS/CRS.xlsx
+++ b/Requirments/CRS/CRS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ebrahem\ITI45\Car-Purchasing\Requirments\CRS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062F565E-399D-4388-8DE6-8390A2593975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C233486-D749-43D5-BDAD-0EA167336F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2035,6 +2035,54 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2073,54 +2121,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2458,8 +2458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B62" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H78" sqref="H78"/>
+    <sheetView tabSelected="1" topLeftCell="B65" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H79" sqref="H79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2493,10 +2493,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="117" t="s">
+      <c r="B2" s="133" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="96" t="s">
@@ -2513,8 +2513,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="111"/>
-      <c r="B3" s="118"/>
+      <c r="A3" s="127"/>
+      <c r="B3" s="134"/>
       <c r="C3" s="5" t="s">
         <v>12</v>
       </c>
@@ -2529,8 +2529,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="111"/>
-      <c r="B4" s="118"/>
+      <c r="A4" s="127"/>
+      <c r="B4" s="134"/>
       <c r="C4" s="54" t="s">
         <v>15</v>
       </c>
@@ -2545,8 +2545,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="111"/>
-      <c r="B5" s="118"/>
+      <c r="A5" s="127"/>
+      <c r="B5" s="134"/>
       <c r="C5" s="89" t="s">
         <v>18</v>
       </c>
@@ -2562,7 +2562,7 @@
     </row>
     <row r="6" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="70"/>
-      <c r="B6" s="119"/>
+      <c r="B6" s="135"/>
       <c r="C6" s="102" t="s">
         <v>256</v>
       </c>
@@ -2577,10 +2577,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="110" t="s">
+      <c r="A7" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="112" t="s">
+      <c r="B7" s="128" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="95" t="s">
@@ -2597,8 +2597,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="111"/>
-      <c r="B8" s="112"/>
+      <c r="A8" s="127"/>
+      <c r="B8" s="128"/>
       <c r="C8" s="54" t="s">
         <v>26</v>
       </c>
@@ -2613,8 +2613,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="111"/>
-      <c r="B9" s="112"/>
+      <c r="A9" s="127"/>
+      <c r="B9" s="128"/>
       <c r="C9" s="5" t="s">
         <v>28</v>
       </c>
@@ -2629,8 +2629,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="111"/>
-      <c r="B10" s="112"/>
+      <c r="A10" s="127"/>
+      <c r="B10" s="128"/>
       <c r="C10" s="5" t="s">
         <v>29</v>
       </c>
@@ -2645,8 +2645,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="111"/>
-      <c r="B11" s="112"/>
+      <c r="A11" s="127"/>
+      <c r="B11" s="128"/>
       <c r="C11" s="5" t="s">
         <v>31</v>
       </c>
@@ -2661,8 +2661,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="111"/>
-      <c r="B12" s="112"/>
+      <c r="A12" s="127"/>
+      <c r="B12" s="128"/>
       <c r="C12" s="5" t="s">
         <v>34</v>
       </c>
@@ -2677,8 +2677,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="111"/>
-      <c r="B13" s="112"/>
+      <c r="A13" s="127"/>
+      <c r="B13" s="128"/>
       <c r="C13" s="5" t="s">
         <v>36</v>
       </c>
@@ -2693,8 +2693,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="111"/>
-      <c r="B14" s="112"/>
+      <c r="A14" s="127"/>
+      <c r="B14" s="128"/>
       <c r="C14" s="12" t="s">
         <v>38</v>
       </c>
@@ -2709,8 +2709,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="111"/>
-      <c r="B15" s="112"/>
+      <c r="A15" s="127"/>
+      <c r="B15" s="128"/>
       <c r="C15" s="12" t="s">
         <v>87</v>
       </c>
@@ -2725,8 +2725,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="111"/>
-      <c r="B16" s="112"/>
+      <c r="A16" s="127"/>
+      <c r="B16" s="128"/>
       <c r="C16" s="12" t="s">
         <v>88</v>
       </c>
@@ -2741,8 +2741,8 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="111"/>
-      <c r="B17" s="112"/>
+      <c r="A17" s="127"/>
+      <c r="B17" s="128"/>
       <c r="C17" s="12" t="s">
         <v>89</v>
       </c>
@@ -2757,8 +2757,8 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="111"/>
-      <c r="B18" s="112"/>
+      <c r="A18" s="127"/>
+      <c r="B18" s="128"/>
       <c r="C18" s="12" t="s">
         <v>90</v>
       </c>
@@ -2773,8 +2773,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="111"/>
-      <c r="B19" s="112"/>
+      <c r="A19" s="127"/>
+      <c r="B19" s="128"/>
       <c r="C19" s="12" t="s">
         <v>91</v>
       </c>
@@ -2789,8 +2789,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="111"/>
-      <c r="B20" s="112"/>
+      <c r="A20" s="127"/>
+      <c r="B20" s="128"/>
       <c r="C20" s="12" t="s">
         <v>92</v>
       </c>
@@ -2805,8 +2805,8 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="111"/>
-      <c r="B21" s="112"/>
+      <c r="A21" s="127"/>
+      <c r="B21" s="128"/>
       <c r="C21" s="12" t="s">
         <v>93</v>
       </c>
@@ -2821,8 +2821,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="111"/>
-      <c r="B22" s="113"/>
+      <c r="A22" s="127"/>
+      <c r="B22" s="129"/>
       <c r="C22" s="73" t="s">
         <v>104</v>
       </c>
@@ -2837,10 +2837,10 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="107" t="s">
+      <c r="A23" s="123" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="114" t="s">
+      <c r="B23" s="130" t="s">
         <v>42</v>
       </c>
       <c r="C23" s="63" t="s">
@@ -2857,8 +2857,8 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="108"/>
-      <c r="B24" s="115"/>
+      <c r="A24" s="124"/>
+      <c r="B24" s="131"/>
       <c r="C24" s="64" t="s">
         <v>46</v>
       </c>
@@ -2873,8 +2873,8 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="108"/>
-      <c r="B25" s="115"/>
+      <c r="A25" s="124"/>
+      <c r="B25" s="131"/>
       <c r="C25" s="64" t="s">
         <v>48</v>
       </c>
@@ -2889,8 +2889,8 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="108"/>
-      <c r="B26" s="115"/>
+      <c r="A26" s="124"/>
+      <c r="B26" s="131"/>
       <c r="C26" s="64" t="s">
         <v>50</v>
       </c>
@@ -2905,8 +2905,8 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="108"/>
-      <c r="B27" s="115"/>
+      <c r="A27" s="124"/>
+      <c r="B27" s="131"/>
       <c r="C27" s="64" t="s">
         <v>52</v>
       </c>
@@ -2921,8 +2921,8 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="108"/>
-      <c r="B28" s="115"/>
+      <c r="A28" s="124"/>
+      <c r="B28" s="131"/>
       <c r="C28" s="64" t="s">
         <v>53</v>
       </c>
@@ -2937,8 +2937,8 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="108"/>
-      <c r="B29" s="115"/>
+      <c r="A29" s="124"/>
+      <c r="B29" s="131"/>
       <c r="C29" s="64" t="s">
         <v>55</v>
       </c>
@@ -2953,8 +2953,8 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="108"/>
-      <c r="B30" s="115"/>
+      <c r="A30" s="124"/>
+      <c r="B30" s="131"/>
       <c r="C30" s="64" t="s">
         <v>107</v>
       </c>
@@ -2969,8 +2969,8 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="108"/>
-      <c r="B31" s="115"/>
+      <c r="A31" s="124"/>
+      <c r="B31" s="131"/>
       <c r="C31" s="64" t="s">
         <v>108</v>
       </c>
@@ -2985,8 +2985,8 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="108"/>
-      <c r="B32" s="115"/>
+      <c r="A32" s="124"/>
+      <c r="B32" s="131"/>
       <c r="C32" s="64" t="s">
         <v>109</v>
       </c>
@@ -3001,8 +3001,8 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="108"/>
-      <c r="B33" s="115"/>
+      <c r="A33" s="124"/>
+      <c r="B33" s="131"/>
       <c r="C33" s="64" t="s">
         <v>110</v>
       </c>
@@ -3017,8 +3017,8 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="108"/>
-      <c r="B34" s="115"/>
+      <c r="A34" s="124"/>
+      <c r="B34" s="131"/>
       <c r="C34" s="64" t="s">
         <v>111</v>
       </c>
@@ -3033,8 +3033,8 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="108"/>
-      <c r="B35" s="115"/>
+      <c r="A35" s="124"/>
+      <c r="B35" s="131"/>
       <c r="C35" s="64" t="s">
         <v>112</v>
       </c>
@@ -3049,8 +3049,8 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="108"/>
-      <c r="B36" s="115"/>
+      <c r="A36" s="124"/>
+      <c r="B36" s="131"/>
       <c r="C36" s="64" t="s">
         <v>113</v>
       </c>
@@ -3065,8 +3065,8 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="108"/>
-      <c r="B37" s="115"/>
+      <c r="A37" s="124"/>
+      <c r="B37" s="131"/>
       <c r="C37" s="64" t="s">
         <v>190</v>
       </c>
@@ -3081,8 +3081,8 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="108"/>
-      <c r="B38" s="115"/>
+      <c r="A38" s="124"/>
+      <c r="B38" s="131"/>
       <c r="C38" s="64" t="s">
         <v>191</v>
       </c>
@@ -3097,8 +3097,8 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="108"/>
-      <c r="B39" s="115"/>
+      <c r="A39" s="124"/>
+      <c r="B39" s="131"/>
       <c r="C39" s="64" t="s">
         <v>192</v>
       </c>
@@ -3113,8 +3113,8 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="108"/>
-      <c r="B40" s="115"/>
+      <c r="A40" s="124"/>
+      <c r="B40" s="131"/>
       <c r="C40" s="64" t="s">
         <v>193</v>
       </c>
@@ -3129,8 +3129,8 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="108"/>
-      <c r="B41" s="115"/>
+      <c r="A41" s="124"/>
+      <c r="B41" s="131"/>
       <c r="C41" s="64" t="s">
         <v>194</v>
       </c>
@@ -3145,8 +3145,8 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="108"/>
-      <c r="B42" s="115"/>
+      <c r="A42" s="124"/>
+      <c r="B42" s="131"/>
       <c r="C42" s="64" t="s">
         <v>195</v>
       </c>
@@ -3161,8 +3161,8 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="108"/>
-      <c r="B43" s="115"/>
+      <c r="A43" s="124"/>
+      <c r="B43" s="131"/>
       <c r="C43" s="64" t="s">
         <v>196</v>
       </c>
@@ -3177,8 +3177,8 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="108"/>
-      <c r="B44" s="115"/>
+      <c r="A44" s="124"/>
+      <c r="B44" s="131"/>
       <c r="C44" s="64" t="s">
         <v>197</v>
       </c>
@@ -3193,8 +3193,8 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="108"/>
-      <c r="B45" s="115"/>
+      <c r="A45" s="124"/>
+      <c r="B45" s="131"/>
       <c r="C45" s="64" t="s">
         <v>198</v>
       </c>
@@ -3209,8 +3209,8 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="108"/>
-      <c r="B46" s="115"/>
+      <c r="A46" s="124"/>
+      <c r="B46" s="131"/>
       <c r="C46" s="64" t="s">
         <v>199</v>
       </c>
@@ -3225,8 +3225,8 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="108"/>
-      <c r="B47" s="115"/>
+      <c r="A47" s="124"/>
+      <c r="B47" s="131"/>
       <c r="C47" s="64" t="s">
         <v>200</v>
       </c>
@@ -3241,8 +3241,8 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="108"/>
-      <c r="B48" s="115"/>
+      <c r="A48" s="124"/>
+      <c r="B48" s="131"/>
       <c r="C48" s="64" t="s">
         <v>201</v>
       </c>
@@ -3257,8 +3257,8 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="108"/>
-      <c r="B49" s="115"/>
+      <c r="A49" s="124"/>
+      <c r="B49" s="131"/>
       <c r="C49" s="64" t="s">
         <v>202</v>
       </c>
@@ -3273,8 +3273,8 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="108"/>
-      <c r="B50" s="115"/>
+      <c r="A50" s="124"/>
+      <c r="B50" s="131"/>
       <c r="C50" s="64" t="s">
         <v>203</v>
       </c>
@@ -3289,8 +3289,8 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="108"/>
-      <c r="B51" s="115"/>
+      <c r="A51" s="124"/>
+      <c r="B51" s="131"/>
       <c r="C51" s="64" t="s">
         <v>204</v>
       </c>
@@ -3305,8 +3305,8 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="108"/>
-      <c r="B52" s="115"/>
+      <c r="A52" s="124"/>
+      <c r="B52" s="131"/>
       <c r="C52" s="64" t="s">
         <v>205</v>
       </c>
@@ -3321,8 +3321,8 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="108"/>
-      <c r="B53" s="115"/>
+      <c r="A53" s="124"/>
+      <c r="B53" s="131"/>
       <c r="C53" s="64" t="s">
         <v>206</v>
       </c>
@@ -3337,8 +3337,8 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="108"/>
-      <c r="B54" s="115"/>
+      <c r="A54" s="124"/>
+      <c r="B54" s="131"/>
       <c r="C54" s="64" t="s">
         <v>207</v>
       </c>
@@ -3353,8 +3353,8 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="108"/>
-      <c r="B55" s="115"/>
+      <c r="A55" s="124"/>
+      <c r="B55" s="131"/>
       <c r="C55" s="64" t="s">
         <v>208</v>
       </c>
@@ -3369,8 +3369,8 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="108"/>
-      <c r="B56" s="115"/>
+      <c r="A56" s="124"/>
+      <c r="B56" s="131"/>
       <c r="C56" s="64" t="s">
         <v>209</v>
       </c>
@@ -3385,8 +3385,8 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="108"/>
-      <c r="B57" s="115"/>
+      <c r="A57" s="124"/>
+      <c r="B57" s="131"/>
       <c r="C57" s="64" t="s">
         <v>210</v>
       </c>
@@ -3401,8 +3401,8 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="109"/>
-      <c r="B58" s="116"/>
+      <c r="A58" s="125"/>
+      <c r="B58" s="132"/>
       <c r="C58" s="69" t="s">
         <v>211</v>
       </c>
@@ -3417,10 +3417,10 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="131" t="s">
+      <c r="A59" s="118" t="s">
         <v>57</v>
       </c>
-      <c r="B59" s="128" t="s">
+      <c r="B59" s="115" t="s">
         <v>58</v>
       </c>
       <c r="C59" s="77" t="s">
@@ -3437,8 +3437,8 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="132"/>
-      <c r="B60" s="129"/>
+      <c r="A60" s="119"/>
+      <c r="B60" s="116"/>
       <c r="C60" s="45" t="s">
         <v>62</v>
       </c>
@@ -3453,8 +3453,8 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="132"/>
-      <c r="B61" s="129"/>
+      <c r="A61" s="119"/>
+      <c r="B61" s="116"/>
       <c r="C61" s="45" t="s">
         <v>63</v>
       </c>
@@ -3469,8 +3469,8 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="132"/>
-      <c r="B62" s="129"/>
+      <c r="A62" s="119"/>
+      <c r="B62" s="116"/>
       <c r="C62" s="45" t="s">
         <v>130</v>
       </c>
@@ -3485,8 +3485,8 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="132"/>
-      <c r="B63" s="129"/>
+      <c r="A63" s="119"/>
+      <c r="B63" s="116"/>
       <c r="C63" s="45" t="s">
         <v>131</v>
       </c>
@@ -3501,8 +3501,8 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="132"/>
-      <c r="B64" s="129"/>
+      <c r="A64" s="119"/>
+      <c r="B64" s="116"/>
       <c r="C64" s="45" t="s">
         <v>132</v>
       </c>
@@ -3517,8 +3517,8 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="133"/>
-      <c r="B65" s="129"/>
+      <c r="A65" s="120"/>
+      <c r="B65" s="116"/>
       <c r="C65" s="45" t="s">
         <v>133</v>
       </c>
@@ -3534,7 +3534,7 @@
     </row>
     <row r="66" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="76"/>
-      <c r="B66" s="130"/>
+      <c r="B66" s="117"/>
       <c r="C66" s="47" t="s">
         <v>250</v>
       </c>
@@ -3549,10 +3549,10 @@
       </c>
     </row>
     <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="135" t="s">
+      <c r="A67" s="122" t="s">
         <v>64</v>
       </c>
-      <c r="B67" s="134" t="s">
+      <c r="B67" s="121" t="s">
         <v>65</v>
       </c>
       <c r="C67" s="41" t="s">
@@ -3569,8 +3569,8 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="135"/>
-      <c r="B68" s="134"/>
+      <c r="A68" s="122"/>
+      <c r="B68" s="121"/>
       <c r="C68" s="13" t="s">
         <v>69</v>
       </c>
@@ -3585,10 +3585,10 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="128" t="s">
+      <c r="A69" s="115" t="s">
         <v>72</v>
       </c>
-      <c r="B69" s="128" t="s">
+      <c r="B69" s="115" t="s">
         <v>73</v>
       </c>
       <c r="C69" s="22" t="s">
@@ -3605,8 +3605,8 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="129"/>
-      <c r="B70" s="129"/>
+      <c r="A70" s="116"/>
+      <c r="B70" s="116"/>
       <c r="C70" s="19" t="s">
         <v>77</v>
       </c>
@@ -3621,8 +3621,8 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="129"/>
-      <c r="B71" s="129"/>
+      <c r="A71" s="116"/>
+      <c r="B71" s="116"/>
       <c r="C71" s="19" t="s">
         <v>79</v>
       </c>
@@ -3637,8 +3637,8 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="129"/>
-      <c r="B72" s="129"/>
+      <c r="A72" s="116"/>
+      <c r="B72" s="116"/>
       <c r="C72" s="20" t="s">
         <v>81</v>
       </c>
@@ -3653,8 +3653,8 @@
       </c>
     </row>
     <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="129"/>
-      <c r="B73" s="129"/>
+      <c r="A73" s="116"/>
+      <c r="B73" s="116"/>
       <c r="C73" s="20" t="s">
         <v>142</v>
       </c>
@@ -3669,8 +3669,8 @@
       </c>
     </row>
     <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="129"/>
-      <c r="B74" s="129"/>
+      <c r="A74" s="116"/>
+      <c r="B74" s="116"/>
       <c r="C74" s="20" t="s">
         <v>143</v>
       </c>
@@ -3685,8 +3685,8 @@
       </c>
     </row>
     <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="129"/>
-      <c r="B75" s="129"/>
+      <c r="A75" s="116"/>
+      <c r="B75" s="116"/>
       <c r="C75" s="20" t="s">
         <v>144</v>
       </c>
@@ -3701,8 +3701,8 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="129"/>
-      <c r="B76" s="129"/>
+      <c r="A76" s="116"/>
+      <c r="B76" s="116"/>
       <c r="C76" s="20" t="s">
         <v>145</v>
       </c>
@@ -3717,8 +3717,8 @@
       </c>
     </row>
     <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="129"/>
-      <c r="B77" s="129"/>
+      <c r="A77" s="116"/>
+      <c r="B77" s="116"/>
       <c r="C77" s="20" t="s">
         <v>146</v>
       </c>
@@ -3733,8 +3733,8 @@
       </c>
     </row>
     <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="129"/>
-      <c r="B78" s="129"/>
+      <c r="A78" s="116"/>
+      <c r="B78" s="116"/>
       <c r="C78" s="20" t="s">
         <v>147</v>
       </c>
@@ -3749,8 +3749,8 @@
       </c>
     </row>
     <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="129"/>
-      <c r="B79" s="129"/>
+      <c r="A79" s="116"/>
+      <c r="B79" s="116"/>
       <c r="C79" s="20" t="s">
         <v>148</v>
       </c>
@@ -3765,8 +3765,8 @@
       </c>
     </row>
     <row r="80" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="129"/>
-      <c r="B80" s="129"/>
+      <c r="A80" s="116"/>
+      <c r="B80" s="116"/>
       <c r="C80" s="82" t="s">
         <v>149</v>
       </c>
@@ -3781,8 +3781,8 @@
       </c>
     </row>
     <row r="81" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="130"/>
-      <c r="B81" s="129"/>
+      <c r="A81" s="117"/>
+      <c r="B81" s="116"/>
       <c r="C81" s="82" t="s">
         <v>150</v>
       </c>
@@ -3798,7 +3798,7 @@
     </row>
     <row r="82" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="79"/>
-      <c r="B82" s="129"/>
+      <c r="B82" s="116"/>
       <c r="C82" s="82" t="s">
         <v>254</v>
       </c>
@@ -3814,7 +3814,7 @@
     </row>
     <row r="83" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="79"/>
-      <c r="B83" s="129"/>
+      <c r="B83" s="116"/>
       <c r="C83" s="28" t="s">
         <v>255</v>
       </c>
@@ -3830,7 +3830,7 @@
     </row>
     <row r="84" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="79"/>
-      <c r="B84" s="130"/>
+      <c r="B84" s="117"/>
       <c r="C84" s="31" t="s">
         <v>267</v>
       </c>
@@ -3845,10 +3845,10 @@
       </c>
     </row>
     <row r="85" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="120" t="s">
+      <c r="A85" s="107" t="s">
         <v>82</v>
       </c>
-      <c r="B85" s="124" t="s">
+      <c r="B85" s="111" t="s">
         <v>83</v>
       </c>
       <c r="C85" s="87" t="s">
@@ -3865,8 +3865,8 @@
       </c>
     </row>
     <row r="86" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="121"/>
-      <c r="B86" s="125"/>
+      <c r="A86" s="108"/>
+      <c r="B86" s="112"/>
       <c r="C86" s="28" t="s">
         <v>116</v>
       </c>
@@ -3881,8 +3881,8 @@
       </c>
     </row>
     <row r="87" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="121"/>
-      <c r="B87" s="125"/>
+      <c r="A87" s="108"/>
+      <c r="B87" s="112"/>
       <c r="C87" s="28" t="s">
         <v>117</v>
       </c>
@@ -3897,8 +3897,8 @@
       </c>
     </row>
     <row r="88" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="121"/>
-      <c r="B88" s="125"/>
+      <c r="A88" s="108"/>
+      <c r="B88" s="112"/>
       <c r="C88" s="28" t="s">
         <v>118</v>
       </c>
@@ -3913,8 +3913,8 @@
       </c>
     </row>
     <row r="89" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="121"/>
-      <c r="B89" s="125"/>
+      <c r="A89" s="108"/>
+      <c r="B89" s="112"/>
       <c r="C89" s="34" t="s">
         <v>119</v>
       </c>
@@ -3929,8 +3929,8 @@
       </c>
     </row>
     <row r="90" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="122"/>
-      <c r="B90" s="126"/>
+      <c r="A90" s="109"/>
+      <c r="B90" s="113"/>
       <c r="C90" s="28" t="s">
         <v>120</v>
       </c>
@@ -3945,8 +3945,8 @@
       </c>
     </row>
     <row r="91" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="123"/>
-      <c r="B91" s="127"/>
+      <c r="A91" s="110"/>
+      <c r="B91" s="114"/>
       <c r="C91" s="31" t="s">
         <v>127</v>
       </c>
@@ -3992,6 +3992,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A23:A58"/>
+    <mergeCell ref="A7:A22"/>
+    <mergeCell ref="B7:B22"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B23:B58"/>
+    <mergeCell ref="B2:B6"/>
     <mergeCell ref="A85:A91"/>
     <mergeCell ref="B85:B91"/>
     <mergeCell ref="A69:A81"/>
@@ -4000,12 +4006,6 @@
     <mergeCell ref="A67:A68"/>
     <mergeCell ref="B59:B66"/>
     <mergeCell ref="B69:B84"/>
-    <mergeCell ref="A23:A58"/>
-    <mergeCell ref="A7:A22"/>
-    <mergeCell ref="B7:B22"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B23:B58"/>
-    <mergeCell ref="B2:B6"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="1">

--- a/Requirments/CRS/CRS.xlsx
+++ b/Requirments/CRS/CRS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ebrahem\ITI45\Car-Purchasing\Requirments\CRS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C233486-D749-43D5-BDAD-0EA167336F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA4C1D7-9957-4E29-B313-3104C9D9C8BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -282,9 +282,6 @@
     <t>Reserve_001</t>
   </si>
   <si>
-    <t>Reservation of a car decreases available car number</t>
-  </si>
-  <si>
     <t>SIQ_04</t>
   </si>
   <si>
@@ -841,6 +838,9 @@
   </si>
   <si>
     <t>Price must be not equal to 0.</t>
+  </si>
+  <si>
+    <t>Reservation of a car decreases available cars</t>
   </si>
 </sst>
 </file>
@@ -2035,6 +2035,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2082,45 +2121,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2458,8 +2458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B65" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H79" sqref="H79"/>
+    <sheetView tabSelected="1" topLeftCell="B75" zoomScale="111" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2493,10 +2493,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="117" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="96" t="s">
@@ -2513,8 +2513,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="127"/>
-      <c r="B3" s="134"/>
+      <c r="A3" s="111"/>
+      <c r="B3" s="118"/>
       <c r="C3" s="5" t="s">
         <v>12</v>
       </c>
@@ -2529,8 +2529,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="127"/>
-      <c r="B4" s="134"/>
+      <c r="A4" s="111"/>
+      <c r="B4" s="118"/>
       <c r="C4" s="54" t="s">
         <v>15</v>
       </c>
@@ -2545,8 +2545,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="127"/>
-      <c r="B5" s="134"/>
+      <c r="A5" s="111"/>
+      <c r="B5" s="118"/>
       <c r="C5" s="89" t="s">
         <v>18</v>
       </c>
@@ -2562,25 +2562,25 @@
     </row>
     <row r="6" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="70"/>
-      <c r="B6" s="135"/>
+      <c r="B6" s="119"/>
       <c r="C6" s="102" t="s">
+        <v>255</v>
+      </c>
+      <c r="D6" s="103" t="s">
         <v>256</v>
       </c>
-      <c r="D6" s="103" t="s">
-        <v>257</v>
-      </c>
       <c r="E6" s="104" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="105" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="126" t="s">
+      <c r="A7" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="128" t="s">
+      <c r="B7" s="112" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="95" t="s">
@@ -2597,8 +2597,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="127"/>
-      <c r="B8" s="128"/>
+      <c r="A8" s="111"/>
+      <c r="B8" s="112"/>
       <c r="C8" s="54" t="s">
         <v>26</v>
       </c>
@@ -2613,8 +2613,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="127"/>
-      <c r="B9" s="128"/>
+      <c r="A9" s="111"/>
+      <c r="B9" s="112"/>
       <c r="C9" s="5" t="s">
         <v>28</v>
       </c>
@@ -2629,8 +2629,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="127"/>
-      <c r="B10" s="128"/>
+      <c r="A10" s="111"/>
+      <c r="B10" s="112"/>
       <c r="C10" s="5" t="s">
         <v>29</v>
       </c>
@@ -2645,8 +2645,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="127"/>
-      <c r="B11" s="128"/>
+      <c r="A11" s="111"/>
+      <c r="B11" s="112"/>
       <c r="C11" s="5" t="s">
         <v>31</v>
       </c>
@@ -2661,13 +2661,13 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="127"/>
-      <c r="B12" s="128"/>
+      <c r="A12" s="111"/>
+      <c r="B12" s="112"/>
       <c r="C12" s="5" t="s">
         <v>34</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>10</v>
@@ -2677,13 +2677,13 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="127"/>
-      <c r="B13" s="128"/>
+      <c r="A13" s="111"/>
+      <c r="B13" s="112"/>
       <c r="C13" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>10</v>
@@ -2693,8 +2693,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="127"/>
-      <c r="B14" s="128"/>
+      <c r="A14" s="111"/>
+      <c r="B14" s="112"/>
       <c r="C14" s="12" t="s">
         <v>38</v>
       </c>
@@ -2709,93 +2709,93 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="127"/>
-      <c r="B15" s="128"/>
+      <c r="A15" s="111"/>
+      <c r="B15" s="112"/>
       <c r="C15" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="111"/>
+      <c r="B16" s="112"/>
+      <c r="C16" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D16" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="111"/>
+      <c r="B17" s="112"/>
+      <c r="C17" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="111"/>
+      <c r="B18" s="112"/>
+      <c r="C18" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="111"/>
+      <c r="B19" s="112"/>
+      <c r="C19" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="E15" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="27" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="127"/>
-      <c r="B16" s="128"/>
-      <c r="C16" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="27" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="127"/>
-      <c r="B17" s="128"/>
-      <c r="C17" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="27" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="127"/>
-      <c r="B18" s="128"/>
-      <c r="C18" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="27" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="127"/>
-      <c r="B19" s="128"/>
-      <c r="C19" s="12" t="s">
+    </row>
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="111"/>
+      <c r="B20" s="112"/>
+      <c r="C20" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="27" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="127"/>
-      <c r="B20" s="128"/>
-      <c r="C20" s="12" t="s">
-        <v>92</v>
-      </c>
       <c r="D20" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>10</v>
@@ -2805,13 +2805,13 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="127"/>
-      <c r="B21" s="128"/>
+      <c r="A21" s="111"/>
+      <c r="B21" s="112"/>
       <c r="C21" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>10</v>
@@ -2821,13 +2821,13 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="127"/>
-      <c r="B22" s="129"/>
+      <c r="A22" s="111"/>
+      <c r="B22" s="113"/>
       <c r="C22" s="73" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D22" s="74" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E22" s="75" t="s">
         <v>10</v>
@@ -2837,10 +2837,10 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="123" t="s">
+      <c r="A23" s="107" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="130" t="s">
+      <c r="B23" s="114" t="s">
         <v>42</v>
       </c>
       <c r="C23" s="63" t="s">
@@ -2857,8 +2857,8 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="124"/>
-      <c r="B24" s="131"/>
+      <c r="A24" s="108"/>
+      <c r="B24" s="115"/>
       <c r="C24" s="64" t="s">
         <v>46</v>
       </c>
@@ -2873,8 +2873,8 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="124"/>
-      <c r="B25" s="131"/>
+      <c r="A25" s="108"/>
+      <c r="B25" s="115"/>
       <c r="C25" s="64" t="s">
         <v>48</v>
       </c>
@@ -2889,8 +2889,8 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="124"/>
-      <c r="B26" s="131"/>
+      <c r="A26" s="108"/>
+      <c r="B26" s="115"/>
       <c r="C26" s="64" t="s">
         <v>50</v>
       </c>
@@ -2905,8 +2905,8 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="124"/>
-      <c r="B27" s="131"/>
+      <c r="A27" s="108"/>
+      <c r="B27" s="115"/>
       <c r="C27" s="64" t="s">
         <v>52</v>
       </c>
@@ -2921,8 +2921,8 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="124"/>
-      <c r="B28" s="131"/>
+      <c r="A28" s="108"/>
+      <c r="B28" s="115"/>
       <c r="C28" s="64" t="s">
         <v>53</v>
       </c>
@@ -2937,490 +2937,490 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="124"/>
-      <c r="B29" s="131"/>
+      <c r="A29" s="108"/>
+      <c r="B29" s="115"/>
       <c r="C29" s="64" t="s">
         <v>55</v>
       </c>
       <c r="D29" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="37" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="108"/>
+      <c r="B30" s="115"/>
+      <c r="C30" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="E29" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="37" t="s">
+      <c r="E30" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="37" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="124"/>
-      <c r="B30" s="131"/>
-      <c r="C30" s="64" t="s">
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="108"/>
+      <c r="B31" s="115"/>
+      <c r="C31" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="D30" s="33" t="s">
+      <c r="D31" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="E30" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="37" t="s">
+      <c r="E31" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="37" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="124"/>
-      <c r="B31" s="131"/>
-      <c r="C31" s="64" t="s">
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="108"/>
+      <c r="B32" s="115"/>
+      <c r="C32" s="64" t="s">
         <v>108</v>
       </c>
-      <c r="D31" s="33" t="s">
+      <c r="D32" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="E31" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="37" t="s">
+      <c r="E32" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="37" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="124"/>
-      <c r="B32" s="131"/>
-      <c r="C32" s="64" t="s">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="108"/>
+      <c r="B33" s="115"/>
+      <c r="C33" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="D32" s="35" t="s">
+      <c r="D33" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="E32" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="37" t="s">
+      <c r="E33" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="37" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="124"/>
-      <c r="B33" s="131"/>
-      <c r="C33" s="64" t="s">
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="108"/>
+      <c r="B34" s="115"/>
+      <c r="C34" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="D33" s="35" t="s">
+      <c r="D34" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="37" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="108"/>
+      <c r="B35" s="115"/>
+      <c r="C35" s="64" t="s">
+        <v>111</v>
+      </c>
+      <c r="D35" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="37" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="108"/>
+      <c r="B36" s="115"/>
+      <c r="C36" s="64" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="37" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="108"/>
+      <c r="B37" s="115"/>
+      <c r="C37" s="64" t="s">
+        <v>189</v>
+      </c>
+      <c r="D37" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="E33" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" s="37" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="124"/>
-      <c r="B34" s="131"/>
-      <c r="C34" s="64" t="s">
-        <v>111</v>
-      </c>
-      <c r="D34" s="35" t="s">
-        <v>167</v>
-      </c>
-      <c r="E34" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" s="37" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="124"/>
-      <c r="B35" s="131"/>
-      <c r="C35" s="64" t="s">
-        <v>112</v>
-      </c>
-      <c r="D35" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="E35" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" s="37" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="124"/>
-      <c r="B36" s="131"/>
-      <c r="C36" s="64" t="s">
-        <v>113</v>
-      </c>
-      <c r="D36" s="35" t="s">
+      <c r="E37" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="37" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="108"/>
+      <c r="B38" s="115"/>
+      <c r="C38" s="64" t="s">
+        <v>190</v>
+      </c>
+      <c r="D38" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="E36" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" s="37" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="124"/>
-      <c r="B37" s="131"/>
-      <c r="C37" s="64" t="s">
-        <v>190</v>
-      </c>
-      <c r="D37" s="35" t="s">
+      <c r="E38" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="37" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="108"/>
+      <c r="B39" s="115"/>
+      <c r="C39" s="64" t="s">
+        <v>191</v>
+      </c>
+      <c r="D39" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="37" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="108"/>
+      <c r="B40" s="115"/>
+      <c r="C40" s="64" t="s">
+        <v>192</v>
+      </c>
+      <c r="D40" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="37" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="108"/>
+      <c r="B41" s="115"/>
+      <c r="C41" s="64" t="s">
+        <v>193</v>
+      </c>
+      <c r="D41" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="E37" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37" s="37" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="124"/>
-      <c r="B38" s="131"/>
-      <c r="C38" s="64" t="s">
-        <v>191</v>
-      </c>
-      <c r="D38" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="E38" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" s="37" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="124"/>
-      <c r="B39" s="131"/>
-      <c r="C39" s="64" t="s">
-        <v>192</v>
-      </c>
-      <c r="D39" s="35" t="s">
+      <c r="E41" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="37" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="108"/>
+      <c r="B42" s="115"/>
+      <c r="C42" s="64" t="s">
+        <v>194</v>
+      </c>
+      <c r="D42" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="E42" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="37" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="108"/>
+      <c r="B43" s="115"/>
+      <c r="C43" s="64" t="s">
+        <v>195</v>
+      </c>
+      <c r="D43" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="E43" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="37" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="108"/>
+      <c r="B44" s="115"/>
+      <c r="C44" s="64" t="s">
+        <v>196</v>
+      </c>
+      <c r="D44" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="37" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="108"/>
+      <c r="B45" s="115"/>
+      <c r="C45" s="64" t="s">
+        <v>197</v>
+      </c>
+      <c r="D45" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="E45" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" s="37" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="108"/>
+      <c r="B46" s="115"/>
+      <c r="C46" s="64" t="s">
+        <v>198</v>
+      </c>
+      <c r="D46" s="35" t="s">
         <v>170</v>
       </c>
-      <c r="E39" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" s="37" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="124"/>
-      <c r="B40" s="131"/>
-      <c r="C40" s="64" t="s">
-        <v>193</v>
-      </c>
-      <c r="D40" s="35" t="s">
-        <v>262</v>
-      </c>
-      <c r="E40" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F40" s="37" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="124"/>
-      <c r="B41" s="131"/>
-      <c r="C41" s="64" t="s">
-        <v>194</v>
-      </c>
-      <c r="D41" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="E41" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F41" s="37" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="124"/>
-      <c r="B42" s="131"/>
-      <c r="C42" s="64" t="s">
-        <v>195</v>
-      </c>
-      <c r="D42" s="35" t="s">
-        <v>248</v>
-      </c>
-      <c r="E42" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42" s="37" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="124"/>
-      <c r="B43" s="131"/>
-      <c r="C43" s="64" t="s">
-        <v>196</v>
-      </c>
-      <c r="D43" s="35" t="s">
-        <v>249</v>
-      </c>
-      <c r="E43" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F43" s="37" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="124"/>
-      <c r="B44" s="131"/>
-      <c r="C44" s="64" t="s">
-        <v>197</v>
-      </c>
-      <c r="D44" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="E44" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F44" s="37" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="124"/>
-      <c r="B45" s="131"/>
-      <c r="C45" s="64" t="s">
-        <v>198</v>
-      </c>
-      <c r="D45" s="35" t="s">
+      <c r="E46" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" s="37" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="108"/>
+      <c r="B47" s="115"/>
+      <c r="C47" s="64" t="s">
+        <v>199</v>
+      </c>
+      <c r="D47" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="E47" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="37" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="108"/>
+      <c r="B48" s="115"/>
+      <c r="C48" s="64" t="s">
+        <v>200</v>
+      </c>
+      <c r="D48" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="E48" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" s="37" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="108"/>
+      <c r="B49" s="115"/>
+      <c r="C49" s="64" t="s">
+        <v>201</v>
+      </c>
+      <c r="D49" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="E49" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="37" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="108"/>
+      <c r="B50" s="115"/>
+      <c r="C50" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="D50" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="E50" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="37" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="108"/>
+      <c r="B51" s="115"/>
+      <c r="C51" s="64" t="s">
+        <v>203</v>
+      </c>
+      <c r="D51" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="E51" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" s="37" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="108"/>
+      <c r="B52" s="115"/>
+      <c r="C52" s="64" t="s">
+        <v>204</v>
+      </c>
+      <c r="D52" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="E52" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" s="37" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="108"/>
+      <c r="B53" s="115"/>
+      <c r="C53" s="64" t="s">
+        <v>205</v>
+      </c>
+      <c r="D53" s="35" t="s">
         <v>187</v>
       </c>
-      <c r="E45" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F45" s="37" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="124"/>
-      <c r="B46" s="131"/>
-      <c r="C46" s="64" t="s">
-        <v>199</v>
-      </c>
-      <c r="D46" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="E46" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F46" s="37" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="124"/>
-      <c r="B47" s="131"/>
-      <c r="C47" s="64" t="s">
-        <v>200</v>
-      </c>
-      <c r="D47" s="35" t="s">
-        <v>172</v>
-      </c>
-      <c r="E47" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F47" s="37" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="124"/>
-      <c r="B48" s="131"/>
-      <c r="C48" s="64" t="s">
-        <v>201</v>
-      </c>
-      <c r="D48" s="35" t="s">
-        <v>173</v>
-      </c>
-      <c r="E48" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F48" s="37" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="124"/>
-      <c r="B49" s="131"/>
-      <c r="C49" s="64" t="s">
-        <v>202</v>
-      </c>
-      <c r="D49" s="35" t="s">
-        <v>174</v>
-      </c>
-      <c r="E49" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F49" s="37" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="124"/>
-      <c r="B50" s="131"/>
-      <c r="C50" s="64" t="s">
-        <v>203</v>
-      </c>
-      <c r="D50" s="35" t="s">
-        <v>175</v>
-      </c>
-      <c r="E50" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F50" s="37" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="124"/>
-      <c r="B51" s="131"/>
-      <c r="C51" s="64" t="s">
-        <v>204</v>
-      </c>
-      <c r="D51" s="35" t="s">
-        <v>176</v>
-      </c>
-      <c r="E51" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F51" s="37" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="124"/>
-      <c r="B52" s="131"/>
-      <c r="C52" s="64" t="s">
-        <v>205</v>
-      </c>
-      <c r="D52" s="35" t="s">
+      <c r="E53" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" s="37" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="108"/>
+      <c r="B54" s="115"/>
+      <c r="C54" s="64" t="s">
+        <v>206</v>
+      </c>
+      <c r="D54" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="E52" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F52" s="37" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="124"/>
-      <c r="B53" s="131"/>
-      <c r="C53" s="64" t="s">
-        <v>206</v>
-      </c>
-      <c r="D53" s="35" t="s">
+      <c r="E54" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" s="37" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="108"/>
+      <c r="B55" s="115"/>
+      <c r="C55" s="64" t="s">
+        <v>207</v>
+      </c>
+      <c r="D55" s="35" t="s">
+        <v>244</v>
+      </c>
+      <c r="E55" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" s="37" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="108"/>
+      <c r="B56" s="115"/>
+      <c r="C56" s="64" t="s">
+        <v>208</v>
+      </c>
+      <c r="D56" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="E56" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" s="37" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="108"/>
+      <c r="B57" s="115"/>
+      <c r="C57" s="64" t="s">
+        <v>209</v>
+      </c>
+      <c r="D57" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="E57" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" s="37" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="109"/>
+      <c r="B58" s="116"/>
+      <c r="C58" s="69" t="s">
+        <v>210</v>
+      </c>
+      <c r="D58" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="E53" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F53" s="37" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="124"/>
-      <c r="B54" s="131"/>
-      <c r="C54" s="64" t="s">
-        <v>207</v>
-      </c>
-      <c r="D54" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="E54" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F54" s="37" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="124"/>
-      <c r="B55" s="131"/>
-      <c r="C55" s="64" t="s">
-        <v>208</v>
-      </c>
-      <c r="D55" s="35" t="s">
-        <v>245</v>
-      </c>
-      <c r="E55" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F55" s="37" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="124"/>
-      <c r="B56" s="131"/>
-      <c r="C56" s="64" t="s">
-        <v>209</v>
-      </c>
-      <c r="D56" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="E56" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F56" s="37" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="124"/>
-      <c r="B57" s="131"/>
-      <c r="C57" s="64" t="s">
-        <v>210</v>
-      </c>
-      <c r="D57" s="35" t="s">
-        <v>247</v>
-      </c>
-      <c r="E57" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F57" s="37" t="s">
+      <c r="E58" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" s="40" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="125"/>
-      <c r="B58" s="132"/>
-      <c r="C58" s="69" t="s">
-        <v>211</v>
-      </c>
-      <c r="D58" s="38" t="s">
-        <v>189</v>
-      </c>
-      <c r="E58" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="F58" s="40" t="s">
-        <v>241</v>
-      </c>
-    </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="118" t="s">
+      <c r="A59" s="131" t="s">
         <v>57</v>
       </c>
-      <c r="B59" s="115" t="s">
+      <c r="B59" s="128" t="s">
         <v>58</v>
       </c>
       <c r="C59" s="77" t="s">
@@ -3437,122 +3437,122 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="119"/>
-      <c r="B60" s="116"/>
+      <c r="A60" s="132"/>
+      <c r="B60" s="129"/>
       <c r="C60" s="45" t="s">
         <v>62</v>
       </c>
       <c r="D60" s="53" t="s">
+        <v>133</v>
+      </c>
+      <c r="E60" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="E60" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F60" s="37" t="s">
-        <v>135</v>
-      </c>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="119"/>
-      <c r="B61" s="116"/>
+      <c r="A61" s="132"/>
+      <c r="B61" s="129"/>
       <c r="C61" s="45" t="s">
         <v>63</v>
       </c>
       <c r="D61" s="58" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E61" s="30" t="s">
         <v>10</v>
       </c>
       <c r="F61" s="37" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="132"/>
+      <c r="B62" s="129"/>
+      <c r="C62" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="D62" s="59" t="s">
+        <v>262</v>
+      </c>
+      <c r="E62" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" s="37" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="119"/>
-      <c r="B62" s="116"/>
-      <c r="C62" s="45" t="s">
+    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="132"/>
+      <c r="B63" s="129"/>
+      <c r="C63" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="D62" s="59" t="s">
+      <c r="D63" s="60" t="s">
         <v>263</v>
       </c>
-      <c r="E62" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F62" s="37" t="s">
+      <c r="E63" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" s="37" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="132"/>
+      <c r="B64" s="129"/>
+      <c r="C64" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="D64" s="53" t="s">
+        <v>264</v>
+      </c>
+      <c r="E64" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64" s="37" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="133"/>
+      <c r="B65" s="129"/>
+      <c r="C65" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="D65" s="80" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="119"/>
-      <c r="B63" s="116"/>
-      <c r="C63" s="45" t="s">
-        <v>131</v>
-      </c>
-      <c r="D63" s="60" t="s">
-        <v>264</v>
-      </c>
-      <c r="E63" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F63" s="37" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="119"/>
-      <c r="B64" s="116"/>
-      <c r="C64" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="D64" s="53" t="s">
-        <v>265</v>
-      </c>
-      <c r="E64" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F64" s="37" t="s">
+      <c r="E65" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" s="37" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="120"/>
-      <c r="B65" s="116"/>
-      <c r="C65" s="45" t="s">
-        <v>133</v>
-      </c>
-      <c r="D65" s="80" t="s">
-        <v>138</v>
-      </c>
-      <c r="E65" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F65" s="37" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="76"/>
-      <c r="B66" s="117"/>
+      <c r="B66" s="130"/>
       <c r="C66" s="47" t="s">
+        <v>249</v>
+      </c>
+      <c r="D66" s="81" t="s">
         <v>250</v>
       </c>
-      <c r="D66" s="81" t="s">
-        <v>251</v>
-      </c>
       <c r="E66" s="39" t="s">
         <v>10</v>
       </c>
       <c r="F66" s="40" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="122" t="s">
+      <c r="A67" s="135" t="s">
         <v>64</v>
       </c>
-      <c r="B67" s="121" t="s">
+      <c r="B67" s="134" t="s">
         <v>65</v>
       </c>
       <c r="C67" s="41" t="s">
@@ -3569,8 +3569,8 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="122"/>
-      <c r="B68" s="121"/>
+      <c r="A68" s="135"/>
+      <c r="B68" s="134"/>
       <c r="C68" s="13" t="s">
         <v>69</v>
       </c>
@@ -3585,10 +3585,10 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="115" t="s">
+      <c r="A69" s="128" t="s">
         <v>72</v>
       </c>
-      <c r="B69" s="115" t="s">
+      <c r="B69" s="128" t="s">
         <v>73</v>
       </c>
       <c r="C69" s="22" t="s">
@@ -3605,8 +3605,8 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="116"/>
-      <c r="B70" s="116"/>
+      <c r="A70" s="129"/>
+      <c r="B70" s="129"/>
       <c r="C70" s="19" t="s">
         <v>77</v>
       </c>
@@ -3621,8 +3621,8 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="116"/>
-      <c r="B71" s="116"/>
+      <c r="A71" s="129"/>
+      <c r="B71" s="129"/>
       <c r="C71" s="19" t="s">
         <v>79</v>
       </c>
@@ -3637,13 +3637,13 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="116"/>
-      <c r="B72" s="116"/>
+      <c r="A72" s="129"/>
+      <c r="B72" s="129"/>
       <c r="C72" s="20" t="s">
         <v>81</v>
       </c>
       <c r="D72" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E72" s="51" t="s">
         <v>10</v>
@@ -3653,305 +3653,305 @@
       </c>
     </row>
     <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="116"/>
-      <c r="B73" s="116"/>
+      <c r="A73" s="129"/>
+      <c r="B73" s="129"/>
       <c r="C73" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="D73" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="E73" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="F73" s="37" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="129"/>
+      <c r="B74" s="129"/>
+      <c r="C74" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="D73" s="35" t="s">
+      <c r="D74" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="E73" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="F73" s="37" t="s">
+      <c r="E74" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="F74" s="37" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="116"/>
-      <c r="B74" s="116"/>
-      <c r="C74" s="20" t="s">
+    <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="129"/>
+      <c r="B75" s="129"/>
+      <c r="C75" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="D74" s="35" t="s">
+      <c r="D75" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="E74" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="F74" s="37" t="s">
+      <c r="E75" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="F75" s="37" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="116"/>
-      <c r="B75" s="116"/>
-      <c r="C75" s="20" t="s">
+    <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="129"/>
+      <c r="B76" s="129"/>
+      <c r="C76" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="D75" s="35" t="s">
+      <c r="D76" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="E75" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="F75" s="37" t="s">
+      <c r="E76" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="F76" s="37" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="116"/>
-      <c r="B76" s="116"/>
-      <c r="C76" s="20" t="s">
+    <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="129"/>
+      <c r="B77" s="129"/>
+      <c r="C77" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="D76" s="35" t="s">
+      <c r="D77" s="35" t="s">
+        <v>270</v>
+      </c>
+      <c r="E77" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="F77" s="37" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="129"/>
+      <c r="B78" s="129"/>
+      <c r="C78" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="D78" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="E76" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="F76" s="37" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="116"/>
-      <c r="B77" s="116"/>
-      <c r="C77" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="D77" s="35" t="s">
-        <v>271</v>
-      </c>
-      <c r="E77" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="F77" s="37" t="s">
+      <c r="E78" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="F78" s="37" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="116"/>
-      <c r="B78" s="116"/>
-      <c r="C78" s="20" t="s">
+    <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="129"/>
+      <c r="B79" s="129"/>
+      <c r="C79" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="D78" s="35" t="s">
+      <c r="D79" s="35" t="s">
+        <v>267</v>
+      </c>
+      <c r="E79" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="F79" s="37" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="129"/>
+      <c r="B80" s="129"/>
+      <c r="C80" s="82" t="s">
+        <v>148</v>
+      </c>
+      <c r="D80" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="E78" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="F78" s="37" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="116"/>
-      <c r="B79" s="116"/>
-      <c r="C79" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="D79" s="35" t="s">
-        <v>268</v>
-      </c>
-      <c r="E79" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="F79" s="37" t="s">
+      <c r="E80" s="83" t="s">
+        <v>10</v>
+      </c>
+      <c r="F80" s="37" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="116"/>
-      <c r="B80" s="116"/>
-      <c r="C80" s="82" t="s">
+    <row r="81" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="130"/>
+      <c r="B81" s="129"/>
+      <c r="C81" s="82" t="s">
         <v>149</v>
       </c>
-      <c r="D80" s="35" t="s">
+      <c r="D81" s="35" t="s">
         <v>165</v>
       </c>
-      <c r="E80" s="83" t="s">
-        <v>10</v>
-      </c>
-      <c r="F80" s="37" t="s">
+      <c r="E81" s="85" t="s">
+        <v>10</v>
+      </c>
+      <c r="F81" s="37" t="s">
         <v>158</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="117"/>
-      <c r="B81" s="116"/>
-      <c r="C81" s="82" t="s">
-        <v>150</v>
-      </c>
-      <c r="D81" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="E81" s="85" t="s">
-        <v>10</v>
-      </c>
-      <c r="F81" s="37" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="79"/>
-      <c r="B82" s="116"/>
+      <c r="B82" s="129"/>
       <c r="C82" s="82" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D82" s="35" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E82" s="85" t="s">
         <v>10</v>
       </c>
       <c r="F82" s="37" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="79"/>
-      <c r="B83" s="116"/>
+      <c r="B83" s="129"/>
       <c r="C83" s="28" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D83" s="35" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E83" s="85" t="s">
         <v>10</v>
       </c>
       <c r="F83" s="37" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="79"/>
-      <c r="B84" s="117"/>
+      <c r="B84" s="130"/>
       <c r="C84" s="31" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D84" s="38" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E84" s="88" t="s">
         <v>10</v>
       </c>
       <c r="F84" s="106" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="107" t="s">
+      <c r="A85" s="120" t="s">
         <v>82</v>
       </c>
-      <c r="B85" s="111" t="s">
+      <c r="B85" s="124" t="s">
         <v>83</v>
       </c>
       <c r="C85" s="87" t="s">
         <v>84</v>
       </c>
       <c r="D85" s="84" t="s">
+        <v>271</v>
+      </c>
+      <c r="E85" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="F85" s="86" t="s">
         <v>85</v>
       </c>
-      <c r="E85" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="F85" s="86" t="s">
-        <v>86</v>
-      </c>
     </row>
     <row r="86" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="108"/>
-      <c r="B86" s="112"/>
+      <c r="A86" s="121"/>
+      <c r="B86" s="125"/>
       <c r="C86" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="D86" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="E86" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="F86" s="36" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="121"/>
+      <c r="B87" s="125"/>
+      <c r="C87" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="D86" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="E86" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="F86" s="36" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="108"/>
-      <c r="B87" s="112"/>
-      <c r="C87" s="28" t="s">
+      <c r="D87" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="E87" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="F87" s="37" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="121"/>
+      <c r="B88" s="125"/>
+      <c r="C88" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="D87" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="E87" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="F87" s="37" t="s">
+      <c r="D88" s="29" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="108"/>
-      <c r="B88" s="112"/>
-      <c r="C88" s="28" t="s">
+      <c r="E88" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="F88" s="37" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="121"/>
+      <c r="B89" s="125"/>
+      <c r="C89" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="D88" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="E88" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="F88" s="37" t="s">
+      <c r="D89" s="29" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="108"/>
-      <c r="B89" s="112"/>
-      <c r="C89" s="34" t="s">
+      <c r="E89" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="F89" s="37" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="122"/>
+      <c r="B90" s="126"/>
+      <c r="C90" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="D89" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="E89" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="F89" s="37" t="s">
+      <c r="D90" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="E90" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F90" s="37" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="123"/>
+      <c r="B91" s="127"/>
+      <c r="C91" s="31" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="109"/>
-      <c r="B90" s="113"/>
-      <c r="C90" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="D90" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="E90" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F90" s="37" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="110"/>
-      <c r="B91" s="114"/>
-      <c r="C91" s="31" t="s">
-        <v>127</v>
-      </c>
       <c r="D91" s="61" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E91" s="39" t="s">
         <v>10</v>
@@ -3992,12 +3992,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A23:A58"/>
-    <mergeCell ref="A7:A22"/>
-    <mergeCell ref="B7:B22"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B23:B58"/>
-    <mergeCell ref="B2:B6"/>
     <mergeCell ref="A85:A91"/>
     <mergeCell ref="B85:B91"/>
     <mergeCell ref="A69:A81"/>
@@ -4006,6 +4000,12 @@
     <mergeCell ref="A67:A68"/>
     <mergeCell ref="B59:B66"/>
     <mergeCell ref="B69:B84"/>
+    <mergeCell ref="A23:A58"/>
+    <mergeCell ref="A7:A22"/>
+    <mergeCell ref="B7:B22"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B23:B58"/>
+    <mergeCell ref="B2:B6"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="1">

--- a/Requirments/CRS/CRS.xlsx
+++ b/Requirments/CRS/CRS.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\3D Objects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arsan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30AAF132-7222-4FBB-83E5-08BCA04951AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="277">
   <si>
     <t>Feature ID</t>
   </si>
@@ -853,13 +852,16 @@
   </si>
   <si>
     <t>If the image format is invalid like (docs) display the error message: "invalid input" in red font.</t>
+  </si>
+  <si>
+    <t>SIQ_78</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1993,47 +1995,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
@@ -2056,19 +2025,52 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2077,7 +2079,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2413,24 +2415,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="111" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="93.28515625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="26.28515625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="16.3984375" customWidth="1"/>
+    <col min="2" max="2" width="23.09765625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="21.59765625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="93.296875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="26.296875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="20.09765625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="27.75" customHeight="1" thickBot="1">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2450,11 +2452,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="120" t="s">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A2" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="124" t="s">
+      <c r="B2" s="113" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="95" t="s">
@@ -2470,9 +2472,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="121"/>
-      <c r="B3" s="125"/>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A3" s="110"/>
+      <c r="B3" s="114"/>
       <c r="C3" s="5" t="s">
         <v>12</v>
       </c>
@@ -2486,9 +2488,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="121"/>
-      <c r="B4" s="125"/>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A4" s="110"/>
+      <c r="B4" s="114"/>
       <c r="C4" s="54" t="s">
         <v>15</v>
       </c>
@@ -2502,9 +2504,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="121"/>
-      <c r="B5" s="125"/>
+    <row r="5" spans="1:6">
+      <c r="A5" s="110"/>
+      <c r="B5" s="114"/>
       <c r="C5" s="88" t="s">
         <v>18</v>
       </c>
@@ -2518,9 +2520,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15.6" thickBot="1">
       <c r="A6" s="70"/>
-      <c r="B6" s="126"/>
+      <c r="B6" s="115"/>
       <c r="C6" s="101" t="s">
         <v>254</v>
       </c>
@@ -2534,11 +2536,11 @@
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="120" t="s">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A7" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="122" t="s">
+      <c r="B7" s="111" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="94" t="s">
@@ -2554,9 +2556,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="121"/>
-      <c r="B8" s="122"/>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A8" s="110"/>
+      <c r="B8" s="111"/>
       <c r="C8" s="54" t="s">
         <v>26</v>
       </c>
@@ -2570,9 +2572,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="121"/>
-      <c r="B9" s="122"/>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A9" s="110"/>
+      <c r="B9" s="111"/>
       <c r="C9" s="5" t="s">
         <v>28</v>
       </c>
@@ -2586,9 +2588,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="121"/>
-      <c r="B10" s="122"/>
+    <row r="10" spans="1:6">
+      <c r="A10" s="110"/>
+      <c r="B10" s="111"/>
       <c r="C10" s="5" t="s">
         <v>29</v>
       </c>
@@ -2602,9 +2604,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="121"/>
-      <c r="B11" s="122"/>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A11" s="110"/>
+      <c r="B11" s="111"/>
       <c r="C11" s="5" t="s">
         <v>31</v>
       </c>
@@ -2618,9 +2620,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="121"/>
-      <c r="B12" s="122"/>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A12" s="110"/>
+      <c r="B12" s="111"/>
       <c r="C12" s="5" t="s">
         <v>34</v>
       </c>
@@ -2634,9 +2636,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="121"/>
-      <c r="B13" s="122"/>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A13" s="110"/>
+      <c r="B13" s="111"/>
       <c r="C13" s="5" t="s">
         <v>36</v>
       </c>
@@ -2650,9 +2652,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="121"/>
-      <c r="B14" s="122"/>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A14" s="110"/>
+      <c r="B14" s="111"/>
       <c r="C14" s="12" t="s">
         <v>38</v>
       </c>
@@ -2666,9 +2668,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="121"/>
-      <c r="B15" s="122"/>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A15" s="110"/>
+      <c r="B15" s="111"/>
       <c r="C15" s="12" t="s">
         <v>85</v>
       </c>
@@ -2682,9 +2684,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="121"/>
-      <c r="B16" s="122"/>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A16" s="110"/>
+      <c r="B16" s="111"/>
       <c r="C16" s="12" t="s">
         <v>86</v>
       </c>
@@ -2698,9 +2700,9 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="121"/>
-      <c r="B17" s="122"/>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A17" s="110"/>
+      <c r="B17" s="111"/>
       <c r="C17" s="12" t="s">
         <v>87</v>
       </c>
@@ -2714,9 +2716,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="121"/>
-      <c r="B18" s="122"/>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A18" s="110"/>
+      <c r="B18" s="111"/>
       <c r="C18" s="12" t="s">
         <v>88</v>
       </c>
@@ -2730,9 +2732,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="121"/>
-      <c r="B19" s="122"/>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A19" s="110"/>
+      <c r="B19" s="111"/>
       <c r="C19" s="12" t="s">
         <v>89</v>
       </c>
@@ -2746,9 +2748,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="121"/>
-      <c r="B20" s="122"/>
+    <row r="20" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A20" s="110"/>
+      <c r="B20" s="111"/>
       <c r="C20" s="12" t="s">
         <v>90</v>
       </c>
@@ -2762,9 +2764,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="121"/>
-      <c r="B21" s="122"/>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A21" s="110"/>
+      <c r="B21" s="111"/>
       <c r="C21" s="12" t="s">
         <v>91</v>
       </c>
@@ -2778,9 +2780,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="121"/>
-      <c r="B22" s="123"/>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A22" s="110"/>
+      <c r="B22" s="112"/>
       <c r="C22" s="73" t="s">
         <v>102</v>
       </c>
@@ -2794,11 +2796,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="130" t="s">
+    <row r="23" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A23" s="116" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="117" t="s">
+      <c r="B23" s="119" t="s">
         <v>42</v>
       </c>
       <c r="C23" s="63" t="s">
@@ -2814,9 +2816,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="131"/>
-      <c r="B24" s="118"/>
+    <row r="24" spans="1:6">
+      <c r="A24" s="117"/>
+      <c r="B24" s="120"/>
       <c r="C24" s="64" t="s">
         <v>46</v>
       </c>
@@ -2830,9 +2832,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="131"/>
-      <c r="B25" s="118"/>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A25" s="117"/>
+      <c r="B25" s="120"/>
       <c r="C25" s="64" t="s">
         <v>48</v>
       </c>
@@ -2846,9 +2848,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="131"/>
-      <c r="B26" s="118"/>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A26" s="117"/>
+      <c r="B26" s="120"/>
       <c r="C26" s="64" t="s">
         <v>50</v>
       </c>
@@ -2862,9 +2864,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="131"/>
-      <c r="B27" s="118"/>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A27" s="117"/>
+      <c r="B27" s="120"/>
       <c r="C27" s="64" t="s">
         <v>52</v>
       </c>
@@ -2878,9 +2880,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="131"/>
-      <c r="B28" s="118"/>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A28" s="117"/>
+      <c r="B28" s="120"/>
       <c r="C28" s="64" t="s">
         <v>53</v>
       </c>
@@ -2894,9 +2896,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="131"/>
-      <c r="B29" s="118"/>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A29" s="117"/>
+      <c r="B29" s="120"/>
       <c r="C29" s="64" t="s">
         <v>55</v>
       </c>
@@ -2910,9 +2912,9 @@
         <v>210</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="131"/>
-      <c r="B30" s="118"/>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A30" s="117"/>
+      <c r="B30" s="120"/>
       <c r="C30" s="64" t="s">
         <v>105</v>
       </c>
@@ -2926,9 +2928,9 @@
         <v>211</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="131"/>
-      <c r="B31" s="118"/>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A31" s="117"/>
+      <c r="B31" s="120"/>
       <c r="C31" s="64" t="s">
         <v>106</v>
       </c>
@@ -2942,9 +2944,9 @@
         <v>212</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="131"/>
-      <c r="B32" s="118"/>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A32" s="117"/>
+      <c r="B32" s="120"/>
       <c r="C32" s="64" t="s">
         <v>107</v>
       </c>
@@ -2958,9 +2960,9 @@
         <v>213</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="131"/>
-      <c r="B33" s="118"/>
+    <row r="33" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A33" s="117"/>
+      <c r="B33" s="120"/>
       <c r="C33" s="64" t="s">
         <v>108</v>
       </c>
@@ -2974,9 +2976,9 @@
         <v>214</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="131"/>
-      <c r="B34" s="118"/>
+    <row r="34" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A34" s="117"/>
+      <c r="B34" s="120"/>
       <c r="C34" s="64" t="s">
         <v>109</v>
       </c>
@@ -2990,9 +2992,9 @@
         <v>215</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="131"/>
-      <c r="B35" s="118"/>
+    <row r="35" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A35" s="117"/>
+      <c r="B35" s="120"/>
       <c r="C35" s="64" t="s">
         <v>110</v>
       </c>
@@ -3006,9 +3008,9 @@
         <v>216</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="131"/>
-      <c r="B36" s="118"/>
+    <row r="36" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A36" s="117"/>
+      <c r="B36" s="120"/>
       <c r="C36" s="64" t="s">
         <v>111</v>
       </c>
@@ -3022,9 +3024,9 @@
         <v>217</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="131"/>
-      <c r="B37" s="118"/>
+    <row r="37" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A37" s="117"/>
+      <c r="B37" s="120"/>
       <c r="C37" s="64" t="s">
         <v>188</v>
       </c>
@@ -3038,9 +3040,9 @@
         <v>218</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="131"/>
-      <c r="B38" s="118"/>
+    <row r="38" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A38" s="117"/>
+      <c r="B38" s="120"/>
       <c r="C38" s="64" t="s">
         <v>189</v>
       </c>
@@ -3054,9 +3056,9 @@
         <v>219</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="131"/>
-      <c r="B39" s="118"/>
+    <row r="39" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A39" s="117"/>
+      <c r="B39" s="120"/>
       <c r="C39" s="64" t="s">
         <v>190</v>
       </c>
@@ -3070,9 +3072,9 @@
         <v>220</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="131"/>
-      <c r="B40" s="118"/>
+    <row r="40" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A40" s="117"/>
+      <c r="B40" s="120"/>
       <c r="C40" s="64" t="s">
         <v>191</v>
       </c>
@@ -3086,9 +3088,9 @@
         <v>221</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="131"/>
-      <c r="B41" s="118"/>
+    <row r="41" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A41" s="117"/>
+      <c r="B41" s="120"/>
       <c r="C41" s="64" t="s">
         <v>192</v>
       </c>
@@ -3102,9 +3104,9 @@
         <v>222</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="131"/>
-      <c r="B42" s="118"/>
+    <row r="42" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A42" s="117"/>
+      <c r="B42" s="120"/>
       <c r="C42" s="64" t="s">
         <v>193</v>
       </c>
@@ -3118,9 +3120,9 @@
         <v>223</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="131"/>
-      <c r="B43" s="118"/>
+    <row r="43" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A43" s="117"/>
+      <c r="B43" s="120"/>
       <c r="C43" s="64" t="s">
         <v>194</v>
       </c>
@@ -3134,9 +3136,9 @@
         <v>224</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="131"/>
-      <c r="B44" s="118"/>
+    <row r="44" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A44" s="117"/>
+      <c r="B44" s="120"/>
       <c r="C44" s="64" t="s">
         <v>195</v>
       </c>
@@ -3150,9 +3152,9 @@
         <v>225</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="131"/>
-      <c r="B45" s="118"/>
+    <row r="45" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A45" s="117"/>
+      <c r="B45" s="120"/>
       <c r="C45" s="64" t="s">
         <v>196</v>
       </c>
@@ -3166,9 +3168,9 @@
         <v>226</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="131"/>
-      <c r="B46" s="118"/>
+    <row r="46" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A46" s="117"/>
+      <c r="B46" s="120"/>
       <c r="C46" s="64" t="s">
         <v>197</v>
       </c>
@@ -3182,9 +3184,9 @@
         <v>227</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="131"/>
-      <c r="B47" s="118"/>
+    <row r="47" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A47" s="117"/>
+      <c r="B47" s="120"/>
       <c r="C47" s="64" t="s">
         <v>198</v>
       </c>
@@ -3198,9 +3200,9 @@
         <v>228</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="131"/>
-      <c r="B48" s="118"/>
+    <row r="48" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A48" s="117"/>
+      <c r="B48" s="120"/>
       <c r="C48" s="64" t="s">
         <v>199</v>
       </c>
@@ -3214,9 +3216,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="131"/>
-      <c r="B49" s="118"/>
+    <row r="49" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A49" s="117"/>
+      <c r="B49" s="120"/>
       <c r="C49" s="64" t="s">
         <v>200</v>
       </c>
@@ -3230,9 +3232,9 @@
         <v>230</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="131"/>
-      <c r="B50" s="118"/>
+    <row r="50" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A50" s="117"/>
+      <c r="B50" s="120"/>
       <c r="C50" s="64" t="s">
         <v>201</v>
       </c>
@@ -3246,9 +3248,9 @@
         <v>231</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="131"/>
-      <c r="B51" s="118"/>
+    <row r="51" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A51" s="117"/>
+      <c r="B51" s="120"/>
       <c r="C51" s="64" t="s">
         <v>202</v>
       </c>
@@ -3262,9 +3264,9 @@
         <v>232</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="131"/>
-      <c r="B52" s="118"/>
+    <row r="52" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A52" s="117"/>
+      <c r="B52" s="120"/>
       <c r="C52" s="64" t="s">
         <v>203</v>
       </c>
@@ -3278,9 +3280,9 @@
         <v>233</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="131"/>
-      <c r="B53" s="118"/>
+    <row r="53" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A53" s="117"/>
+      <c r="B53" s="120"/>
       <c r="C53" s="64" t="s">
         <v>204</v>
       </c>
@@ -3294,9 +3296,9 @@
         <v>234</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="131"/>
-      <c r="B54" s="118"/>
+    <row r="54" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A54" s="117"/>
+      <c r="B54" s="120"/>
       <c r="C54" s="64" t="s">
         <v>205</v>
       </c>
@@ -3310,9 +3312,9 @@
         <v>235</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="131"/>
-      <c r="B55" s="118"/>
+    <row r="55" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A55" s="117"/>
+      <c r="B55" s="120"/>
       <c r="C55" s="64" t="s">
         <v>206</v>
       </c>
@@ -3326,9 +3328,9 @@
         <v>236</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="131"/>
-      <c r="B56" s="118"/>
+    <row r="56" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A56" s="117"/>
+      <c r="B56" s="120"/>
       <c r="C56" s="64" t="s">
         <v>207</v>
       </c>
@@ -3342,9 +3344,9 @@
         <v>237</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="131"/>
-      <c r="B57" s="118"/>
+    <row r="57" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A57" s="117"/>
+      <c r="B57" s="120"/>
       <c r="C57" s="64" t="s">
         <v>208</v>
       </c>
@@ -3358,9 +3360,9 @@
         <v>238</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="131"/>
-      <c r="B58" s="118"/>
+    <row r="58" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A58" s="117"/>
+      <c r="B58" s="120"/>
       <c r="C58" s="69" t="s">
         <v>209</v>
       </c>
@@ -3374,35 +3376,43 @@
         <v>239</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="131"/>
-      <c r="B59" s="118"/>
+    <row r="59" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A59" s="117"/>
+      <c r="B59" s="120"/>
       <c r="C59" s="69" t="s">
         <v>272</v>
       </c>
-      <c r="D59" s="129" t="s">
+      <c r="D59" s="108" t="s">
         <v>273</v>
       </c>
-      <c r="E59" s="127"/>
-      <c r="F59" s="128"/>
-    </row>
-    <row r="60" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="134"/>
-      <c r="B60" s="119"/>
+      <c r="E59" s="106" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" s="107" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A60" s="118"/>
+      <c r="B60" s="121"/>
       <c r="C60" s="69" t="s">
         <v>274</v>
       </c>
       <c r="D60" s="38" t="s">
         <v>275</v>
       </c>
-      <c r="E60" s="127"/>
-      <c r="F60" s="128"/>
-    </row>
-    <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="130" t="s">
+      <c r="E60" s="106" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" s="107" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A61" s="116" t="s">
         <v>57</v>
       </c>
-      <c r="B61" s="114" t="s">
+      <c r="B61" s="134" t="s">
         <v>58</v>
       </c>
       <c r="C61" s="76" t="s">
@@ -3418,9 +3428,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="131"/>
-      <c r="B62" s="115"/>
+    <row r="62" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A62" s="117"/>
+      <c r="B62" s="130"/>
       <c r="C62" s="45" t="s">
         <v>61</v>
       </c>
@@ -3434,9 +3444,9 @@
         <v>133</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="131"/>
-      <c r="B63" s="115"/>
+    <row r="63" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A63" s="117"/>
+      <c r="B63" s="130"/>
       <c r="C63" s="45" t="s">
         <v>62</v>
       </c>
@@ -3450,9 +3460,9 @@
         <v>134</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="131"/>
-      <c r="B64" s="115"/>
+    <row r="64" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A64" s="117"/>
+      <c r="B64" s="130"/>
       <c r="C64" s="45" t="s">
         <v>128</v>
       </c>
@@ -3466,9 +3476,9 @@
         <v>135</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="131"/>
-      <c r="B65" s="115"/>
+    <row r="65" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A65" s="117"/>
+      <c r="B65" s="130"/>
       <c r="C65" s="45" t="s">
         <v>129</v>
       </c>
@@ -3482,9 +3492,9 @@
         <v>137</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="131"/>
-      <c r="B66" s="115"/>
+    <row r="66" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A66" s="117"/>
+      <c r="B66" s="130"/>
       <c r="C66" s="45" t="s">
         <v>130</v>
       </c>
@@ -3498,9 +3508,9 @@
         <v>138</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="131"/>
-      <c r="B67" s="115"/>
+    <row r="67" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A67" s="117"/>
+      <c r="B67" s="130"/>
       <c r="C67" s="45" t="s">
         <v>131</v>
       </c>
@@ -3514,9 +3524,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="131"/>
-      <c r="B68" s="116"/>
+    <row r="68" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A68" s="117"/>
+      <c r="B68" s="131"/>
       <c r="C68" s="47" t="s">
         <v>248</v>
       </c>
@@ -3530,7 +3540,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="15.75" customHeight="1">
       <c r="A69" s="133" t="s">
         <v>63</v>
       </c>
@@ -3550,7 +3560,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
       <c r="A70" s="133"/>
       <c r="B70" s="132"/>
       <c r="C70" s="13" t="s">
@@ -3566,11 +3576,11 @@
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="115" t="s">
+    <row r="71" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A71" s="130" t="s">
         <v>71</v>
       </c>
-      <c r="B71" s="114" t="s">
+      <c r="B71" s="134" t="s">
         <v>72</v>
       </c>
       <c r="C71" s="22" t="s">
@@ -3586,9 +3596,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="115"/>
-      <c r="B72" s="115"/>
+    <row r="72" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A72" s="130"/>
+      <c r="B72" s="130"/>
       <c r="C72" s="19" t="s">
         <v>76</v>
       </c>
@@ -3602,9 +3612,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="115"/>
-      <c r="B73" s="115"/>
+    <row r="73" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A73" s="130"/>
+      <c r="B73" s="130"/>
       <c r="C73" s="19" t="s">
         <v>78</v>
       </c>
@@ -3618,9 +3628,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="115"/>
-      <c r="B74" s="115"/>
+    <row r="74" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A74" s="130"/>
+      <c r="B74" s="130"/>
       <c r="C74" s="20" t="s">
         <v>80</v>
       </c>
@@ -3634,9 +3644,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="115"/>
-      <c r="B75" s="115"/>
+    <row r="75" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A75" s="130"/>
+      <c r="B75" s="130"/>
       <c r="C75" s="20" t="s">
         <v>140</v>
       </c>
@@ -3650,9 +3660,9 @@
         <v>149</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="115"/>
-      <c r="B76" s="115"/>
+    <row r="76" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A76" s="130"/>
+      <c r="B76" s="130"/>
       <c r="C76" s="20" t="s">
         <v>141</v>
       </c>
@@ -3666,9 +3676,9 @@
         <v>150</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="115"/>
-      <c r="B77" s="115"/>
+    <row r="77" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A77" s="130"/>
+      <c r="B77" s="130"/>
       <c r="C77" s="20" t="s">
         <v>142</v>
       </c>
@@ -3682,9 +3692,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="115"/>
-      <c r="B78" s="115"/>
+    <row r="78" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A78" s="130"/>
+      <c r="B78" s="130"/>
       <c r="C78" s="20" t="s">
         <v>143</v>
       </c>
@@ -3698,9 +3708,9 @@
         <v>152</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="115"/>
-      <c r="B79" s="115"/>
+    <row r="79" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A79" s="130"/>
+      <c r="B79" s="130"/>
       <c r="C79" s="20" t="s">
         <v>144</v>
       </c>
@@ -3714,9 +3724,9 @@
         <v>153</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="115"/>
-      <c r="B80" s="115"/>
+    <row r="80" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A80" s="130"/>
+      <c r="B80" s="130"/>
       <c r="C80" s="20" t="s">
         <v>145</v>
       </c>
@@ -3730,9 +3740,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="115"/>
-      <c r="B81" s="115"/>
+    <row r="81" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A81" s="130"/>
+      <c r="B81" s="130"/>
       <c r="C81" s="20" t="s">
         <v>146</v>
       </c>
@@ -3746,9 +3756,9 @@
         <v>155</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="115"/>
-      <c r="B82" s="115"/>
+    <row r="82" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A82" s="130"/>
+      <c r="B82" s="130"/>
       <c r="C82" s="81" t="s">
         <v>147</v>
       </c>
@@ -3762,9 +3772,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="116"/>
-      <c r="B83" s="115"/>
+    <row r="83" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A83" s="131"/>
+      <c r="B83" s="130"/>
       <c r="C83" s="81" t="s">
         <v>148</v>
       </c>
@@ -3778,9 +3788,9 @@
         <v>157</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="15.75" customHeight="1">
       <c r="A84" s="78"/>
-      <c r="B84" s="115"/>
+      <c r="B84" s="130"/>
       <c r="C84" s="81" t="s">
         <v>252</v>
       </c>
@@ -3794,9 +3804,9 @@
         <v>258</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" ht="15.75" customHeight="1">
       <c r="A85" s="78"/>
-      <c r="B85" s="115"/>
+      <c r="B85" s="130"/>
       <c r="C85" s="28" t="s">
         <v>253</v>
       </c>
@@ -3810,9 +3820,9 @@
         <v>259</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
       <c r="A86" s="78"/>
-      <c r="B86" s="116"/>
+      <c r="B86" s="131"/>
       <c r="C86" s="31" t="s">
         <v>265</v>
       </c>
@@ -3826,11 +3836,11 @@
         <v>221</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="106" t="s">
+    <row r="87" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A87" s="122" t="s">
         <v>81</v>
       </c>
-      <c r="B87" s="110" t="s">
+      <c r="B87" s="126" t="s">
         <v>82</v>
       </c>
       <c r="C87" s="86" t="s">
@@ -3846,9 +3856,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="107"/>
-      <c r="B88" s="111"/>
+    <row r="88" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A88" s="123"/>
+      <c r="B88" s="127"/>
       <c r="C88" s="28" t="s">
         <v>114</v>
       </c>
@@ -3862,9 +3872,9 @@
         <v>113</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="107"/>
-      <c r="B89" s="111"/>
+    <row r="89" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A89" s="123"/>
+      <c r="B89" s="127"/>
       <c r="C89" s="28" t="s">
         <v>115</v>
       </c>
@@ -3878,9 +3888,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="107"/>
-      <c r="B90" s="111"/>
+    <row r="90" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A90" s="123"/>
+      <c r="B90" s="127"/>
       <c r="C90" s="28" t="s">
         <v>116</v>
       </c>
@@ -3894,9 +3904,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="107"/>
-      <c r="B91" s="111"/>
+    <row r="91" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A91" s="123"/>
+      <c r="B91" s="127"/>
       <c r="C91" s="34" t="s">
         <v>117</v>
       </c>
@@ -3910,9 +3920,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="108"/>
-      <c r="B92" s="112"/>
+    <row r="92" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A92" s="124"/>
+      <c r="B92" s="128"/>
       <c r="C92" s="28" t="s">
         <v>118</v>
       </c>
@@ -3926,9 +3936,9 @@
         <v>127</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="109"/>
-      <c r="B93" s="113"/>
+    <row r="93" spans="1:6" ht="16.2" thickBot="1">
+      <c r="A93" s="125"/>
+      <c r="B93" s="129"/>
       <c r="C93" s="31" t="s">
         <v>125</v>
       </c>
@@ -3942,31 +3952,31 @@
         <v>20</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6">
       <c r="A94" s="1"/>
       <c r="B94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6">
       <c r="A95" s="1"/>
       <c r="B95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5">
       <c r="A98" s="3"/>
       <c r="B98" s="2"/>
       <c r="D98" s="2"/>
@@ -3974,24 +3984,24 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B61:B68"/>
+    <mergeCell ref="B71:B86"/>
+    <mergeCell ref="A61:A68"/>
+    <mergeCell ref="A87:A93"/>
+    <mergeCell ref="B87:B93"/>
+    <mergeCell ref="A71:A83"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="A69:A70"/>
     <mergeCell ref="A7:A22"/>
     <mergeCell ref="B7:B22"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="A23:A60"/>
     <mergeCell ref="B23:B60"/>
-    <mergeCell ref="A87:A93"/>
-    <mergeCell ref="B87:B93"/>
-    <mergeCell ref="A71:A83"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B61:B68"/>
-    <mergeCell ref="B71:B86"/>
-    <mergeCell ref="A61:A68"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E93" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E93">
       <formula1>"Pending Confiramtion, Confirmed"</formula1>
     </dataValidation>
   </dataValidations>
